--- a/Documents/WebTours_Профиль_нагрузки.xlsx
+++ b/Documents/WebTours_Профиль_нагрузки.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Andrey.Home-PC\IBS\Задания\LoadRunner\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC89D4A-A7AF-4A04-A327-4B5A28E3F991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9636EFA0-2477-4451-A5B6-B6EE4B7CF1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="366" r:id="rId5"/>
+    <pivotCache cacheId="9" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="103">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -316,24 +316,9 @@
     <t>Stop</t>
   </si>
   <si>
-    <t>Поиск максимума 3 ступень</t>
-  </si>
-  <si>
     <t>Подтверждение максимума</t>
   </si>
   <si>
-    <t>Профиль для 5 пользаков</t>
-  </si>
-  <si>
-    <t>1 315,</t>
-  </si>
-  <si>
-    <t>1 970,</t>
-  </si>
-  <si>
-    <t>1 675,</t>
-  </si>
-  <si>
     <t>Script name</t>
   </si>
   <si>
@@ -526,22 +511,53 @@
     <t>UC4_Flights_List_w/o_Payment</t>
   </si>
   <si>
+    <t>UC4_Itinerary_List</t>
+  </si>
+  <si>
     <t>UC5_Delete_From_Itinerary</t>
   </si>
   <si>
     <t>UC6_Register_New_Users</t>
+  </si>
+  <si>
+    <t>ConfirmMaxPerf</t>
+  </si>
+  <si>
+    <t>DebugPerf</t>
+  </si>
+  <si>
+    <t>SearchMaxPerf</t>
+  </si>
+  <si>
+    <t>Поиск максимума 4 ступень</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1081,7 +1097,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -1684,88 +1700,217 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="100">
+  <cellStyleXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1787,46 +1932,28 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1835,7 +1962,7 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="38" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1843,23 +1970,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1879,45 +2006,30 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="66"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="33" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="66"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="35" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2032,78 +2144,166 @@
     <xf numFmtId="2" fontId="0" fillId="42" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="42" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="80" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="80"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="80" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="80" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="100"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="80" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="80" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="80" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="80" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="80" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="80" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="80" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="80" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="80" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="80" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="80" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="80" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="80" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="80" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" xfId="80" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="120"/>
   </cellXfs>
-  <cellStyles count="100">
+  <cellStyles count="140">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% — акцент1 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% — акцент1 3" xfId="68" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="20% — акцент1 4" xfId="82" xr:uid="{41AA1822-D324-49C3-B855-FF8EB70AED6C}"/>
+    <cellStyle name="20% — акцент1 5" xfId="102" xr:uid="{35127450-5DB7-4A0C-A559-FB47B2EFA395}"/>
+    <cellStyle name="20% — акцент1 6" xfId="122" xr:uid="{9473782A-5ADE-4FEE-BF26-7B55DE6EB938}"/>
     <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% — акцент2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="20% — акцент2 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="20% — акцент2 4" xfId="85" xr:uid="{0C221A5A-E1F1-4FCC-8B64-67E65C9F10D4}"/>
+    <cellStyle name="20% — акцент2 5" xfId="105" xr:uid="{379DB22D-E8B3-490E-A3D9-40839112C153}"/>
+    <cellStyle name="20% — акцент2 6" xfId="125" xr:uid="{5C3A3E5E-BDA8-46F5-A8C0-F26F72F63D14}"/>
     <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% — акцент3 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="20% — акцент3 3" xfId="72" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="20% — акцент3 4" xfId="88" xr:uid="{A642B30D-EAC6-4100-A9F2-BF7715B9F12A}"/>
+    <cellStyle name="20% — акцент3 5" xfId="108" xr:uid="{A49047A3-C2F6-4E75-ABED-8C4BD378E688}"/>
+    <cellStyle name="20% — акцент3 6" xfId="128" xr:uid="{58C5D03C-8790-46B3-8957-F164DE52D3DE}"/>
     <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% — акцент4 2" xfId="57" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="20% — акцент4 3" xfId="74" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="20% — акцент4 4" xfId="91" xr:uid="{36EE2587-A985-49C8-90D7-FDB731A3C3FD}"/>
+    <cellStyle name="20% — акцент4 5" xfId="111" xr:uid="{6D9A0A25-D04E-4DD3-8FE5-0ED453BA5475}"/>
+    <cellStyle name="20% — акцент4 6" xfId="131" xr:uid="{A2528598-E7F1-4A70-B54C-77AD61CA2203}"/>
     <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% — акцент5 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="20% — акцент5 3" xfId="76" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="20% — акцент5 4" xfId="94" xr:uid="{9E89038E-7879-474C-9145-CF59613A4166}"/>
+    <cellStyle name="20% — акцент5 5" xfId="114" xr:uid="{87C9F25B-6BB1-4E6D-9A16-8AB913A6D828}"/>
+    <cellStyle name="20% — акцент5 6" xfId="134" xr:uid="{23D0B485-9120-4FC6-AF57-68186DE78206}"/>
     <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% — акцент6 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="20% — акцент6 3" xfId="78" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="20% — акцент6 4" xfId="97" xr:uid="{46AAA499-83C8-4487-85B6-2926D9038AE8}"/>
+    <cellStyle name="20% — акцент6 5" xfId="117" xr:uid="{3FE275C9-C3D9-4E97-A63D-6EDFE8D7471D}"/>
+    <cellStyle name="20% — акцент6 6" xfId="137" xr:uid="{D3B13CCD-FB4E-4D99-B1E5-352AB7D66358}"/>
     <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% — акцент1 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="40% — акцент1 3" xfId="69" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="40% — акцент1 4" xfId="83" xr:uid="{1EBAB30D-6EDB-4EFE-A4F9-E2F96CBDC7CC}"/>
+    <cellStyle name="40% — акцент1 5" xfId="103" xr:uid="{794573D4-C4A9-40FE-9E29-71DE5B3EE90A}"/>
+    <cellStyle name="40% — акцент1 6" xfId="123" xr:uid="{8F1D4210-50C8-452E-9D40-65190494B376}"/>
     <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% — акцент2 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
     <cellStyle name="40% — акцент2 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="40% — акцент2 4" xfId="86" xr:uid="{3449D548-5BBD-4E05-83E6-28240601D9B7}"/>
+    <cellStyle name="40% — акцент2 5" xfId="106" xr:uid="{56CAC24D-B6B0-41AE-9179-98BF3AF9201B}"/>
+    <cellStyle name="40% — акцент2 6" xfId="126" xr:uid="{0310C9FB-F485-43F8-B4DE-58D737C27488}"/>
     <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% — акцент3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="40% — акцент3 3" xfId="73" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="40% — акцент3 4" xfId="89" xr:uid="{B1114D56-7B06-4B9C-A1CB-3A3FF7E35C53}"/>
+    <cellStyle name="40% — акцент3 5" xfId="109" xr:uid="{CDA30651-AE5B-4F03-AAF8-5593083AF4A5}"/>
+    <cellStyle name="40% — акцент3 6" xfId="129" xr:uid="{74FF778B-5A2B-46A8-976A-8F9373669F1F}"/>
     <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% — акцент4 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
     <cellStyle name="40% — акцент4 3" xfId="75" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="40% — акцент4 4" xfId="92" xr:uid="{9461EF89-35EA-4294-A430-61825C8E1D3C}"/>
+    <cellStyle name="40% — акцент4 5" xfId="112" xr:uid="{717733A8-483F-4AE9-B940-618A0AE161CB}"/>
+    <cellStyle name="40% — акцент4 6" xfId="132" xr:uid="{1B748F86-C340-4D80-BBDB-CF2F2964E643}"/>
     <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% — акцент5 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
     <cellStyle name="40% — акцент5 3" xfId="77" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
     <cellStyle name="40% — акцент5 4" xfId="95" xr:uid="{45AF0BA6-FDCC-42A1-9722-AB68561D2988}"/>
+    <cellStyle name="40% — акцент5 5" xfId="115" xr:uid="{F6E8236F-3BA2-423C-ADDC-9B22E81FF1BC}"/>
+    <cellStyle name="40% — акцент5 6" xfId="135" xr:uid="{4C187E17-E746-4762-B7B2-21C9AA81A74C}"/>
     <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% — акцент6 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
     <cellStyle name="40% — акцент6 3" xfId="79" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="40% — акцент6 4" xfId="98" xr:uid="{EC5719D2-4851-4B8E-A14A-C156D581AA8F}"/>
+    <cellStyle name="40% — акцент6 5" xfId="118" xr:uid="{D7104E95-9B44-485A-A6E2-BD163233E431}"/>
+    <cellStyle name="40% — акцент6 6" xfId="138" xr:uid="{7810E4E9-F6B0-4EB2-BA41-5EE217E54389}"/>
     <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% — акцент1 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="60% — акцент1 3" xfId="84" xr:uid="{15D2BB41-6FA3-445E-AA64-291A3F296CB1}"/>
+    <cellStyle name="60% — акцент1 4" xfId="104" xr:uid="{0A723422-5DE2-494C-A171-06369E706D3A}"/>
+    <cellStyle name="60% — акцент1 5" xfId="124" xr:uid="{6947CB81-55D3-4263-A703-BD22F177D5E9}"/>
     <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% — акцент2 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="60% — акцент2 3" xfId="87" xr:uid="{A361825B-D69A-4F69-8C86-B0F7128E0EA6}"/>
+    <cellStyle name="60% — акцент2 4" xfId="107" xr:uid="{01E41DDD-0196-4541-A2A1-FC7BAF17DE6C}"/>
+    <cellStyle name="60% — акцент2 5" xfId="127" xr:uid="{0DD8C917-6323-4515-BDD7-8F94A0ED78CA}"/>
     <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% — акцент3 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
     <cellStyle name="60% — акцент3 3" xfId="90" xr:uid="{58DBACA8-1FE6-4A47-BB21-6FE5F4FCC5A5}"/>
+    <cellStyle name="60% — акцент3 4" xfId="110" xr:uid="{160CADBA-33A6-4BB0-A2E1-3671AD56260C}"/>
+    <cellStyle name="60% — акцент3 5" xfId="130" xr:uid="{59CAD118-DB59-4ADA-A8C5-9A15DE38264B}"/>
     <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% — акцент4 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
     <cellStyle name="60% — акцент4 3" xfId="93" xr:uid="{DF5DB50A-6EFD-4073-BED4-7890547E0270}"/>
+    <cellStyle name="60% — акцент4 4" xfId="113" xr:uid="{1CC460FE-B74D-4D1D-BEF3-5A051FC7B2F0}"/>
+    <cellStyle name="60% — акцент4 5" xfId="133" xr:uid="{9D7AAFD3-ECBC-4763-AB24-A7311794E195}"/>
     <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% — акцент5 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
     <cellStyle name="60% — акцент5 3" xfId="96" xr:uid="{53CFB547-923E-4645-9D18-8113DA0FAA63}"/>
+    <cellStyle name="60% — акцент5 4" xfId="116" xr:uid="{7C4FEC8D-C52D-431A-B2D5-1C2B719AF17B}"/>
+    <cellStyle name="60% — акцент5 5" xfId="136" xr:uid="{B93B336E-17DC-42F5-9B9E-6B21D7532EC7}"/>
     <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% — акцент6 2" xfId="65" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="60% — акцент6 3" xfId="99" xr:uid="{88B6875E-9822-489A-B86D-29F1E2A4089F}"/>
+    <cellStyle name="60% — акцент6 4" xfId="119" xr:uid="{AF23ED74-B25D-4281-BF82-9D6C366C323B}"/>
+    <cellStyle name="60% — акцент6 5" xfId="139" xr:uid="{51A8EBBC-232C-4221-A9EA-EDE717402400}"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -2128,522 +2328,22 @@
     <cellStyle name="Обычный 4" xfId="45" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
     <cellStyle name="Обычный 5" xfId="66" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
     <cellStyle name="Обычный 6" xfId="80" xr:uid="{00FBD6BF-8066-40A1-B96C-27427BADD87E}"/>
+    <cellStyle name="Обычный 7" xfId="100" xr:uid="{36C7846D-0DC6-42FD-B730-2E5FBC590006}"/>
+    <cellStyle name="Обычный 8" xfId="120" xr:uid="{586F809C-053B-4F97-BC2A-1686505481BA}"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
     <cellStyle name="Примечание 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
     <cellStyle name="Примечание 4" xfId="67" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
     <cellStyle name="Примечание 5" xfId="81" xr:uid="{053B7C42-FB32-4993-A1A4-4B4A5871C8CA}"/>
+    <cellStyle name="Примечание 6" xfId="101" xr:uid="{23948171-90A8-4D44-9E55-F1E85CE95536}"/>
+    <cellStyle name="Примечание 7" xfId="121" xr:uid="{3FC1BBB8-734F-434A-9B5D-60C5F2C667C4}"/>
     <cellStyle name="Процентный" xfId="44" builtinId="5"/>
     <cellStyle name="Связанная ячейка" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="182">
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <numFmt numFmtId="168" formatCode="0.000000"/>
     </dxf>
@@ -2700,7 +2400,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Andrey" refreshedDate="45331.750991550929" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="31" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Andrey" refreshedDate="45336.04112199074" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="31" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H32" sheet="Автоматизированный расчет"/>
   </cacheSource>
@@ -2867,12 +2567,12 @@
   <r>
     <s v="Удаление бронирования "/>
     <x v="6"/>
-    <n v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="51"/>
-    <n v="0"/>
+    <n v="1.1764705882352942"/>
     <n v="20"/>
-    <n v="0"/>
+    <n v="23.529411764705884"/>
   </r>
   <r>
     <s v="Регистрация новых пользователей"/>
@@ -2957,12 +2657,12 @@
   <r>
     <s v="Логин"/>
     <x v="6"/>
-    <n v="1"/>
+    <n v="0"/>
     <n v="1"/>
     <n v="70"/>
-    <n v="0.8571428571428571"/>
+    <n v="0"/>
     <n v="20"/>
-    <n v="17.142857142857142"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="Поиск билета без покупки"/>
@@ -3068,7 +2768,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица2" cacheId="366" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -3148,25 +2848,25 @@
     <dataField name="Сумма по полю Итого" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="168">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="169">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="170">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="171">
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="172">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="173">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="174">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -3445,10 +3145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W52"/>
+  <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3475,1817 +3175,1817 @@
     <col min="20" max="20" width="53.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="J1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="40" t="s">
+      <c r="P1" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="41" t="s">
+      <c r="V1" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q1" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="R1" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="T1" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="U1" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="V1" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="W1" s="31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="68">
+      <c r="B2" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="57">
         <v>1</v>
       </c>
-      <c r="D2" s="110">
+      <c r="D2" s="99">
         <f>VLOOKUP(A2,$M$1:$X$8,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E2" s="111">
+      <c r="E2" s="100">
         <f>VLOOKUP(A2,$M$1:$X$8,5,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="F2" s="112">
+      <c r="F2" s="101">
         <f>60/E2*C2</f>
         <v>1</v>
       </c>
-      <c r="G2" s="111">
+      <c r="G2" s="100">
         <f t="shared" ref="G2:G32" si="0">VLOOKUP(A2,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H2" s="113">
+      <c r="H2" s="102">
         <f>D2*F2*G2</f>
         <v>60</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="17">
+      <c r="I2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11">
         <v>147.57367735826725</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="18">
+      <c r="N2" s="12">
         <v>0.92700000000000005</v>
       </c>
-      <c r="O2" s="36">
+      <c r="O2" s="30">
         <v>16</v>
       </c>
-      <c r="P2" s="37">
+      <c r="P2" s="31">
         <f>N2+O2</f>
         <v>16.927</v>
       </c>
-      <c r="Q2" s="24">
+      <c r="Q2" s="18">
         <v>60</v>
       </c>
-      <c r="R2" s="46">
+      <c r="R2" s="40">
         <v>3</v>
       </c>
-      <c r="S2" s="47">
-        <f t="shared" ref="S2:S7" si="1">R2/W$2</f>
+      <c r="S2" s="41">
+        <f t="shared" ref="S2:S7" si="1">R2/X$2</f>
         <v>0.3</v>
       </c>
-      <c r="T2" s="62">
+      <c r="T2" s="56">
         <f t="shared" ref="T2:T7" si="2">60/(Q2)</f>
         <v>1</v>
       </c>
-      <c r="U2" s="50">
+      <c r="U2" s="44">
         <v>20</v>
       </c>
-      <c r="V2" s="51">
+      <c r="V2" s="45">
         <f>ROUND(R2*T2*U2,0)</f>
         <v>60</v>
       </c>
-      <c r="W2" s="29">
+      <c r="W2">
+        <v>60</v>
+      </c>
+      <c r="X2" s="23">
         <f>SUM(R2:R7)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="70">
+      <c r="B3" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="59">
         <v>1</v>
       </c>
-      <c r="D3" s="114">
+      <c r="D3" s="103">
         <f>VLOOKUP(A3,$M$1:$X$8,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E3" s="96">
+      <c r="E3" s="85">
         <f>VLOOKUP(A3,$M$1:$X$8,5,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="F3" s="97">
+      <c r="F3" s="86">
         <f>60/E3*C3</f>
         <v>1</v>
       </c>
-      <c r="G3" s="96">
+      <c r="G3" s="85">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H3" s="115">
+      <c r="H3" s="104">
         <f>D3*F3*G3</f>
         <v>60</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="11">
         <v>90</v>
       </c>
-      <c r="M3" s="43" t="s">
+      <c r="M3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="12">
         <v>0.629</v>
       </c>
-      <c r="O3" s="36">
+      <c r="O3" s="30">
         <v>5</v>
       </c>
-      <c r="P3" s="37">
+      <c r="P3" s="31">
         <f t="shared" ref="P3:P7" si="3">N3+O3</f>
         <v>5.6289999999999996</v>
       </c>
-      <c r="Q3" s="24">
+      <c r="Q3" s="18">
         <v>51</v>
       </c>
-      <c r="R3" s="46">
+      <c r="R3" s="40">
         <v>1</v>
       </c>
-      <c r="S3" s="47">
+      <c r="S3" s="41">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="T3" s="62">
+      <c r="T3" s="56">
         <f t="shared" si="2"/>
         <v>1.1764705882352942</v>
       </c>
-      <c r="U3" s="50">
+      <c r="U3" s="44">
         <v>20</v>
       </c>
-      <c r="V3" s="51">
-        <f>ROUND(R3*T3*U3,0)</f>
+      <c r="V3" s="45">
+        <f t="shared" ref="V3:V7" si="4">ROUND(R3*T3*U3,0)</f>
         <v>24</v>
       </c>
-      <c r="W3" s="29"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+      <c r="W3" s="23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="70">
+      <c r="B4" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="59">
         <v>1</v>
       </c>
-      <c r="D4" s="114">
+      <c r="D4" s="103">
         <f>VLOOKUP(A5,$M$1:$X$8,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E4" s="96">
+      <c r="E4" s="85">
         <f>VLOOKUP(A5,$M$1:$X$8,5,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="F4" s="97">
-        <f t="shared" ref="F4" si="4">60/E4*C4</f>
+      <c r="F4" s="86">
+        <f t="shared" ref="F4" si="5">60/E4*C4</f>
         <v>1</v>
       </c>
-      <c r="G4" s="96">
+      <c r="G4" s="85">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H4" s="115">
-        <f t="shared" ref="H4" si="5">D4*F4*G4</f>
+      <c r="H4" s="104">
+        <f t="shared" ref="H4" si="6">D4*F4*G4</f>
         <v>60</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="17">
-        <v>107.14285714285714</v>
-      </c>
-      <c r="M4" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="N4" s="18">
+      <c r="J4" s="11">
+        <v>113.52941176470588</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="12">
         <v>0.60299999999999998</v>
       </c>
-      <c r="O4" s="36">
+      <c r="O4" s="30">
         <v>13</v>
       </c>
-      <c r="P4" s="37">
+      <c r="P4" s="31">
         <f t="shared" si="3"/>
         <v>13.603</v>
       </c>
-      <c r="Q4" s="24">
+      <c r="Q4" s="18">
         <v>74</v>
       </c>
-      <c r="R4" s="46">
+      <c r="R4" s="40">
         <v>2</v>
       </c>
-      <c r="S4" s="47">
+      <c r="S4" s="41">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="T4" s="62">
+      <c r="T4" s="56">
         <f t="shared" si="2"/>
         <v>0.81081081081081086</v>
       </c>
-      <c r="U4" s="50">
+      <c r="U4" s="44">
         <v>20</v>
       </c>
-      <c r="V4" s="51">
-        <f>ROUND(R4*T4*U4,0)</f>
+      <c r="V4" s="45">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="W4" s="29"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+      <c r="W4" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="70">
+      <c r="C5" s="59">
         <v>1</v>
       </c>
-      <c r="D5" s="114">
+      <c r="D5" s="103">
         <f>VLOOKUP(A6,$M$1:$X$8,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E5" s="96">
+      <c r="E5" s="85">
         <f>VLOOKUP(A6,$M$1:$X$8,5,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="F5" s="97">
-        <f t="shared" ref="F5" si="6">60/E5*C5</f>
+      <c r="F5" s="86">
+        <f t="shared" ref="F5" si="7">60/E5*C5</f>
         <v>1</v>
       </c>
-      <c r="G5" s="96">
+      <c r="G5" s="85">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H5" s="115">
-        <f t="shared" ref="H5" si="7">D5*F5*G5</f>
+      <c r="H5" s="104">
+        <f t="shared" ref="H5" si="8">D5*F5*G5</f>
         <v>60</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="11">
         <v>90</v>
       </c>
-      <c r="M5" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" s="18">
+      <c r="M5" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="12">
         <v>0.76300000000000001</v>
       </c>
-      <c r="O5" s="36">
+      <c r="O5" s="30">
         <v>8</v>
       </c>
-      <c r="P5" s="37">
+      <c r="P5" s="31">
         <f t="shared" si="3"/>
         <v>8.7629999999999999</v>
       </c>
-      <c r="Q5" s="24">
+      <c r="Q5" s="18">
         <v>80</v>
       </c>
-      <c r="R5" s="46">
+      <c r="R5" s="40">
         <v>2</v>
       </c>
-      <c r="S5" s="47">
+      <c r="S5" s="41">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="T5" s="62">
+      <c r="T5" s="56">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="U5" s="50">
+      <c r="U5" s="44">
         <v>20</v>
       </c>
-      <c r="V5" s="51">
-        <f>ROUND(R5*T5*U5,0)</f>
+      <c r="V5" s="45">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="W5" s="29"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
+      <c r="W5" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="59">
         <v>1</v>
       </c>
-      <c r="D6" s="114">
-        <f t="shared" ref="D6:D32" si="8">VLOOKUP(A6,$M$1:$X$8,6,FALSE)</f>
+      <c r="D6" s="103">
+        <f t="shared" ref="D6:D32" si="9">VLOOKUP(A6,$M$1:$X$8,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E6" s="96">
-        <f t="shared" ref="E6:E32" si="9">VLOOKUP(A6,$M$1:$X$8,5,FALSE)</f>
+      <c r="E6" s="85">
+        <f t="shared" ref="E6:E32" si="10">VLOOKUP(A6,$M$1:$X$8,5,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="F6" s="97">
-        <f t="shared" ref="F6:F32" si="10">60/E6*C6</f>
+      <c r="F6" s="86">
+        <f t="shared" ref="F6:F32" si="11">60/E6*C6</f>
         <v>1</v>
       </c>
-      <c r="G6" s="96">
+      <c r="G6" s="85">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H6" s="115">
-        <f t="shared" ref="H6:H17" si="11">D6*F6*G6</f>
+      <c r="H6" s="104">
+        <f t="shared" ref="H6:H17" si="12">D6*F6*G6</f>
         <v>60</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="11">
         <v>60</v>
       </c>
-      <c r="M6" s="43" t="s">
+      <c r="M6" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="12">
         <v>0.68</v>
       </c>
-      <c r="O6" s="36">
+      <c r="O6" s="30">
         <v>8</v>
       </c>
-      <c r="P6" s="37">
+      <c r="P6" s="31">
         <f t="shared" si="3"/>
         <v>8.68</v>
       </c>
-      <c r="Q6" s="24">
+      <c r="Q6" s="18">
         <v>71</v>
       </c>
-      <c r="R6" s="46">
+      <c r="R6" s="40">
         <v>1</v>
       </c>
-      <c r="S6" s="47">
+      <c r="S6" s="41">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="T6" s="62">
+      <c r="T6" s="56">
         <f t="shared" si="2"/>
         <v>0.84507042253521125</v>
       </c>
-      <c r="U6" s="50">
+      <c r="U6" s="44">
         <v>20</v>
       </c>
-      <c r="V6" s="51">
-        <f>ROUND(R6*T6*U6,0)</f>
+      <c r="V6" s="45">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="W6" s="29"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="166" t="s">
+      <c r="W6" s="23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="167" t="s">
+      <c r="B7" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="166">
+      <c r="C7" s="155">
         <v>1</v>
       </c>
-      <c r="D7" s="168">
-        <f t="shared" si="8"/>
+      <c r="D7" s="157">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="E7" s="169">
-        <f t="shared" si="9"/>
+      <c r="E7" s="158">
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
-      <c r="F7" s="170">
-        <f t="shared" si="10"/>
+      <c r="F7" s="159">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="G7" s="169">
+      <c r="G7" s="158">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H7" s="171">
-        <f t="shared" si="11"/>
+      <c r="H7" s="160">
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="11">
         <v>23.529411764705884</v>
       </c>
-      <c r="M7" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="N7" s="18">
+      <c r="M7" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" s="12">
         <v>0.55900000000000005</v>
       </c>
-      <c r="O7" s="38">
+      <c r="O7" s="32">
         <v>12</v>
       </c>
-      <c r="P7" s="37">
+      <c r="P7" s="31">
         <f t="shared" si="3"/>
         <v>12.558999999999999</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="Q7" s="18">
         <v>70</v>
       </c>
-      <c r="R7" s="46">
+      <c r="R7" s="40">
         <v>1</v>
       </c>
-      <c r="S7" s="47">
+      <c r="S7" s="41">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="T7" s="62">
+      <c r="T7" s="56">
         <f t="shared" si="2"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="U7" s="50">
+      <c r="U7" s="44">
         <v>20</v>
       </c>
-      <c r="V7" s="51">
-        <f>SUM(V2:V6)</f>
-        <v>163</v>
-      </c>
-      <c r="W7" s="29"/>
-    </row>
-    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="166" t="s">
+      <c r="V7" s="45">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="W7" s="23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="167" t="s">
+      <c r="B8" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="166">
+      <c r="C8" s="155">
         <v>1</v>
       </c>
-      <c r="D8" s="168">
-        <f t="shared" ref="D8" si="12">VLOOKUP(A8,$M$1:$X$8,6,FALSE)</f>
+      <c r="D8" s="157">
+        <f t="shared" ref="D8" si="13">VLOOKUP(A8,$M$1:$X$8,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E8" s="169">
-        <f t="shared" ref="E8" si="13">VLOOKUP(A8,$M$1:$X$8,5,FALSE)</f>
+      <c r="E8" s="158">
+        <f t="shared" ref="E8" si="14">VLOOKUP(A8,$M$1:$X$8,5,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="F8" s="170">
-        <f t="shared" ref="F8" si="14">60/E8*C8</f>
+      <c r="F8" s="159">
+        <f t="shared" ref="F8" si="15">60/E8*C8</f>
         <v>1</v>
       </c>
-      <c r="G8" s="169">
-        <f t="shared" ref="G8" si="15">VLOOKUP(A8,$M$1:$X$8,9,FALSE)</f>
+      <c r="G8" s="158">
+        <f t="shared" ref="G8" si="16">VLOOKUP(A8,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H8" s="171">
-        <f t="shared" ref="H8" si="16">D8*F8*G8</f>
+      <c r="H8" s="160">
+        <f t="shared" ref="H8" si="17">D8*F8*G8</f>
         <v>60</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="11">
         <v>90.006109790699682</v>
       </c>
-      <c r="M8" s="44"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="52">
+      <c r="M8" s="38"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="46">
         <f>SUM(S2:S7)</f>
         <v>1</v>
       </c>
-      <c r="T8" s="61"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="30"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="72" t="s">
+      <c r="T8" s="55"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="24"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="72">
+      <c r="B9" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="61">
         <v>1</v>
       </c>
-      <c r="D9" s="172">
-        <f t="shared" si="8"/>
+      <c r="D9" s="161">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="E9" s="173">
-        <f t="shared" si="9"/>
+      <c r="E9" s="162">
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
-      <c r="F9" s="174">
-        <f t="shared" si="10"/>
+      <c r="F9" s="163">
+        <f t="shared" si="11"/>
         <v>1.1764705882352942</v>
       </c>
-      <c r="G9" s="175">
+      <c r="G9" s="164">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H9" s="176">
+      <c r="H9" s="165">
+        <f t="shared" si="12"/>
+        <v>23.529411764705884</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="11">
+        <v>180.0061097906997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="63">
+        <v>1</v>
+      </c>
+      <c r="D10" s="105">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="88">
+        <f t="shared" si="10"/>
+        <v>51</v>
+      </c>
+      <c r="F10" s="89">
         <f t="shared" si="11"/>
-        <v>23.529411764705884</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="17">
-        <v>180.0061097906997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="74">
-        <v>1</v>
-      </c>
-      <c r="D10" s="116">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="E10" s="99">
-        <f t="shared" si="9"/>
-        <v>51</v>
-      </c>
-      <c r="F10" s="100">
-        <f t="shared" si="10"/>
         <v>1.1764705882352942</v>
       </c>
-      <c r="G10" s="98">
+      <c r="G10" s="87">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H10" s="117">
+      <c r="H10" s="106">
+        <f t="shared" si="12"/>
+        <v>23.529411764705884</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="11">
+        <v>32.432432432432435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="63">
+        <v>1</v>
+      </c>
+      <c r="D11" s="105">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="88">
+        <f t="shared" si="10"/>
+        <v>51</v>
+      </c>
+      <c r="F11" s="89">
         <f t="shared" si="11"/>
-        <v>23.529411764705884</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="17">
-        <v>32.432432432432435</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="75" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="74">
-        <v>1</v>
-      </c>
-      <c r="D11" s="116">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="E11" s="99">
-        <f t="shared" si="9"/>
-        <v>51</v>
-      </c>
-      <c r="F11" s="100">
-        <f t="shared" si="10"/>
         <v>1.1764705882352942</v>
       </c>
-      <c r="G11" s="98">
+      <c r="G11" s="87">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H11" s="117">
+      <c r="H11" s="106">
+        <f t="shared" si="12"/>
+        <v>23.529411764705884</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="11">
+        <v>32.432432432432435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="63">
+        <v>1</v>
+      </c>
+      <c r="D12" s="105">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="88">
+        <f t="shared" si="10"/>
+        <v>51</v>
+      </c>
+      <c r="F12" s="89">
         <f t="shared" si="11"/>
-        <v>23.529411764705884</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="17">
-        <v>32.432432432432435</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="74">
-        <v>1</v>
-      </c>
-      <c r="D12" s="116">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="E12" s="99">
-        <f t="shared" si="9"/>
-        <v>51</v>
-      </c>
-      <c r="F12" s="100">
-        <f t="shared" si="10"/>
         <v>1.1764705882352942</v>
       </c>
-      <c r="G12" s="98">
+      <c r="G12" s="87">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H12" s="117">
+      <c r="H12" s="106">
+        <f t="shared" si="12"/>
+        <v>23.529411764705884</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="11">
+        <v>32.432432432432435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="65">
+        <v>1</v>
+      </c>
+      <c r="D13" s="166">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="167">
+        <f t="shared" si="10"/>
+        <v>51</v>
+      </c>
+      <c r="F13" s="168">
         <f t="shared" si="11"/>
-        <v>23.529411764705884</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="J12" s="17">
-        <v>32.432432432432435</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="76">
-        <v>0</v>
-      </c>
-      <c r="D13" s="177">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="E13" s="178">
-        <f t="shared" si="9"/>
-        <v>51</v>
-      </c>
-      <c r="F13" s="179">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="180">
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="G13" s="169">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H13" s="181">
+      <c r="H13" s="170">
+        <f t="shared" si="12"/>
+        <v>23.529411764705884</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="11">
+        <v>106.90140845070422</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="69">
+        <v>1</v>
+      </c>
+      <c r="D14" s="145">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E14" s="146">
+        <f t="shared" si="10"/>
+        <v>74</v>
+      </c>
+      <c r="F14" s="147">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" s="17">
-        <v>106.90140845070422</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="80" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="80">
-        <v>1</v>
-      </c>
-      <c r="D14" s="156">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="E14" s="157">
-        <f t="shared" si="9"/>
-        <v>74</v>
-      </c>
-      <c r="F14" s="158">
-        <f t="shared" si="10"/>
         <v>0.81081081081081086</v>
       </c>
-      <c r="G14" s="159">
+      <c r="G14" s="148">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H14" s="160">
+      <c r="H14" s="149">
+        <f t="shared" si="12"/>
+        <v>32.432432432432435</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="11">
+        <v>998.84342621707992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="71">
+        <v>1</v>
+      </c>
+      <c r="D15" s="107">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E15" s="91">
+        <f t="shared" si="10"/>
+        <v>74</v>
+      </c>
+      <c r="F15" s="92">
         <f t="shared" si="11"/>
-        <v>32.432432432432435</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="17">
-        <v>992.45687159523118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="82" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="82">
-        <v>1</v>
-      </c>
-      <c r="D15" s="118">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="E15" s="102">
-        <f t="shared" si="9"/>
-        <v>74</v>
-      </c>
-      <c r="F15" s="103">
-        <f t="shared" si="10"/>
         <v>0.81081081081081086</v>
       </c>
-      <c r="G15" s="101">
+      <c r="G15" s="90">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H15" s="119">
+      <c r="H15" s="108">
+        <f t="shared" si="12"/>
+        <v>32.432432432432435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="71">
+        <v>1</v>
+      </c>
+      <c r="D16" s="107">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E16" s="91">
+        <f t="shared" si="10"/>
+        <v>74</v>
+      </c>
+      <c r="F16" s="92">
         <f t="shared" si="11"/>
-        <v>32.432432432432435</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="82" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="82">
-        <v>1</v>
-      </c>
-      <c r="D16" s="118">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="E16" s="102">
-        <f t="shared" si="9"/>
-        <v>74</v>
-      </c>
-      <c r="F16" s="103">
-        <f t="shared" si="10"/>
         <v>0.81081081081081086</v>
       </c>
-      <c r="G16" s="101">
+      <c r="G16" s="90">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H16" s="119">
+      <c r="H16" s="108">
+        <f t="shared" si="12"/>
+        <v>32.432432432432435</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="71">
+        <v>1</v>
+      </c>
+      <c r="D17" s="107">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E17" s="91">
+        <f t="shared" si="10"/>
+        <v>74</v>
+      </c>
+      <c r="F17" s="92">
         <f t="shared" si="11"/>
-        <v>32.432432432432435</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="82" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="82">
-        <v>1</v>
-      </c>
-      <c r="D17" s="118">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="E17" s="102">
-        <f t="shared" si="9"/>
-        <v>74</v>
-      </c>
-      <c r="F17" s="103">
-        <f t="shared" si="10"/>
         <v>0.81081081081081086</v>
       </c>
-      <c r="G17" s="101">
+      <c r="G17" s="90">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H17" s="119">
+      <c r="H17" s="108">
+        <f t="shared" si="12"/>
+        <v>32.432432432432435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="73">
+        <v>1</v>
+      </c>
+      <c r="D18" s="150">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E18" s="151">
+        <f t="shared" si="10"/>
+        <v>74</v>
+      </c>
+      <c r="F18" s="152">
         <f t="shared" si="11"/>
-        <v>32.432432432432435</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="84" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="85" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="84">
-        <v>1</v>
-      </c>
-      <c r="D18" s="161">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="E18" s="162">
-        <f t="shared" si="9"/>
-        <v>74</v>
-      </c>
-      <c r="F18" s="163">
-        <f t="shared" si="10"/>
         <v>0.81081081081081086</v>
       </c>
-      <c r="G18" s="164">
+      <c r="G18" s="153">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H18" s="165">
-        <f t="shared" ref="H18" si="17">D18*F18*G18</f>
+      <c r="H18" s="154">
+        <f t="shared" ref="H18" si="18">D18*F18*G18</f>
         <v>32.432432432432435</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="150" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="151" t="s">
+      <c r="A19" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="150">
+      <c r="B19" s="140" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="139">
         <v>1</v>
       </c>
-      <c r="D19" s="152">
-        <f t="shared" si="8"/>
+      <c r="D19" s="141">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="E19" s="153">
-        <f t="shared" si="9"/>
+      <c r="E19" s="142">
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
-      <c r="F19" s="154">
-        <f t="shared" si="10"/>
+      <c r="F19" s="143">
+        <f t="shared" si="11"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="G19" s="153">
+      <c r="G19" s="142">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H19" s="155">
-        <f t="shared" ref="H19:H32" si="18">D19*F19*G19</f>
+      <c r="H19" s="144">
+        <f t="shared" ref="H19:H32" si="19">D19*F19*G19</f>
         <v>17.142857142857142</v>
       </c>
-      <c r="I19" s="182"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="78">
+      <c r="A20" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="67">
         <v>1</v>
       </c>
-      <c r="D20" s="120">
-        <f t="shared" si="8"/>
+      <c r="D20" s="109">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="E20" s="104">
-        <f t="shared" si="9"/>
+      <c r="E20" s="93">
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
-      <c r="F20" s="105">
-        <f t="shared" si="10"/>
+      <c r="F20" s="94">
+        <f t="shared" si="11"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="G20" s="104">
+      <c r="G20" s="93">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H20" s="121">
-        <f t="shared" si="18"/>
+      <c r="H20" s="110">
+        <f t="shared" si="19"/>
         <v>17.142857142857142</v>
       </c>
-      <c r="I20" s="182"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="79" t="s">
+      <c r="A21" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="78">
+      <c r="C21" s="67">
         <v>1</v>
       </c>
-      <c r="D21" s="120">
-        <f t="shared" si="8"/>
+      <c r="D21" s="109">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="E21" s="104">
-        <f t="shared" si="9"/>
+      <c r="E21" s="93">
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
-      <c r="F21" s="105">
-        <f t="shared" si="10"/>
+      <c r="F21" s="94">
+        <f t="shared" si="11"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="G21" s="104">
+      <c r="G21" s="93">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H21" s="121">
-        <f t="shared" si="18"/>
+      <c r="H21" s="110">
+        <f t="shared" si="19"/>
         <v>17.142857142857142</v>
       </c>
-      <c r="I21" s="182"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="130" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="131" t="s">
+      <c r="A22" s="119" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="130">
+      <c r="C22" s="119">
+        <v>0</v>
+      </c>
+      <c r="D22" s="121">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="D22" s="132">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="E22" s="133">
-        <f t="shared" si="9"/>
+      <c r="E22" s="122">
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
-      <c r="F22" s="134">
-        <f t="shared" si="10"/>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="G22" s="133">
+      <c r="F22" s="123">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="122">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H22" s="135">
-        <f t="shared" si="18"/>
-        <v>17.142857142857142</v>
-      </c>
-      <c r="I22" s="182"/>
+      <c r="H22" s="124">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="87" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="86">
+      <c r="A23" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="75">
         <v>1</v>
       </c>
-      <c r="D23" s="142">
-        <f t="shared" si="8"/>
+      <c r="D23" s="131">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="E23" s="143">
-        <f t="shared" si="9"/>
+      <c r="E23" s="132">
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
-      <c r="F23" s="144">
-        <f t="shared" si="10"/>
+      <c r="F23" s="133">
+        <f t="shared" si="11"/>
         <v>0.75</v>
       </c>
-      <c r="G23" s="143">
+      <c r="G23" s="132">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H23" s="145">
-        <f t="shared" si="18"/>
+      <c r="H23" s="134">
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
-      <c r="I23" s="182"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="88">
+      <c r="A24" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="77">
         <v>1</v>
       </c>
-      <c r="D24" s="122">
-        <f t="shared" ref="D24" si="19">VLOOKUP(A24,$M$1:$X$8,6,FALSE)</f>
+      <c r="D24" s="111">
+        <f t="shared" ref="D24" si="20">VLOOKUP(A24,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E24" s="106">
-        <f t="shared" ref="E24" si="20">VLOOKUP(A24,$M$1:$X$8,5,FALSE)</f>
+      <c r="E24" s="95">
+        <f t="shared" ref="E24" si="21">VLOOKUP(A24,$M$1:$X$8,5,FALSE)</f>
         <v>80</v>
       </c>
-      <c r="F24" s="107">
-        <f t="shared" ref="F24" si="21">60/E24*C24</f>
+      <c r="F24" s="96">
+        <f t="shared" ref="F24" si="22">60/E24*C24</f>
         <v>0.75</v>
       </c>
-      <c r="G24" s="106">
-        <f t="shared" ref="G24" si="22">VLOOKUP(A24,$M$1:$X$8,9,FALSE)</f>
+      <c r="G24" s="95">
+        <f t="shared" ref="G24" si="23">VLOOKUP(A24,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H24" s="123">
-        <f t="shared" ref="H24" si="23">D24*F24*G24</f>
+      <c r="H24" s="112">
+        <f t="shared" ref="H24" si="24">D24*F24*G24</f>
         <v>30</v>
       </c>
-      <c r="I24" s="182"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="89" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="88">
+      <c r="A25" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="77">
         <v>1</v>
       </c>
-      <c r="D25" s="122">
-        <f t="shared" si="8"/>
+      <c r="D25" s="111">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="E25" s="106">
-        <f t="shared" si="9"/>
+      <c r="E25" s="95">
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
-      <c r="F25" s="107">
-        <f t="shared" si="10"/>
+      <c r="F25" s="96">
+        <f t="shared" si="11"/>
         <v>0.75</v>
       </c>
-      <c r="G25" s="106">
+      <c r="G25" s="95">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H25" s="123">
-        <f t="shared" si="18"/>
+      <c r="H25" s="112">
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
-      <c r="I25" s="182"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="89" t="s">
+      <c r="A26" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="88">
+      <c r="C26" s="77">
         <v>1</v>
       </c>
-      <c r="D26" s="122">
-        <f t="shared" si="8"/>
+      <c r="D26" s="111">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="E26" s="106">
-        <f t="shared" si="9"/>
+      <c r="E26" s="95">
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
-      <c r="F26" s="107">
-        <f t="shared" si="10"/>
+      <c r="F26" s="96">
+        <f t="shared" si="11"/>
         <v>0.75</v>
       </c>
-      <c r="G26" s="106">
+      <c r="G26" s="95">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H26" s="123">
-        <f t="shared" si="18"/>
+      <c r="H26" s="112">
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
-      <c r="I26" s="182"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="89" t="s">
+      <c r="A27" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="88">
+      <c r="C27" s="77">
         <v>1</v>
       </c>
-      <c r="D27" s="122">
-        <f t="shared" si="8"/>
+      <c r="D27" s="111">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="E27" s="106">
-        <f t="shared" si="9"/>
+      <c r="E27" s="95">
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
-      <c r="F27" s="107">
-        <f t="shared" si="10"/>
+      <c r="F27" s="96">
+        <f t="shared" si="11"/>
         <v>0.75</v>
       </c>
-      <c r="G27" s="106">
+      <c r="G27" s="95">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H27" s="123">
-        <f t="shared" si="18"/>
+      <c r="H27" s="112">
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
-      <c r="I27" s="182"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="91" t="s">
+      <c r="A28" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="90">
+      <c r="C28" s="79">
         <v>1</v>
       </c>
-      <c r="D28" s="146">
-        <f t="shared" si="8"/>
+      <c r="D28" s="135">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="E28" s="147">
-        <f t="shared" si="9"/>
+      <c r="E28" s="136">
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
-      <c r="F28" s="148">
-        <f t="shared" si="10"/>
+      <c r="F28" s="137">
+        <f t="shared" si="11"/>
         <v>0.75</v>
       </c>
-      <c r="G28" s="147">
+      <c r="G28" s="136">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H28" s="149">
-        <f t="shared" si="18"/>
+      <c r="H28" s="138">
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
-      <c r="I28" s="182"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="136" t="s">
+      <c r="A29" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="137" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="136">
+      <c r="B29" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="125">
         <v>1</v>
       </c>
-      <c r="D29" s="138">
-        <f t="shared" si="8"/>
+      <c r="D29" s="127">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="E29" s="139">
-        <f t="shared" si="9"/>
+      <c r="E29" s="128">
+        <f t="shared" si="10"/>
         <v>71</v>
       </c>
-      <c r="F29" s="140">
-        <f t="shared" si="10"/>
+      <c r="F29" s="129">
+        <f t="shared" si="11"/>
         <v>0.84507042253521125</v>
       </c>
-      <c r="G29" s="139">
+      <c r="G29" s="128">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H29" s="141">
-        <f t="shared" si="18"/>
+      <c r="H29" s="130">
+        <f t="shared" si="19"/>
         <v>16.901408450704224</v>
       </c>
-      <c r="I29" s="182"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="92" t="s">
+      <c r="A30" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="92">
+      <c r="B30" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="81">
         <v>1</v>
       </c>
-      <c r="D30" s="124">
-        <f t="shared" si="8"/>
+      <c r="D30" s="113">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="E30" s="108">
-        <f t="shared" si="9"/>
+      <c r="E30" s="97">
+        <f t="shared" si="10"/>
         <v>71</v>
       </c>
-      <c r="F30" s="109">
-        <f t="shared" si="10"/>
+      <c r="F30" s="98">
+        <f t="shared" si="11"/>
         <v>0.84507042253521125</v>
       </c>
-      <c r="G30" s="108">
+      <c r="G30" s="97">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H30" s="125">
-        <f t="shared" si="18"/>
+      <c r="H30" s="114">
+        <f t="shared" si="19"/>
         <v>16.901408450704224</v>
       </c>
-      <c r="I30" s="182"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="92" t="s">
+      <c r="A31" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="93" t="s">
+      <c r="B31" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="92">
+      <c r="C31" s="81">
         <v>1</v>
       </c>
-      <c r="D31" s="124">
-        <f t="shared" si="8"/>
+      <c r="D31" s="113">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="E31" s="108">
-        <f t="shared" si="9"/>
+      <c r="E31" s="97">
+        <f t="shared" si="10"/>
         <v>71</v>
       </c>
-      <c r="F31" s="109">
-        <f t="shared" si="10"/>
+      <c r="F31" s="98">
+        <f t="shared" si="11"/>
         <v>0.84507042253521125</v>
       </c>
-      <c r="G31" s="108">
+      <c r="G31" s="97">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H31" s="125">
-        <f t="shared" si="18"/>
+      <c r="H31" s="114">
+        <f t="shared" si="19"/>
         <v>16.901408450704224</v>
       </c>
-      <c r="I31" s="182"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="95" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="94">
+      <c r="B32" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="83">
         <v>1</v>
       </c>
-      <c r="D32" s="126">
-        <f t="shared" si="8"/>
+      <c r="D32" s="115">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="E32" s="127">
-        <f t="shared" si="9"/>
+      <c r="E32" s="116">
+        <f t="shared" si="10"/>
         <v>71</v>
       </c>
-      <c r="F32" s="128">
-        <f t="shared" si="10"/>
+      <c r="F32" s="117">
+        <f t="shared" si="11"/>
         <v>0.84507042253521125</v>
       </c>
-      <c r="G32" s="127">
+      <c r="G32" s="116">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H32" s="129">
-        <f t="shared" si="18"/>
+      <c r="H32" s="118">
+        <f t="shared" si="19"/>
         <v>16.901408450704224</v>
       </c>
-      <c r="I32" s="183"/>
+      <c r="I32" s="171"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="64"/>
-      <c r="C36" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="66"/>
+      <c r="A36" s="205" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="206"/>
+      <c r="C36" s="207" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="208"/>
     </row>
     <row r="37" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="21" t="s">
+      <c r="A37" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="27"/>
+      <c r="F37" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="33"/>
-      <c r="F37" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H37" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="I37" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="54">
+      <c r="B38" s="48">
         <v>520</v>
       </c>
-      <c r="C38" s="37">
+      <c r="C38" s="31">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A38)*3</f>
         <v>540.01832937209906</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="13">
         <f>1-B38/C38</f>
         <v>3.706972205068515E-2</v>
       </c>
-      <c r="E38" s="32"/>
-      <c r="F38" s="58" t="str">
+      <c r="E38" s="26"/>
+      <c r="F38" s="52" t="str">
         <f>VLOOKUP(A38,Соответствие!A:B,2,FALSE)</f>
         <v>go_to_WebTours</v>
       </c>
-      <c r="G38" s="34">
+      <c r="G38" s="28">
         <f>C38/3</f>
         <v>180.0061097906997</v>
       </c>
-      <c r="H38" s="22">
+      <c r="H38" s="16">
         <f>VLOOKUP(F38,SummaryReport!A:J,8,FALSE)</f>
-        <v>190</v>
-      </c>
-      <c r="I38" s="20">
-        <f t="shared" ref="I38:I49" si="24">1-G38/H38</f>
-        <v>5.2599422154212094E-2</v>
+        <v>180</v>
+      </c>
+      <c r="I38" s="14">
+        <f t="shared" ref="I38:I49" si="25">1-G38/H38</f>
+        <v>-3.3943281664949865E-5</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="54">
+      <c r="A39" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="48">
         <v>422</v>
       </c>
-      <c r="C39" s="37">
-        <f t="shared" ref="C39:C49" si="25">GETPIVOTDATA("Итого",$I$1,"transaction rq",A39)*3</f>
+      <c r="C39" s="31">
+        <f t="shared" ref="C39:C49" si="26">GETPIVOTDATA("Итого",$I$1,"transaction rq",A39)*3</f>
         <v>442.72103207480177</v>
       </c>
-      <c r="D39" s="19">
-        <f t="shared" ref="D39:D50" si="26">1-B39/C39</f>
+      <c r="D39" s="13">
+        <f t="shared" ref="D39:D50" si="27">1-B39/C39</f>
         <v>4.6803812273596201E-2</v>
       </c>
-      <c r="E39" s="32"/>
-      <c r="F39" s="58" t="str">
+      <c r="E39" s="26"/>
+      <c r="F39" s="52" t="str">
         <f>VLOOKUP(A39,Соответствие!A:B,2,FALSE)</f>
         <v>Login</v>
       </c>
-      <c r="G39" s="34">
-        <f t="shared" ref="G39:G49" si="27">C39/3</f>
+      <c r="G39" s="28">
+        <f t="shared" ref="G39:G49" si="28">C39/3</f>
         <v>147.57367735826725</v>
       </c>
-      <c r="H39" s="22">
+      <c r="H39" s="16">
         <f>VLOOKUP(F39,SummaryReport!A:J,8,FALSE)</f>
-        <v>136</v>
-      </c>
-      <c r="I39" s="20">
-        <f t="shared" si="24"/>
-        <v>-8.5100568810788646E-2</v>
+        <v>148</v>
+      </c>
+      <c r="I39" s="14">
+        <f t="shared" si="25"/>
+        <v>2.8805583900861631E-3</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="54">
+      <c r="A40" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="48">
         <v>305</v>
       </c>
-      <c r="C40" s="37">
-        <f t="shared" si="25"/>
+      <c r="C40" s="31">
+        <f t="shared" si="26"/>
         <v>320.70422535211264</v>
       </c>
-      <c r="D40" s="19">
-        <f t="shared" si="26"/>
+      <c r="D40" s="13">
+        <f t="shared" si="27"/>
         <v>4.8967940272288013E-2</v>
       </c>
-      <c r="E40" s="32"/>
-      <c r="F40" s="58" t="str">
+      <c r="E40" s="26"/>
+      <c r="F40" s="52" t="str">
         <f>VLOOKUP(A40,Соответствие!A:B,2,FALSE)</f>
         <v>go_to_FlightsPage</v>
       </c>
-      <c r="G40" s="34">
+      <c r="G40" s="28">
+        <f t="shared" si="28"/>
+        <v>106.90140845070421</v>
+      </c>
+      <c r="H40" s="16">
+        <f>VLOOKUP(F40,SummaryReport!A:J,8,FALSE)</f>
+        <v>107</v>
+      </c>
+      <c r="I40" s="14">
+        <f t="shared" si="25"/>
+        <v>9.2141634855880117E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="48">
+        <v>282</v>
+      </c>
+      <c r="C41" s="31">
+        <f t="shared" si="26"/>
+        <v>270</v>
+      </c>
+      <c r="D41" s="13">
         <f t="shared" si="27"/>
-        <v>106.90140845070421</v>
-      </c>
-      <c r="H40" s="22">
-        <f>VLOOKUP(F40,SummaryReport!A:J,8,FALSE)</f>
-        <v>83</v>
-      </c>
-      <c r="I40" s="20">
-        <f t="shared" si="24"/>
-        <v>-0.28796877651450847</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="54">
-        <v>282</v>
-      </c>
-      <c r="C41" s="37">
-        <f t="shared" si="25"/>
-        <v>270</v>
-      </c>
-      <c r="D41" s="19">
-        <f t="shared" si="26"/>
         <v>-4.4444444444444509E-2</v>
       </c>
-      <c r="E41" s="32"/>
-      <c r="F41" s="58" t="str">
+      <c r="E41" s="26"/>
+      <c r="F41" s="52" t="str">
         <f>VLOOKUP(A41,Соответствие!A:B,2,FALSE)</f>
         <v>ticket_Search</v>
       </c>
-      <c r="G41" s="34">
+      <c r="G41" s="28">
+        <f t="shared" si="28"/>
+        <v>90</v>
+      </c>
+      <c r="H41" s="16">
+        <f>VLOOKUP(F41,SummaryReport!A:J,8,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="I41" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="48">
+        <v>270</v>
+      </c>
+      <c r="C42" s="31">
+        <f t="shared" si="26"/>
+        <v>270</v>
+      </c>
+      <c r="D42" s="13">
         <f t="shared" si="27"/>
-        <v>90</v>
-      </c>
-      <c r="H41" s="22">
-        <f>VLOOKUP(F41,SummaryReport!A:J,8,FALSE)</f>
-        <v>83</v>
-      </c>
-      <c r="I41" s="20">
-        <f t="shared" si="24"/>
-        <v>-8.43373493975903E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" s="54">
-        <v>270</v>
-      </c>
-      <c r="C42" s="37">
-        <f t="shared" si="25"/>
-        <v>270</v>
-      </c>
-      <c r="D42" s="19">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="32"/>
-      <c r="F42" s="58" t="str">
+        <v>0</v>
+      </c>
+      <c r="E42" s="26"/>
+      <c r="F42" s="52" t="str">
         <f>VLOOKUP(A42,Соответствие!A:B,2,FALSE)</f>
         <v>choose_Ticket</v>
       </c>
-      <c r="G42" s="34">
+      <c r="G42" s="28">
+        <f t="shared" si="28"/>
+        <v>90</v>
+      </c>
+      <c r="H42" s="16">
+        <f>VLOOKUP(F42,SummaryReport!A:J,8,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="I42" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="48">
+        <v>175</v>
+      </c>
+      <c r="C43" s="31">
+        <f t="shared" si="26"/>
+        <v>180</v>
+      </c>
+      <c r="D43" s="13">
         <f t="shared" si="27"/>
-        <v>90</v>
-      </c>
-      <c r="H42" s="22">
-        <f>VLOOKUP(F42,SummaryReport!A:J,8,FALSE)</f>
-        <v>83</v>
-      </c>
-      <c r="I42" s="20">
-        <f t="shared" si="24"/>
-        <v>-8.43373493975903E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="54">
-        <v>175</v>
-      </c>
-      <c r="C43" s="37">
-        <f t="shared" si="25"/>
-        <v>180</v>
-      </c>
-      <c r="D43" s="19">
-        <f t="shared" si="26"/>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="58" t="str">
+      <c r="E43" s="26"/>
+      <c r="F43" s="52" t="str">
         <f>VLOOKUP(A43,Соответствие!A:B,2,FALSE)</f>
         <v>payment_Details</v>
       </c>
-      <c r="G43" s="34">
+      <c r="G43" s="28">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="H43" s="16">
+        <f>VLOOKUP(F43,SummaryReport!A:J,8,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="I43" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="48">
+        <v>280</v>
+      </c>
+      <c r="C44" s="31">
+        <f t="shared" si="26"/>
+        <v>270.01832937209906</v>
+      </c>
+      <c r="D44" s="13">
         <f t="shared" si="27"/>
-        <v>60</v>
-      </c>
-      <c r="H43" s="22">
-        <f>VLOOKUP(F43,SummaryReport!A:J,8,FALSE)</f>
-        <v>54</v>
-      </c>
-      <c r="I43" s="20">
-        <f t="shared" si="24"/>
-        <v>-0.11111111111111116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="54">
-        <v>280</v>
-      </c>
-      <c r="C44" s="37">
-        <f t="shared" si="25"/>
-        <v>270.01832937209906</v>
-      </c>
-      <c r="D44" s="19">
-        <f t="shared" si="26"/>
         <v>-3.6966640935496287E-2</v>
       </c>
-      <c r="E44" s="39"/>
-      <c r="F44" s="58" t="str">
+      <c r="E44" s="33"/>
+      <c r="F44" s="52" t="str">
         <f>VLOOKUP(A44,Соответствие!A:B,2,FALSE)</f>
         <v>search_Itinerary</v>
       </c>
-      <c r="G44" s="34">
+      <c r="G44" s="28">
+        <f t="shared" si="28"/>
+        <v>90.006109790699682</v>
+      </c>
+      <c r="H44" s="16">
+        <f>VLOOKUP(F44,SummaryReport!A:J,8,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="I44" s="14">
+        <f t="shared" si="25"/>
+        <v>-6.788656332989973E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="48">
+        <v>73</v>
+      </c>
+      <c r="C45" s="31">
+        <f t="shared" si="26"/>
+        <v>70.588235294117652</v>
+      </c>
+      <c r="D45" s="13">
         <f t="shared" si="27"/>
-        <v>90.006109790699682</v>
-      </c>
-      <c r="H44" s="22">
-        <f>VLOOKUP(F44,SummaryReport!A:J,8,FALSE)</f>
-        <v>53</v>
-      </c>
-      <c r="I44" s="20">
-        <f t="shared" si="24"/>
-        <v>-0.69822848661697523</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="54">
-        <v>73</v>
-      </c>
-      <c r="C45" s="37">
-        <f t="shared" si="25"/>
-        <v>70.588235294117652</v>
-      </c>
-      <c r="D45" s="19">
-        <f t="shared" si="26"/>
         <v>-3.4166666666666679E-2</v>
       </c>
-      <c r="E45" s="32"/>
-      <c r="F45" s="58" t="str">
+      <c r="E45" s="26"/>
+      <c r="F45" s="52" t="str">
         <f>VLOOKUP(A45,Соответствие!A:B,2,FALSE)</f>
         <v>delete_Itinerary</v>
       </c>
-      <c r="G45" s="34">
+      <c r="G45" s="28">
+        <f t="shared" si="28"/>
+        <v>23.529411764705884</v>
+      </c>
+      <c r="H45" s="16">
+        <f>VLOOKUP(F45,SummaryReport!A:J,8,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="I45" s="14">
+        <f t="shared" si="25"/>
+        <v>1.9607843137254832E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="48">
+        <v>326</v>
+      </c>
+      <c r="C46" s="31">
+        <f t="shared" si="26"/>
+        <v>340.58823529411768</v>
+      </c>
+      <c r="D46" s="13">
         <f t="shared" si="27"/>
-        <v>23.529411764705884</v>
-      </c>
-      <c r="H45" s="22">
-        <f>VLOOKUP(F45,SummaryReport!A:J,8,FALSE)</f>
-        <v>25</v>
-      </c>
-      <c r="I45" s="20">
-        <f t="shared" si="24"/>
-        <v>5.8823529411764608E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="54">
-        <v>326</v>
-      </c>
-      <c r="C46" s="37">
-        <f t="shared" si="25"/>
-        <v>321.42857142857144</v>
-      </c>
-      <c r="D46" s="19">
-        <f t="shared" si="26"/>
-        <v>-1.4222222222222136E-2</v>
-      </c>
-      <c r="E46" s="32"/>
-      <c r="F46" s="58" t="str">
+        <v>4.2832469775475057E-2</v>
+      </c>
+      <c r="E46" s="26"/>
+      <c r="F46" s="52" t="str">
         <f>VLOOKUP(A46,Соответствие!A:B,2,FALSE)</f>
         <v>Logout</v>
       </c>
-      <c r="G46" s="34">
+      <c r="G46" s="28">
+        <f t="shared" si="28"/>
+        <v>113.5294117647059</v>
+      </c>
+      <c r="H46" s="16">
+        <f>VLOOKUP(F46,SummaryReport!A:J,8,FALSE)</f>
+        <v>114</v>
+      </c>
+      <c r="I46" s="14">
+        <f t="shared" si="25"/>
+        <v>4.1279669762640525E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="48">
+        <v>97</v>
+      </c>
+      <c r="C47" s="31">
+        <f t="shared" si="26"/>
+        <v>97.297297297297305</v>
+      </c>
+      <c r="D47" s="13">
         <f t="shared" si="27"/>
-        <v>107.14285714285715</v>
-      </c>
-      <c r="H46" s="22">
-        <f>VLOOKUP(F46,SummaryReport!A:J,8,FALSE)</f>
-        <v>69</v>
-      </c>
-      <c r="I46" s="20">
-        <f t="shared" si="24"/>
-        <v>-0.55279503105590067</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" s="54">
-        <v>97</v>
-      </c>
-      <c r="C47" s="37">
-        <f t="shared" si="25"/>
-        <v>97.297297297297305</v>
-      </c>
-      <c r="D47" s="19">
-        <f t="shared" si="26"/>
         <v>3.0555555555555891E-3</v>
       </c>
-      <c r="E47" s="32"/>
-      <c r="F47" s="58" t="str">
+      <c r="E47" s="26"/>
+      <c r="F47" s="52" t="str">
         <f>VLOOKUP(A47,Соответствие!A:B,2,FALSE)</f>
         <v>RegPage</v>
       </c>
-      <c r="G47" s="34">
+      <c r="G47" s="28">
+        <f t="shared" si="28"/>
+        <v>32.432432432432435</v>
+      </c>
+      <c r="H47" s="16">
+        <f>VLOOKUP(F47,SummaryReport!A:J,8,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="I47" s="14">
+        <f t="shared" si="25"/>
+        <v>-1.3513513513513598E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="48">
+        <v>97</v>
+      </c>
+      <c r="C48" s="31">
+        <f t="shared" si="26"/>
+        <v>97.297297297297305</v>
+      </c>
+      <c r="D48" s="13">
         <f t="shared" si="27"/>
-        <v>32.432432432432435</v>
-      </c>
-      <c r="H47" s="22">
-        <f>VLOOKUP(F47,SummaryReport!A:J,8,FALSE)</f>
-        <v>36</v>
-      </c>
-      <c r="I47" s="20">
-        <f t="shared" si="24"/>
-        <v>9.9099099099098975E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="54">
-        <v>97</v>
-      </c>
-      <c r="C48" s="37">
-        <f t="shared" si="25"/>
-        <v>97.297297297297305</v>
-      </c>
-      <c r="D48" s="19">
-        <f t="shared" si="26"/>
         <v>3.0555555555555891E-3</v>
       </c>
-      <c r="E48" s="32"/>
-      <c r="F48" s="58" t="str">
+      <c r="E48" s="26"/>
+      <c r="F48" s="52" t="str">
         <f>VLOOKUP(A48,Соответствие!A:B,2,FALSE)</f>
         <v>RegisterNewUser</v>
       </c>
-      <c r="G48" s="34">
+      <c r="G48" s="28">
+        <f t="shared" si="28"/>
+        <v>32.432432432432435</v>
+      </c>
+      <c r="H48" s="16">
+        <f>VLOOKUP(F48,SummaryReport!A:J,8,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="I48" s="14">
+        <f t="shared" si="25"/>
+        <v>-1.3513513513513598E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="48">
+        <v>97</v>
+      </c>
+      <c r="C49" s="31">
+        <f t="shared" si="26"/>
+        <v>97.297297297297305</v>
+      </c>
+      <c r="D49" s="13">
         <f t="shared" si="27"/>
-        <v>32.432432432432435</v>
-      </c>
-      <c r="H48" s="22">
-        <f>VLOOKUP(F48,SummaryReport!A:J,8,FALSE)</f>
-        <v>34</v>
-      </c>
-      <c r="I48" s="20">
-        <f t="shared" si="24"/>
-        <v>4.610492845786951E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B49" s="54">
-        <v>97</v>
-      </c>
-      <c r="C49" s="37">
-        <f t="shared" si="25"/>
-        <v>97.297297297297305</v>
-      </c>
-      <c r="D49" s="19">
-        <f t="shared" si="26"/>
         <v>3.0555555555555891E-3</v>
       </c>
-      <c r="E49" s="32"/>
-      <c r="F49" s="58" t="str">
+      <c r="E49" s="26"/>
+      <c r="F49" s="52" t="str">
         <f>VLOOKUP(A49,Соответствие!A:B,2,FALSE)</f>
         <v>ContinueAfterReg</v>
       </c>
-      <c r="G49" s="34">
-        <f t="shared" si="27"/>
+      <c r="G49" s="28">
+        <f t="shared" si="28"/>
         <v>32.432432432432435</v>
       </c>
-      <c r="H49" s="22">
+      <c r="H49" s="16">
         <f>VLOOKUP(F49,SummaryReport!A:J,8,FALSE)</f>
-        <v>36</v>
-      </c>
-      <c r="I49" s="20">
-        <f t="shared" si="24"/>
-        <v>9.9099099099098975E-2</v>
+        <v>32</v>
+      </c>
+      <c r="I49" s="14">
+        <f t="shared" si="25"/>
+        <v>-1.3513513513513598E-2</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="55">
+      <c r="B50" s="49">
         <f>SUM(B38:B49)</f>
         <v>2944</v>
       </c>
-      <c r="C50" s="56">
+      <c r="C50" s="50">
         <f>SUM(C38:C49)</f>
-        <v>2977.3706147856942</v>
-      </c>
-      <c r="D50" s="19">
-        <f t="shared" si="26"/>
-        <v>1.1208082265598662E-2</v>
+        <v>2996.5302786512402</v>
+      </c>
+      <c r="D50" s="13">
+        <f t="shared" si="27"/>
+        <v>1.7530368047835809E-2</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I51" s="23"/>
+      <c r="I51" s="17"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="31"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5308,7 +5008,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5318,119 +5018,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>73</v>
+      <c r="A1" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="str">
+      <c r="A2" s="52" t="str">
         <f>'Автоматизированный расчет'!A38</f>
         <v>Главная Welcome страница</v>
       </c>
-      <c r="B2" s="58" t="s">
-        <v>90</v>
+      <c r="B2" s="52" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="str">
+      <c r="A3" s="52" t="str">
         <f>'Автоматизированный расчет'!A39</f>
         <v>Вход в систему</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>91</v>
+      <c r="B3" s="52" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="str">
+      <c r="A4" s="52" t="str">
         <f>'Автоматизированный расчет'!A40</f>
         <v>Переход на страницу поиска билетов</v>
       </c>
-      <c r="B4" s="58" t="s">
-        <v>89</v>
+      <c r="B4" s="52" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="str">
+      <c r="A5" s="52" t="str">
         <f>'Автоматизированный расчет'!A41</f>
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
       </c>
-      <c r="B5" s="58" t="s">
-        <v>97</v>
+      <c r="B5" s="52" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="str">
+      <c r="A6" s="52" t="str">
         <f>'Автоматизированный расчет'!A42</f>
         <v xml:space="preserve">Выбор рейса из найденных </v>
       </c>
-      <c r="B6" s="184" t="s">
-        <v>86</v>
+      <c r="B6" s="172" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="str">
+      <c r="A7" s="52" t="str">
         <f>'Автоматизированный расчет'!A43</f>
         <v>Оплата билета</v>
       </c>
-      <c r="B7" s="58" t="s">
-        <v>93</v>
+      <c r="B7" s="52" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="str">
+      <c r="A8" s="52" t="str">
         <f>'Автоматизированный расчет'!A44</f>
         <v>Просмотр квитанций</v>
       </c>
-      <c r="B8" s="58" t="s">
-        <v>96</v>
+      <c r="B8" s="52" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="str">
+      <c r="A9" s="52" t="str">
         <f>'Автоматизированный расчет'!A45</f>
         <v xml:space="preserve">Отмена бронирования </v>
       </c>
-      <c r="B9" s="58" t="s">
-        <v>88</v>
+      <c r="B9" s="52" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="str">
+      <c r="A10" s="52" t="str">
         <f>'Автоматизированный расчет'!A46</f>
         <v>Выход из системы</v>
       </c>
-      <c r="B10" s="58" t="s">
-        <v>92</v>
+      <c r="B10" s="52" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="str">
+      <c r="A11" s="52" t="str">
         <f>'Автоматизированный расчет'!A47</f>
         <v>Перход на страницу регистрации</v>
       </c>
-      <c r="B11" s="58" t="s">
-        <v>95</v>
+      <c r="B11" s="52" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="str">
+      <c r="A12" s="52" t="str">
         <f>'Автоматизированный расчет'!A48</f>
         <v>Заполнение полей регистарции</v>
       </c>
-      <c r="B12" s="184" t="s">
-        <v>94</v>
+      <c r="B12" s="172" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="str">
+      <c r="A13" s="52" t="str">
         <f>'Автоматизированный расчет'!A49</f>
         <v>Переход на следуюущий эран после регистарции</v>
       </c>
-      <c r="B13" s="184" t="s">
-        <v>87</v>
+      <c r="B13" s="172" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -5440,804 +5140,2094 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:X67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="185" t="s">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="185" t="s">
+      <c r="B1" s="200" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="197" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="201" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="197" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="197" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="197" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="185" t="s">
+      <c r="H1" s="201" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="200" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="197" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="203" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="53"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="173"/>
+      <c r="Q1" s="173"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="173"/>
+      <c r="T1" s="173"/>
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="173"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="202" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="198" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="185" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="185" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="185" t="s">
+      <c r="C2" s="196">
+        <v>0.23</v>
+      </c>
+      <c r="D2" s="196">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="E2" s="196">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="F2" s="196">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G2" s="196">
+        <v>0.434</v>
+      </c>
+      <c r="H2" s="196">
+        <v>180</v>
+      </c>
+      <c r="I2" s="196">
+        <v>0</v>
+      </c>
+      <c r="J2" s="199">
+        <v>0</v>
+      </c>
+      <c r="N2" s="53"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="173"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="173"/>
+      <c r="X2" s="173"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="194" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="192" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="172">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D3" s="172">
+        <v>0.08</v>
+      </c>
+      <c r="E3" s="172">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="F3" s="172">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G3" s="172">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="H3" s="172">
+        <v>90</v>
+      </c>
+      <c r="I3" s="172">
+        <v>0</v>
+      </c>
+      <c r="J3" s="189">
+        <v>0</v>
+      </c>
+      <c r="N3" s="53"/>
+      <c r="O3" s="173"/>
+      <c r="P3" s="173"/>
+      <c r="Q3" s="173"/>
+      <c r="R3" s="173"/>
+      <c r="S3" s="173"/>
+      <c r="T3" s="173"/>
+      <c r="U3" s="173"/>
+      <c r="V3" s="173"/>
+      <c r="W3" s="173"/>
+      <c r="X3" s="173"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="194" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="192" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="172">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="D4" s="172">
+        <v>0.12</v>
+      </c>
+      <c r="E4" s="172">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="F4" s="172">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G4" s="172">
+        <v>0.121</v>
+      </c>
+      <c r="H4" s="172">
+        <v>32</v>
+      </c>
+      <c r="I4" s="172">
+        <v>0</v>
+      </c>
+      <c r="J4" s="189">
+        <v>0</v>
+      </c>
+      <c r="N4" s="53"/>
+      <c r="O4" s="173"/>
+      <c r="P4" s="173"/>
+      <c r="Q4" s="173"/>
+      <c r="R4" s="173"/>
+      <c r="S4" s="173"/>
+      <c r="T4" s="173"/>
+      <c r="U4" s="173"/>
+      <c r="V4" s="173"/>
+      <c r="W4" s="173"/>
+      <c r="X4" s="173"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="194" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="192" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="172">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D5" s="172">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E5" s="172">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F5" s="172">
+        <v>2E-3</v>
+      </c>
+      <c r="G5" s="172">
+        <v>0.03</v>
+      </c>
+      <c r="H5" s="172">
+        <v>24</v>
+      </c>
+      <c r="I5" s="172">
+        <v>0</v>
+      </c>
+      <c r="J5" s="189">
+        <v>0</v>
+      </c>
+      <c r="N5" s="53"/>
+      <c r="O5" s="173"/>
+      <c r="P5" s="173"/>
+      <c r="Q5" s="173"/>
+      <c r="R5" s="173"/>
+      <c r="S5" s="173"/>
+      <c r="T5" s="173"/>
+      <c r="U5" s="173"/>
+      <c r="V5" s="173"/>
+      <c r="W5" s="173"/>
+      <c r="X5" s="173"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="194" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="192" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="172">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D6" s="172">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E6" s="172">
+        <v>0.105</v>
+      </c>
+      <c r="F6" s="172">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G6" s="172">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="H6" s="172">
+        <v>107</v>
+      </c>
+      <c r="I6" s="172">
+        <v>0</v>
+      </c>
+      <c r="J6" s="189">
+        <v>0</v>
+      </c>
+      <c r="N6" s="53"/>
+      <c r="O6" s="173"/>
+      <c r="P6" s="173"/>
+      <c r="Q6" s="173"/>
+      <c r="R6" s="173"/>
+      <c r="S6" s="173"/>
+      <c r="T6" s="173"/>
+      <c r="U6" s="173"/>
+      <c r="V6" s="173"/>
+      <c r="W6" s="173"/>
+      <c r="X6" s="173"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="194" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="192" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="172">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D7" s="172">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E7" s="172">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="F7" s="172">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G7" s="172">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H7" s="172">
+        <v>180</v>
+      </c>
+      <c r="I7" s="172">
+        <v>0</v>
+      </c>
+      <c r="J7" s="189">
+        <v>0</v>
+      </c>
+      <c r="O7" s="173"/>
+      <c r="P7" s="173"/>
+      <c r="Q7" s="173"/>
+      <c r="R7" s="173"/>
+      <c r="S7" s="173"/>
+      <c r="T7" s="173"/>
+      <c r="U7" s="173"/>
+      <c r="V7" s="173"/>
+      <c r="W7" s="173"/>
+      <c r="X7" s="173"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="194" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="192" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="172">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D8" s="172">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E8" s="172">
+        <v>0.114</v>
+      </c>
+      <c r="F8" s="172">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G8" s="172">
+        <v>0.105</v>
+      </c>
+      <c r="H8" s="172">
+        <v>148</v>
+      </c>
+      <c r="I8" s="172">
+        <v>0</v>
+      </c>
+      <c r="J8" s="189">
+        <v>0</v>
+      </c>
+      <c r="O8" s="173"/>
+      <c r="P8" s="173"/>
+      <c r="Q8" s="173"/>
+      <c r="R8" s="173"/>
+      <c r="S8" s="173"/>
+      <c r="T8" s="173"/>
+      <c r="U8" s="173"/>
+      <c r="V8" s="173"/>
+      <c r="W8" s="173"/>
+      <c r="X8" s="173"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="194" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="192" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="172">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D9" s="172">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E9" s="172">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F9" s="172">
+        <v>2E-3</v>
+      </c>
+      <c r="G9" s="172">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H9" s="172">
+        <v>114</v>
+      </c>
+      <c r="I9" s="172">
+        <v>0</v>
+      </c>
+      <c r="J9" s="189">
+        <v>0</v>
+      </c>
+      <c r="O9" s="173"/>
+      <c r="P9" s="173"/>
+      <c r="Q9" s="173"/>
+      <c r="R9" s="173"/>
+      <c r="S9" s="173"/>
+      <c r="T9" s="173"/>
+      <c r="U9" s="173"/>
+      <c r="V9" s="173"/>
+      <c r="W9" s="173"/>
+      <c r="X9" s="173"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="194" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="192" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="172">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D10" s="172">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E10" s="172">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F10" s="172">
+        <v>2E-3</v>
+      </c>
+      <c r="G10" s="172">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H10" s="172">
+        <v>60</v>
+      </c>
+      <c r="I10" s="172">
+        <v>0</v>
+      </c>
+      <c r="J10" s="189">
+        <v>0</v>
+      </c>
+      <c r="O10" s="173"/>
+      <c r="P10" s="173"/>
+      <c r="Q10" s="173"/>
+      <c r="R10" s="173"/>
+      <c r="S10" s="173"/>
+      <c r="T10" s="173"/>
+      <c r="U10" s="173"/>
+      <c r="V10" s="173"/>
+      <c r="W10" s="173"/>
+      <c r="X10" s="173"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="194" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="192" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="172">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D11" s="172">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E11" s="172">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F11" s="172">
+        <v>1E-3</v>
+      </c>
+      <c r="G11" s="172">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H11" s="172">
+        <v>32</v>
+      </c>
+      <c r="I11" s="172">
+        <v>0</v>
+      </c>
+      <c r="J11" s="189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="194" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="192" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="172">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D12" s="172">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E12" s="172">
+        <v>0.04</v>
+      </c>
+      <c r="F12" s="172">
+        <v>2E-3</v>
+      </c>
+      <c r="G12" s="172">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H12" s="172">
+        <v>32</v>
+      </c>
+      <c r="I12" s="172">
+        <v>0</v>
+      </c>
+      <c r="J12" s="189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="194" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="192" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="172">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D13" s="172">
+        <v>0.09</v>
+      </c>
+      <c r="E13" s="172">
+        <v>0.121</v>
+      </c>
+      <c r="F13" s="172">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G13" s="172">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="H13" s="172">
+        <v>90</v>
+      </c>
+      <c r="I13" s="172">
+        <v>0</v>
+      </c>
+      <c r="J13" s="189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="194" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="192" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="172">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D14" s="172">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E14" s="172">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F14" s="172">
+        <v>2E-3</v>
+      </c>
+      <c r="G14" s="172">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H14" s="172">
+        <v>90</v>
+      </c>
+      <c r="I14" s="172">
+        <v>0</v>
+      </c>
+      <c r="J14" s="189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="194" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="192" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="172">
+        <v>0.23</v>
+      </c>
+      <c r="D15" s="172">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="E15" s="172">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="F15" s="172">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G15" s="172">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="H15" s="172">
+        <v>17</v>
+      </c>
+      <c r="I15" s="172">
+        <v>0</v>
+      </c>
+      <c r="J15" s="189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="194" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="192" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="172">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="D16" s="172">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="E16" s="172">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="F16" s="172">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G16" s="172">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="H16" s="172">
+        <v>60</v>
+      </c>
+      <c r="I16" s="172">
+        <v>0</v>
+      </c>
+      <c r="J16" s="189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="194" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="192" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="172">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="D17" s="172">
+        <v>0.4</v>
+      </c>
+      <c r="E17" s="172">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="F17" s="172">
+        <v>0.02</v>
+      </c>
+      <c r="G17" s="172">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="H17" s="172">
+        <v>30</v>
+      </c>
+      <c r="I17" s="172">
+        <v>0</v>
+      </c>
+      <c r="J17" s="189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="194" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="192" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="172">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="D18" s="172">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="E18" s="172">
+        <v>0.36</v>
+      </c>
+      <c r="F18" s="172">
+        <v>0.01</v>
+      </c>
+      <c r="G18" s="172">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="H18" s="172">
+        <v>17</v>
+      </c>
+      <c r="I18" s="172">
+        <v>0</v>
+      </c>
+      <c r="J18" s="189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="194" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="192" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="172">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="D19" s="172">
+        <v>0.312</v>
+      </c>
+      <c r="E19" s="172">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="F19" s="172">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G19" s="172">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="H19" s="172">
+        <v>24</v>
+      </c>
+      <c r="I19" s="172">
+        <v>0</v>
+      </c>
+      <c r="J19" s="189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="195" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="193" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="190">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D20" s="190">
+        <v>0.317</v>
+      </c>
+      <c r="E20" s="190">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="F20" s="190">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G20" s="190">
+        <v>0.34</v>
+      </c>
+      <c r="H20" s="190">
+        <v>32</v>
+      </c>
+      <c r="I20" s="190">
+        <v>0</v>
+      </c>
+      <c r="J20" s="191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="186" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="188" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="186" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="186" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="186" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="186" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="186" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="187" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="188" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="203" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="182" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="185" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="185" t="s">
+      <c r="B25" s="183" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="184">
+        <v>0.219</v>
+      </c>
+      <c r="D25" s="184">
+        <v>0.378</v>
+      </c>
+      <c r="E25" s="184">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="F25" s="184">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G25" s="184">
+        <v>0.46</v>
+      </c>
+      <c r="H25" s="184">
+        <v>542</v>
+      </c>
+      <c r="I25" s="184">
+        <v>0</v>
+      </c>
+      <c r="J25" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="180" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="179" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="52">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D26" s="52">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E26" s="52">
+        <v>0.09</v>
+      </c>
+      <c r="F26" s="52">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G26" s="52">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="H26" s="52">
+        <v>270</v>
+      </c>
+      <c r="I26" s="52">
+        <v>0</v>
+      </c>
+      <c r="J26" s="176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="180" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="179" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="52">
+        <v>0.114</v>
+      </c>
+      <c r="D27" s="52">
+        <v>0.126</v>
+      </c>
+      <c r="E27" s="52">
+        <v>0.16</v>
+      </c>
+      <c r="F27" s="52">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G27" s="52">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="H27" s="52">
+        <v>98</v>
+      </c>
+      <c r="I27" s="52">
+        <v>0</v>
+      </c>
+      <c r="J27" s="176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="180" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="179" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="52">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D28" s="52">
+        <v>0.03</v>
+      </c>
+      <c r="E28" s="52">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F28" s="52">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G28" s="52">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H28" s="52">
+        <v>71</v>
+      </c>
+      <c r="I28" s="52">
+        <v>0</v>
+      </c>
+      <c r="J28" s="176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="180" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="179" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="52">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D29" s="52">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="E29" s="52">
+        <v>0.188</v>
+      </c>
+      <c r="F29" s="52">
+        <v>0.01</v>
+      </c>
+      <c r="G29" s="52">
+        <v>0.105</v>
+      </c>
+      <c r="H29" s="52">
+        <v>321</v>
+      </c>
+      <c r="I29" s="52">
+        <v>0</v>
+      </c>
+      <c r="J29" s="176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="180" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="179" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="52">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D30" s="52">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E30" s="52">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F30" s="52">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G30" s="52">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H30" s="52">
+        <v>541</v>
+      </c>
+      <c r="I30" s="52">
+        <v>0</v>
+      </c>
+      <c r="J30" s="176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="180" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="179" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="52">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D31" s="52">
+        <v>0.09</v>
+      </c>
+      <c r="E31" s="52">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F31" s="52">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G31" s="52">
+        <v>0.111</v>
+      </c>
+      <c r="H31" s="52">
+        <v>444</v>
+      </c>
+      <c r="I31" s="52">
+        <v>0</v>
+      </c>
+      <c r="J31" s="176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="180" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="179" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="52">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D32" s="52">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E32" s="52">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="F32" s="52">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G32" s="52">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="H32" s="52">
+        <v>341</v>
+      </c>
+      <c r="I32" s="52">
+        <v>0</v>
+      </c>
+      <c r="J32" s="176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="180" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="179" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="52">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D33" s="52">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E33" s="52">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F33" s="52">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G33" s="52">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H33" s="52">
+        <v>180</v>
+      </c>
+      <c r="I33" s="52">
+        <v>0</v>
+      </c>
+      <c r="J33" s="176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="180" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="179" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="52">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D34" s="52">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E34" s="52">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F34" s="52">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G34" s="52">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H34" s="52">
+        <v>98</v>
+      </c>
+      <c r="I34" s="52">
+        <v>0</v>
+      </c>
+      <c r="J34" s="176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="180" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="179" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="52">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D35" s="52">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E35" s="52">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F35" s="52">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G35" s="52">
+        <v>0.04</v>
+      </c>
+      <c r="H35" s="52">
+        <v>98</v>
+      </c>
+      <c r="I35" s="52">
+        <v>0</v>
+      </c>
+      <c r="J35" s="176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="180" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="179" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="52">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D36" s="52">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="E36" s="52">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="F36" s="52">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G36" s="52">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="H36" s="52">
+        <v>272</v>
+      </c>
+      <c r="I36" s="52">
+        <v>0</v>
+      </c>
+      <c r="J36" s="176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="180" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="179" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="52">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D37" s="52">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E37" s="52">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F37" s="52">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G37" s="52">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H37" s="52">
+        <v>270</v>
+      </c>
+      <c r="I37" s="52">
+        <v>0</v>
+      </c>
+      <c r="J37" s="176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="180" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="179" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="52">
+        <v>0.219</v>
+      </c>
+      <c r="D38" s="52">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="E38" s="52">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F38" s="52">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G38" s="52">
+        <v>0.27</v>
+      </c>
+      <c r="H38" s="52">
+        <v>52</v>
+      </c>
+      <c r="I38" s="52">
+        <v>0</v>
+      </c>
+      <c r="J38" s="176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="180" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="179" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="52">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="D39" s="52">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="E39" s="52">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="F39" s="52">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G39" s="52">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="H39" s="52">
+        <v>180</v>
+      </c>
+      <c r="I39" s="52">
+        <v>0</v>
+      </c>
+      <c r="J39" s="176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="180" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="179" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="52">
+        <v>0.373</v>
+      </c>
+      <c r="D40" s="52">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="E40" s="52">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="F40" s="52">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G40" s="52">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="H40" s="52">
+        <v>90</v>
+      </c>
+      <c r="I40" s="52">
+        <v>0</v>
+      </c>
+      <c r="J40" s="176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="180" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="179" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="52">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="D41" s="52">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="E41" s="52">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="F41" s="52">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G41" s="52">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="H41" s="52">
+        <v>51</v>
+      </c>
+      <c r="I41" s="52">
+        <v>0</v>
+      </c>
+      <c r="J41" s="176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" s="180" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="179" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="52">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="D42" s="52">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="E42" s="52">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="F42" s="52">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G42" s="52">
+        <v>0.373</v>
+      </c>
+      <c r="H42" s="52">
+        <v>71</v>
+      </c>
+      <c r="I42" s="52">
+        <v>0</v>
+      </c>
+      <c r="J42" s="176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="181" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="204" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="177">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D43" s="177">
+        <v>0.33</v>
+      </c>
+      <c r="E43" s="177">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="F43" s="177">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G43" s="177">
+        <v>0.36</v>
+      </c>
+      <c r="H43" s="177">
+        <v>98</v>
+      </c>
+      <c r="I43" s="177">
+        <v>0</v>
+      </c>
+      <c r="J43" s="178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="214" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="214" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="214" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="214" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="214" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" s="214" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" s="214" t="s">
+        <v>74</v>
+      </c>
+      <c r="H47" s="214" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="185" t="s">
+      <c r="I47" s="214" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="185" t="s">
+      <c r="J47" s="214" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="185" t="s">
+      <c r="K47" s="210" t="s">
+        <v>101</v>
+      </c>
+      <c r="N47" s="214"/>
+      <c r="O47" s="214"/>
+      <c r="P47" s="214"/>
+      <c r="Q47" s="214"/>
+      <c r="R47" s="214"/>
+      <c r="S47" s="214"/>
+      <c r="T47" s="214"/>
+      <c r="U47" s="214"/>
+      <c r="V47" s="214"/>
+      <c r="W47" s="214"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="214" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="214" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="214">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="D48" s="214">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E48" s="214">
+        <v>2.2069999999999999</v>
+      </c>
+      <c r="F48" s="214">
+        <v>0.219</v>
+      </c>
+      <c r="G48" s="214">
+        <v>0.49</v>
+      </c>
+      <c r="H48" s="214">
+        <v>720</v>
+      </c>
+      <c r="I48" s="214">
+        <v>0</v>
+      </c>
+      <c r="J48" s="214">
+        <v>0</v>
+      </c>
+      <c r="N48" s="214"/>
+      <c r="O48" s="214"/>
+      <c r="P48" s="214"/>
+      <c r="Q48" s="214"/>
+      <c r="R48" s="214"/>
+      <c r="S48" s="214"/>
+      <c r="T48" s="214"/>
+      <c r="U48" s="214"/>
+      <c r="V48" s="214"/>
+      <c r="W48" s="214"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49" s="214" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="214" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="214">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D49" s="214">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E49" s="214">
+        <v>1.157</v>
+      </c>
+      <c r="F49" s="214">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="G49" s="214">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="H49" s="214">
+        <v>360</v>
+      </c>
+      <c r="I49" s="214">
+        <v>0</v>
+      </c>
+      <c r="J49" s="214">
+        <v>0</v>
+      </c>
+      <c r="N49" s="214"/>
+      <c r="O49" s="214"/>
+      <c r="P49" s="214"/>
+      <c r="Q49" s="214"/>
+      <c r="R49" s="214"/>
+      <c r="S49" s="214"/>
+      <c r="T49" s="214"/>
+      <c r="U49" s="214"/>
+      <c r="V49" s="214"/>
+      <c r="W49" s="214"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50" s="214" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="214" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="214">
+        <v>0.115</v>
+      </c>
+      <c r="D50" s="214">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="E50" s="214">
+        <v>1.712</v>
+      </c>
+      <c r="F50" s="214">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="G50" s="214">
+        <v>0.151</v>
+      </c>
+      <c r="H50" s="214">
+        <v>130</v>
+      </c>
+      <c r="I50" s="214">
+        <v>0</v>
+      </c>
+      <c r="J50" s="214">
+        <v>0</v>
+      </c>
+      <c r="N50" s="214"/>
+      <c r="O50" s="214"/>
+      <c r="P50" s="214"/>
+      <c r="Q50" s="214"/>
+      <c r="R50" s="214"/>
+      <c r="S50" s="214"/>
+      <c r="T50" s="214"/>
+      <c r="U50" s="214"/>
+      <c r="V50" s="214"/>
+      <c r="W50" s="214"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" s="214" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="185" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="185">
-        <v>0.222</v>
-      </c>
-      <c r="D2" s="185">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="E2" s="185">
-        <v>0.99</v>
-      </c>
-      <c r="F2" s="185">
-        <v>0.105</v>
-      </c>
-      <c r="G2" s="185">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="H2" s="185">
-        <v>176</v>
-      </c>
-      <c r="I2" s="185">
-        <v>20</v>
-      </c>
-      <c r="J2" s="185">
-        <v>0</v>
-      </c>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="185" t="s">
+      <c r="B51" s="214" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="214">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D51" s="214">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E51" s="214">
+        <v>0.08</v>
+      </c>
+      <c r="F51" s="214">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G51" s="214">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="H51" s="214">
+        <v>94</v>
+      </c>
+      <c r="I51" s="214">
+        <v>0</v>
+      </c>
+      <c r="J51" s="214">
+        <v>0</v>
+      </c>
+      <c r="N51" s="214"/>
+      <c r="O51" s="214"/>
+      <c r="P51" s="214"/>
+      <c r="Q51" s="214"/>
+      <c r="R51" s="214"/>
+      <c r="S51" s="214"/>
+      <c r="T51" s="214"/>
+      <c r="U51" s="214"/>
+      <c r="V51" s="214"/>
+      <c r="W51" s="214"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52" s="214" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="214" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="214">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D52" s="214">
+        <v>0.1</v>
+      </c>
+      <c r="E52" s="214">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="F52" s="214">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G52" s="214">
+        <v>0.104</v>
+      </c>
+      <c r="H52" s="214">
+        <v>360</v>
+      </c>
+      <c r="I52" s="214">
+        <v>0</v>
+      </c>
+      <c r="J52" s="214">
+        <v>0</v>
+      </c>
+      <c r="N52" s="214"/>
+      <c r="O52" s="214"/>
+      <c r="P52" s="214"/>
+      <c r="Q52" s="214"/>
+      <c r="R52" s="214"/>
+      <c r="S52" s="214"/>
+      <c r="T52" s="214"/>
+      <c r="U52" s="214"/>
+      <c r="V52" s="214"/>
+      <c r="W52" s="214"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53" s="214" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="214" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="214">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D53" s="214">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E53" s="214">
+        <v>1.597</v>
+      </c>
+      <c r="F53" s="214">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G53" s="214">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H53" s="214">
+        <v>721</v>
+      </c>
+      <c r="I53" s="214">
+        <v>0</v>
+      </c>
+      <c r="J53" s="214">
+        <v>0</v>
+      </c>
+      <c r="N53" s="214"/>
+      <c r="O53" s="214"/>
+      <c r="P53" s="214"/>
+      <c r="Q53" s="214"/>
+      <c r="R53" s="214"/>
+      <c r="S53" s="214"/>
+      <c r="T53" s="214"/>
+      <c r="U53" s="214"/>
+      <c r="V53" s="214"/>
+      <c r="W53" s="214"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A54" s="214" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="185" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="185">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D3" s="185">
-        <v>7.8E-2</v>
-      </c>
-      <c r="E3" s="185">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="F3" s="185">
-        <v>2E-3</v>
-      </c>
-      <c r="G3" s="185">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="H3" s="185">
-        <v>83</v>
-      </c>
-      <c r="I3" s="185">
-        <v>0</v>
-      </c>
-      <c r="J3" s="185">
-        <v>0</v>
-      </c>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="185" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="185" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="185">
-        <v>0.115</v>
-      </c>
-      <c r="D4" s="185">
-        <v>0.123</v>
-      </c>
-      <c r="E4" s="185">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="F4" s="185">
-        <v>0.01</v>
-      </c>
-      <c r="G4" s="185">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="H4" s="185">
-        <v>36</v>
-      </c>
-      <c r="I4" s="185">
-        <v>0</v>
-      </c>
-      <c r="J4" s="185">
-        <v>0</v>
-      </c>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="185" t="s">
+      <c r="B54" s="214" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="214">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D54" s="214">
+        <v>0.107</v>
+      </c>
+      <c r="E54" s="214">
+        <v>1.845</v>
+      </c>
+      <c r="F54" s="214">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="G54" s="214">
+        <v>0.108</v>
+      </c>
+      <c r="H54" s="214">
+        <v>591</v>
+      </c>
+      <c r="I54" s="214">
+        <v>0</v>
+      </c>
+      <c r="J54" s="214">
+        <v>0</v>
+      </c>
+      <c r="N54" s="214"/>
+      <c r="O54" s="214"/>
+      <c r="P54" s="214"/>
+      <c r="Q54" s="214"/>
+      <c r="R54" s="214"/>
+      <c r="S54" s="214"/>
+      <c r="T54" s="214"/>
+      <c r="U54" s="214"/>
+      <c r="V54" s="214"/>
+      <c r="W54" s="214"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55" s="214" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="214" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="214">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D55" s="214">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E55" s="214">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F55" s="214">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G55" s="214">
+        <v>0.06</v>
+      </c>
+      <c r="H55" s="214">
+        <v>308</v>
+      </c>
+      <c r="I55" s="214">
+        <v>0</v>
+      </c>
+      <c r="J55" s="214">
+        <v>0</v>
+      </c>
+      <c r="N55" s="214"/>
+      <c r="O55" s="214"/>
+      <c r="P55" s="214"/>
+      <c r="Q55" s="214"/>
+      <c r="R55" s="214"/>
+      <c r="S55" s="214"/>
+      <c r="T55" s="214"/>
+      <c r="U55" s="214"/>
+      <c r="V55" s="214"/>
+      <c r="W55" s="214"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A56" s="214" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="185" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="185">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D5" s="185">
-        <v>2.7E-2</v>
-      </c>
-      <c r="E5" s="185">
+      <c r="B56" s="214" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="214">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D56" s="214">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E56" s="214">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F56" s="214">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G56" s="214">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H56" s="214">
+        <v>240</v>
+      </c>
+      <c r="I56" s="214">
+        <v>0</v>
+      </c>
+      <c r="J56" s="214">
+        <v>0</v>
+      </c>
+      <c r="N56" s="214"/>
+      <c r="O56" s="214"/>
+      <c r="P56" s="214"/>
+      <c r="Q56" s="214"/>
+      <c r="R56" s="214"/>
+      <c r="S56" s="214"/>
+      <c r="T56" s="214"/>
+      <c r="U56" s="214"/>
+      <c r="V56" s="214"/>
+      <c r="W56" s="214"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A57" s="214" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="214" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="214">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D57" s="214">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E57" s="214">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F57" s="214">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G57" s="214">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H57" s="214">
+        <v>130</v>
+      </c>
+      <c r="I57" s="214">
+        <v>0</v>
+      </c>
+      <c r="J57" s="214">
+        <v>0</v>
+      </c>
+      <c r="N57" s="214"/>
+      <c r="O57" s="214"/>
+      <c r="P57" s="214"/>
+      <c r="Q57" s="214"/>
+      <c r="R57" s="214"/>
+      <c r="S57" s="214"/>
+      <c r="T57" s="214"/>
+      <c r="U57" s="214"/>
+      <c r="V57" s="214"/>
+      <c r="W57" s="214"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A58" s="214" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" s="214" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="214">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D58" s="214">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E58" s="214">
+        <v>0.114</v>
+      </c>
+      <c r="F58" s="214">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G58" s="214">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H58" s="214">
+        <v>130</v>
+      </c>
+      <c r="I58" s="214">
+        <v>0</v>
+      </c>
+      <c r="J58" s="214">
+        <v>0</v>
+      </c>
+      <c r="N58" s="214"/>
+      <c r="O58" s="214"/>
+      <c r="P58" s="214"/>
+      <c r="Q58" s="214"/>
+      <c r="R58" s="214"/>
+      <c r="S58" s="214"/>
+      <c r="T58" s="214"/>
+      <c r="U58" s="214"/>
+      <c r="V58" s="214"/>
+      <c r="W58" s="214"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A59" s="214" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="214" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="214">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="D59" s="214">
+        <v>0.192</v>
+      </c>
+      <c r="E59" s="214">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="F59" s="214">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="G59" s="214">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="H59" s="214">
+        <v>231</v>
+      </c>
+      <c r="I59" s="214">
+        <v>0</v>
+      </c>
+      <c r="J59" s="214">
+        <v>0</v>
+      </c>
+      <c r="N59" s="214"/>
+      <c r="O59" s="214"/>
+      <c r="P59" s="214"/>
+      <c r="Q59" s="214"/>
+      <c r="R59" s="214"/>
+      <c r="S59" s="214"/>
+      <c r="T59" s="214"/>
+      <c r="U59" s="214"/>
+      <c r="V59" s="214"/>
+      <c r="W59" s="214"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A60" s="214" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" s="214" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="214">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D60" s="214">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F5" s="185">
-        <v>2E-3</v>
-      </c>
-      <c r="G5" s="185">
-        <v>3.1E-2</v>
-      </c>
-      <c r="H5" s="185">
-        <v>25</v>
-      </c>
-      <c r="I5" s="185">
-        <v>0</v>
-      </c>
-      <c r="J5" s="185">
-        <v>0</v>
-      </c>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="185" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="185" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="185">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="D6" s="185">
-        <v>0.11</v>
-      </c>
-      <c r="E6" s="185">
-        <v>0.45</v>
-      </c>
-      <c r="F6" s="185">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="G6" s="185">
-        <v>0.109</v>
-      </c>
-      <c r="H6" s="185">
-        <v>83</v>
-      </c>
-      <c r="I6" s="185">
-        <v>0</v>
-      </c>
-      <c r="J6" s="185">
-        <v>0</v>
-      </c>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="185" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="185" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="185">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="D7" s="185">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="E7" s="185">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="F7" s="185">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G7" s="185">
-        <v>0.06</v>
-      </c>
-      <c r="H7" s="185">
-        <v>190</v>
-      </c>
-      <c r="I7" s="185">
-        <v>0</v>
-      </c>
-      <c r="J7" s="185">
-        <v>0</v>
-      </c>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="185" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="185" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="185">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="D8" s="185">
-        <v>0.09</v>
-      </c>
-      <c r="E8" s="185">
-        <v>0.81899999999999995</v>
-      </c>
-      <c r="F8" s="185">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="G8" s="185">
-        <v>0.107</v>
-      </c>
-      <c r="H8" s="185">
-        <v>136</v>
-      </c>
-      <c r="I8" s="185">
-        <v>20</v>
-      </c>
-      <c r="J8" s="185">
-        <v>0</v>
-      </c>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="185" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="185" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="185">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="D9" s="185">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="E9" s="185">
-        <v>6.2E-2</v>
-      </c>
-      <c r="F9" s="185">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G9" s="185">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="H9" s="185">
-        <v>69</v>
-      </c>
-      <c r="I9" s="185">
-        <v>0</v>
-      </c>
-      <c r="J9" s="185">
-        <v>0</v>
-      </c>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="185" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="185" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="185">
-        <v>0.03</v>
-      </c>
-      <c r="D10" s="185">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="E10" s="185">
-        <v>5.5E-2</v>
-      </c>
-      <c r="F10" s="185">
+      <c r="E60" s="214">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F60" s="214">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G10" s="185">
+      <c r="G60" s="214">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="H10" s="185">
-        <v>54</v>
-      </c>
-      <c r="I10" s="185">
-        <v>0</v>
-      </c>
-      <c r="J10" s="185">
-        <v>0</v>
-      </c>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="185" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="185" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="185">
-        <v>0.03</v>
-      </c>
-      <c r="D11" s="185">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="E11" s="185">
-        <v>3.9E-2</v>
-      </c>
-      <c r="F11" s="185">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G11" s="185">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="H11" s="185">
-        <v>34</v>
-      </c>
-      <c r="I11" s="185">
-        <v>0</v>
-      </c>
-      <c r="J11" s="185">
-        <v>0</v>
-      </c>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="185" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="185" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="185">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="D12" s="185">
-        <v>3.1E-2</v>
-      </c>
-      <c r="E12" s="185">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="F12" s="185">
-        <v>2E-3</v>
-      </c>
-      <c r="G12" s="185">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="H12" s="185">
-        <v>36</v>
-      </c>
-      <c r="I12" s="185">
-        <v>0</v>
-      </c>
-      <c r="J12" s="185">
-        <v>0</v>
-      </c>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="185" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="185" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="185">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="D13" s="185">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="E13" s="185">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="F13" s="185">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G13" s="185">
-        <v>0.1</v>
-      </c>
-      <c r="H13" s="185">
-        <v>53</v>
-      </c>
-      <c r="I13" s="185">
-        <v>0</v>
-      </c>
-      <c r="J13" s="185">
-        <v>0</v>
-      </c>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="185" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="185" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="185">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="D14" s="185">
-        <v>3.1E-2</v>
-      </c>
-      <c r="E14" s="185">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="F14" s="185">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G14" s="185">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="H14" s="185">
-        <v>83</v>
-      </c>
-      <c r="I14" s="185">
-        <v>0</v>
-      </c>
-      <c r="J14" s="185">
-        <v>0</v>
-      </c>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="185" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="185" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="185">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="D15" s="185">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="E15" s="185">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="F15" s="185">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="G15" s="185">
-        <v>0.313</v>
-      </c>
-      <c r="H15" s="185">
-        <v>15</v>
-      </c>
-      <c r="I15" s="185">
-        <v>4</v>
-      </c>
-      <c r="J15" s="185">
-        <v>0</v>
-      </c>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="185" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="185" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="185">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="D16" s="185">
-        <v>0.438</v>
-      </c>
-      <c r="E16" s="185">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="F16" s="185">
-        <v>1.4E-2</v>
-      </c>
-      <c r="G16" s="185">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="H16" s="185">
-        <v>54</v>
-      </c>
-      <c r="I16" s="185">
-        <v>12</v>
-      </c>
-      <c r="J16" s="185">
-        <v>0</v>
-      </c>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="185" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="185" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="185">
-        <v>0.316</v>
-      </c>
-      <c r="D17" s="185">
-        <v>0.373</v>
-      </c>
-      <c r="E17" s="185">
-        <v>0.71299999999999997</v>
-      </c>
-      <c r="F17" s="185">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="G17" s="185">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="H17" s="185">
-        <v>32</v>
-      </c>
-      <c r="I17" s="185">
-        <v>0</v>
-      </c>
-      <c r="J17" s="185">
-        <v>0</v>
-      </c>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="185" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="185" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="185">
-        <v>0.222</v>
-      </c>
-      <c r="D18" s="185">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="E18" s="185">
-        <v>0.99</v>
-      </c>
-      <c r="F18" s="185">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="G18" s="185">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="H18" s="185">
-        <v>25</v>
-      </c>
-      <c r="I18" s="185">
-        <v>0</v>
-      </c>
-      <c r="J18" s="185">
-        <v>0</v>
-      </c>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="185" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="185" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="185">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="D19" s="185">
-        <v>0.25</v>
-      </c>
-      <c r="E19" s="185">
-        <v>0.312</v>
-      </c>
-      <c r="F19" s="185">
-        <v>1.9E-2</v>
-      </c>
-      <c r="G19" s="185">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H19" s="185">
-        <v>36</v>
-      </c>
-      <c r="I19" s="185">
-        <v>0</v>
-      </c>
-      <c r="J19" s="185">
-        <v>0</v>
-      </c>
+      <c r="H60" s="214">
+        <v>360</v>
+      </c>
+      <c r="I60" s="214">
+        <v>0</v>
+      </c>
+      <c r="J60" s="214">
+        <v>0</v>
+      </c>
+      <c r="N60" s="214"/>
+      <c r="O60" s="214"/>
+      <c r="P60" s="214"/>
+      <c r="Q60" s="214"/>
+      <c r="R60" s="214"/>
+      <c r="S60" s="214"/>
+      <c r="T60" s="214"/>
+      <c r="U60" s="214"/>
+      <c r="V60" s="214"/>
+      <c r="W60" s="214"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A61" s="211"/>
+      <c r="B61" s="211"/>
+      <c r="C61" s="211"/>
+      <c r="D61" s="211"/>
+      <c r="E61" s="211"/>
+      <c r="F61" s="211"/>
+      <c r="G61" s="211"/>
+      <c r="H61" s="212"/>
+      <c r="I61" s="211"/>
+      <c r="J61" s="211"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A62" s="211"/>
+      <c r="B62" s="211"/>
+      <c r="C62" s="211"/>
+      <c r="D62" s="211"/>
+      <c r="E62" s="211"/>
+      <c r="F62" s="211"/>
+      <c r="G62" s="211"/>
+      <c r="H62" s="212"/>
+      <c r="I62" s="211"/>
+      <c r="J62" s="211"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A63" s="211"/>
+      <c r="B63" s="211"/>
+      <c r="C63" s="211"/>
+      <c r="D63" s="211"/>
+      <c r="E63" s="211"/>
+      <c r="F63" s="211"/>
+      <c r="G63" s="211"/>
+      <c r="H63" s="212"/>
+      <c r="I63" s="211"/>
+      <c r="J63" s="211"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A64" s="211"/>
+      <c r="B64" s="211"/>
+      <c r="C64" s="211"/>
+      <c r="D64" s="211"/>
+      <c r="E64" s="211"/>
+      <c r="F64" s="211"/>
+      <c r="G64" s="211"/>
+      <c r="H64" s="212"/>
+      <c r="I64" s="211"/>
+      <c r="J64" s="211"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="211"/>
+      <c r="B65" s="211"/>
+      <c r="C65" s="211"/>
+      <c r="D65" s="211"/>
+      <c r="E65" s="211"/>
+      <c r="F65" s="211"/>
+      <c r="G65" s="211"/>
+      <c r="H65" s="212"/>
+      <c r="I65" s="211"/>
+      <c r="J65" s="211"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="211"/>
+      <c r="B66" s="211"/>
+      <c r="C66" s="211"/>
+      <c r="D66" s="211"/>
+      <c r="E66" s="211"/>
+      <c r="F66" s="211"/>
+      <c r="G66" s="211"/>
+      <c r="H66" s="212"/>
+      <c r="I66" s="211"/>
+      <c r="J66" s="211"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="211"/>
+      <c r="B67" s="211"/>
+      <c r="C67" s="211"/>
+      <c r="D67" s="211"/>
+      <c r="E67" s="211"/>
+      <c r="F67" s="211"/>
+      <c r="G67" s="211"/>
+      <c r="H67" s="212"/>
+      <c r="I67" s="211"/>
+      <c r="J67" s="211"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6246,615 +7236,718 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="C9:O44"/>
+  <dimension ref="B8:AB58"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.42578125" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="11" max="11" width="1.42578125" customWidth="1"/>
-    <col min="12" max="12" width="40.28515625" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="14" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-    </row>
-    <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="E11" s="1" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="209" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="209"/>
+      <c r="D8" s="209"/>
+      <c r="E8" s="209"/>
+      <c r="F8" s="209"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
+    <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="4">
-        <v>368</v>
-      </c>
-      <c r="H12" s="3">
-        <f>121*3</f>
-        <v>363</v>
-      </c>
-      <c r="I12" s="5">
-        <f>1-G12/H12</f>
-        <v>-1.377410468319562E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="5:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E13" s="2" t="s">
+      <c r="D11" s="213">
+        <f>'Автоматизированный расчет'!B39*4/3</f>
+        <v>562.66666666666663</v>
+      </c>
+      <c r="E11" s="3">
+        <f>SummaryReport!H54</f>
+        <v>591</v>
+      </c>
+      <c r="F11" s="5">
+        <f>1-D11/E11</f>
+        <v>4.794134235758607E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="4">
-        <v>251</v>
-      </c>
-      <c r="H13" s="3">
-        <f>82*3</f>
-        <v>246</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" ref="I13:I18" si="0">1-G13/H13</f>
-        <v>-2.0325203252032464E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="5:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E14" s="2" t="s">
+      <c r="D12" s="213">
+        <f>'Автоматизированный расчет'!B41*4/3</f>
+        <v>376</v>
+      </c>
+      <c r="E12" s="3">
+        <f>SummaryReport!H60</f>
+        <v>360</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12:F17" si="0">1-D12/E12</f>
+        <v>-4.4444444444444509E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="4">
-        <v>251</v>
-      </c>
-      <c r="H14" s="3">
-        <f>82*3</f>
-        <v>246</v>
-      </c>
-      <c r="I14" s="5">
+      <c r="D13" s="213">
+        <f>'Автоматизированный расчет'!B42*4/3</f>
+        <v>360</v>
+      </c>
+      <c r="E13" s="3">
+        <f>SummaryReport!H49</f>
+        <v>360</v>
+      </c>
+      <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>-2.0325203252032464E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E15" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="C14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="4">
+      <c r="D14" s="213">
+        <f>'Автоматизированный расчет'!B43*4/3</f>
+        <v>233.33333333333334</v>
+      </c>
+      <c r="E14" s="3">
+        <f>SummaryReport!H56</f>
+        <v>240</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="213">
+        <f>'Автоматизированный расчет'!B44*4/3</f>
+        <v>373.33333333333331</v>
+      </c>
+      <c r="E15" s="3">
+        <f>SummaryReport!H59</f>
+        <v>231</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.61616161616161613</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="213">
+        <f>'Автоматизированный расчет'!B45*4/3</f>
+        <v>97.333333333333329</v>
+      </c>
+      <c r="E16" s="3">
+        <f>SummaryReport!H51</f>
+        <v>94</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
+        <v>-3.5460992907801359E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="213">
+        <f>'Автоматизированный расчет'!B46*4/3</f>
+        <v>434.66666666666669</v>
+      </c>
+      <c r="E17" s="3">
+        <f>SummaryReport!H55</f>
+        <v>308</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.41125541125541121</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B20" s="209" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="209"/>
+      <c r="D20" s="209"/>
+      <c r="E20" s="209"/>
+      <c r="F20" s="209"/>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="N22" s="175"/>
+      <c r="O22" s="174"/>
+      <c r="P22" s="174"/>
+      <c r="Q22" s="174"/>
+    </row>
+    <row r="23" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="4">
+        <f>'Автоматизированный расчет'!B39</f>
+        <v>422</v>
+      </c>
+      <c r="E23" s="3">
+        <f>SummaryReport!H31</f>
+        <v>444</v>
+      </c>
+      <c r="F23" s="5">
+        <f>1-D23/E23</f>
+        <v>4.9549549549549599E-2</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="N23" s="175"/>
+      <c r="O23" s="173"/>
+      <c r="P23" s="173"/>
+      <c r="Q23" s="173"/>
+      <c r="S23" s="173"/>
+      <c r="T23" s="173"/>
+      <c r="U23" s="173"/>
+      <c r="V23" s="173"/>
+      <c r="W23" s="173"/>
+      <c r="X23" s="173"/>
+      <c r="Y23" s="173"/>
+      <c r="Z23" s="173"/>
+      <c r="AA23" s="173"/>
+      <c r="AB23" s="173"/>
+    </row>
+    <row r="24" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="4">
+        <f>'Автоматизированный расчет'!B41</f>
+        <v>282</v>
+      </c>
+      <c r="E24" s="3">
+        <f>SummaryReport!H37</f>
+        <v>270</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" ref="F24:F29" si="1">1-D24/E24</f>
+        <v>-4.4444444444444509E-2</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="N24" s="175"/>
+      <c r="O24" s="173"/>
+      <c r="P24" s="173"/>
+      <c r="Q24" s="173"/>
+      <c r="S24" s="173"/>
+      <c r="T24" s="173"/>
+      <c r="U24" s="173"/>
+      <c r="V24" s="173"/>
+      <c r="W24" s="173"/>
+      <c r="X24" s="173"/>
+      <c r="Y24" s="173"/>
+      <c r="Z24" s="173"/>
+      <c r="AA24" s="173"/>
+      <c r="AB24" s="173"/>
+    </row>
+    <row r="25" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="4">
+        <f>'Автоматизированный расчет'!B42</f>
+        <v>270</v>
+      </c>
+      <c r="E25" s="3">
+        <f>SummaryReport!H26</f>
+        <v>270</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="N25" s="175"/>
+      <c r="O25" s="173"/>
+      <c r="P25" s="173"/>
+      <c r="Q25" s="173"/>
+      <c r="S25" s="173"/>
+      <c r="T25" s="173"/>
+      <c r="U25" s="173"/>
+      <c r="V25" s="173"/>
+      <c r="W25" s="173"/>
+      <c r="X25" s="173"/>
+      <c r="Y25" s="173"/>
+      <c r="Z25" s="173"/>
+      <c r="AA25" s="173"/>
+      <c r="AB25" s="173"/>
+    </row>
+    <row r="26" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="4">
+        <f>'Автоматизированный расчет'!B43</f>
         <v>175</v>
       </c>
-      <c r="H15" s="3">
-        <f>56*3</f>
-        <v>168</v>
-      </c>
-      <c r="I15" s="6">
-        <f t="shared" si="0"/>
-        <v>-4.1666666666666741E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="5:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E16" s="2" t="s">
+      <c r="E26" s="3">
+        <v>180</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="1"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="N26" s="175"/>
+      <c r="O26" s="173"/>
+      <c r="P26" s="173"/>
+      <c r="Q26" s="173"/>
+      <c r="S26" s="173"/>
+      <c r="T26" s="173"/>
+      <c r="U26" s="173"/>
+      <c r="V26" s="173"/>
+      <c r="W26" s="173"/>
+      <c r="X26" s="173"/>
+      <c r="Y26" s="173"/>
+      <c r="Z26" s="173"/>
+      <c r="AA26" s="173"/>
+      <c r="AB26" s="173"/>
+    </row>
+    <row r="27" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="C27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="4">
-        <v>159</v>
-      </c>
-      <c r="H16" s="4">
-        <f>56*3</f>
-        <v>168</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="0"/>
-        <v>5.3571428571428603E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="5:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="E17" s="2" t="s">
+      <c r="D27" s="4">
+        <f>'Автоматизированный расчет'!B44</f>
+        <v>280</v>
+      </c>
+      <c r="E27" s="3">
+        <f>SummaryReport!H36</f>
+        <v>272</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.9411764705882248E-2</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="N27" s="175"/>
+      <c r="O27" s="173"/>
+      <c r="P27" s="173"/>
+      <c r="Q27" s="173"/>
+      <c r="S27" s="173"/>
+      <c r="T27" s="173"/>
+      <c r="U27" s="173"/>
+      <c r="V27" s="173"/>
+      <c r="W27" s="173"/>
+      <c r="X27" s="173"/>
+      <c r="Y27" s="173"/>
+      <c r="Z27" s="173"/>
+      <c r="AA27" s="173"/>
+      <c r="AB27" s="173"/>
+    </row>
+    <row r="28" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="C28" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="4">
+      <c r="D28" s="4">
+        <f>'Автоматизированный расчет'!B45</f>
         <v>73</v>
       </c>
-      <c r="H17" s="3">
-        <f>25*3</f>
-        <v>75</v>
-      </c>
-      <c r="I17" s="5">
-        <f t="shared" si="0"/>
-        <v>2.6666666666666616E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E18" s="2" t="s">
+      <c r="E28" s="3">
+        <v>71</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.8169014084507005E-2</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="N28" s="175"/>
+      <c r="O28" s="173"/>
+      <c r="P28" s="173"/>
+      <c r="Q28" s="173"/>
+      <c r="S28" s="173"/>
+      <c r="T28" s="173"/>
+      <c r="U28" s="173"/>
+      <c r="V28" s="173"/>
+      <c r="W28" s="173"/>
+      <c r="X28" s="173"/>
+      <c r="Y28" s="173"/>
+      <c r="Z28" s="173"/>
+      <c r="AA28" s="173"/>
+      <c r="AB28" s="173"/>
+    </row>
+    <row r="29" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="C29" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="4">
+      <c r="D29" s="4">
+        <f>'Автоматизированный расчет'!B46</f>
         <v>326</v>
       </c>
-      <c r="H18" s="3">
-        <f>104*3</f>
-        <v>312</v>
-      </c>
-      <c r="I18" s="5">
-        <f t="shared" si="0"/>
-        <v>-4.4871794871794934E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E26" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="10">
-        <f>5*368</f>
-        <v>1840</v>
-      </c>
-      <c r="H26" s="9">
-        <f>721*3</f>
-        <v>2163</v>
-      </c>
-      <c r="I26" s="11">
-        <f>1-G26/H26</f>
-        <v>0.14932963476652794</v>
-      </c>
-    </row>
-    <row r="27" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E27" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="10">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H27" s="9">
-        <f>3*464</f>
-        <v>1392</v>
-      </c>
-      <c r="I27" s="11">
-        <f t="shared" ref="I27:I32" si="1">1-G27/H27</f>
-        <v>9.8419540229885083E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E28" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="10">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H28" s="9">
-        <f>3*462</f>
-        <v>1386</v>
-      </c>
-      <c r="I28" s="11">
+      <c r="E29" s="3">
+        <f>SummaryReport!H32</f>
+        <v>341</v>
+      </c>
+      <c r="F29" s="5">
         <f t="shared" si="1"/>
-        <v>9.4516594516594554E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E29" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="10">
-        <f>5*175</f>
-        <v>875</v>
-      </c>
-      <c r="H29" s="9">
-        <f>3*314</f>
-        <v>942</v>
-      </c>
-      <c r="I29" s="7">
-        <f t="shared" si="1"/>
-        <v>7.1125265392781301E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E30" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="10">
-        <f>5*159</f>
-        <v>795</v>
-      </c>
-      <c r="H30" s="9">
-        <f>3*330</f>
-        <v>990</v>
-      </c>
-      <c r="I30" s="11">
-        <f t="shared" si="1"/>
-        <v>0.19696969696969702</v>
-      </c>
-    </row>
-    <row r="31" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="10">
-        <f>5*73</f>
-        <v>365</v>
-      </c>
-      <c r="H31" s="9">
-        <f>3*141</f>
-        <v>423</v>
-      </c>
-      <c r="I31" s="11">
-        <f t="shared" si="1"/>
-        <v>0.13711583924349879</v>
-      </c>
-    </row>
-    <row r="32" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E32" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" s="10">
-        <f>5*326</f>
-        <v>1630</v>
-      </c>
-      <c r="H32" s="9">
-        <f>3*599</f>
-        <v>1797</v>
-      </c>
-      <c r="I32" s="11">
-        <f t="shared" si="1"/>
-        <v>9.2932665553700611E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
-    </row>
-    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E37" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M37" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N37" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O37" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E38" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="10">
-        <f>5*368</f>
-        <v>1840</v>
-      </c>
-      <c r="H38" s="9">
-        <v>2109</v>
-      </c>
-      <c r="I38" s="11">
-        <f>1-G38/H38</f>
-        <v>0.12754860123281175</v>
-      </c>
-      <c r="L38" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="M38" s="14">
-        <v>377</v>
-      </c>
-      <c r="N38" s="14">
-        <v>27</v>
-      </c>
-      <c r="O38" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E39" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="10">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H39" s="14">
-        <v>1315</v>
-      </c>
-      <c r="I39" s="11">
-        <f t="shared" ref="I39:I44" si="2">1-G39/H39</f>
-        <v>4.5627376425855459E-2</v>
-      </c>
-      <c r="L39" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M39" s="14">
-        <v>998</v>
-      </c>
-      <c r="N39" s="14">
-        <v>1</v>
-      </c>
-      <c r="O39" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" s="10">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H40" s="9">
-        <v>1315</v>
-      </c>
-      <c r="I40" s="11">
-        <f t="shared" si="2"/>
-        <v>4.5627376425855459E-2</v>
-      </c>
-      <c r="L40" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M40" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N40" s="14">
-        <v>0</v>
-      </c>
-      <c r="O40" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E41" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" s="10">
-        <f>5*175</f>
-        <v>875</v>
-      </c>
-      <c r="H41" s="14">
-        <v>924</v>
-      </c>
-      <c r="I41" s="7">
-        <f t="shared" si="2"/>
-        <v>5.3030303030302983E-2</v>
-      </c>
-      <c r="L41" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M41" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="N41" s="14">
-        <v>139</v>
-      </c>
-      <c r="O41" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E42" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="10">
-        <f>5*159</f>
-        <v>795</v>
-      </c>
-      <c r="H42" s="14">
-        <v>998</v>
-      </c>
-      <c r="I42" s="11">
-        <f t="shared" si="2"/>
-        <v>0.20340681362725455</v>
-      </c>
-      <c r="L42" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M42" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="N42" s="14">
-        <v>1</v>
-      </c>
-      <c r="O42" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" s="10">
-        <f>5*73</f>
-        <v>365</v>
-      </c>
-      <c r="H43" s="14">
-        <v>404</v>
-      </c>
-      <c r="I43" s="11">
-        <f t="shared" si="2"/>
-        <v>9.6534653465346509E-2</v>
-      </c>
-      <c r="L43" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M43" s="14">
-        <v>924</v>
-      </c>
-      <c r="N43" s="14">
-        <v>0</v>
-      </c>
-      <c r="O43" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E44" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" s="10">
-        <f>5*326</f>
-        <v>1630</v>
-      </c>
-      <c r="H44" s="9">
-        <v>1675</v>
-      </c>
-      <c r="I44" s="11">
-        <f t="shared" si="2"/>
-        <v>2.68656716417911E-2</v>
-      </c>
-      <c r="L44" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M44" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N44" s="14">
-        <v>0</v>
-      </c>
-      <c r="O44" s="14">
-        <v>0</v>
-      </c>
+        <v>4.3988269794721369E-2</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="N29" s="175"/>
+      <c r="O29" s="173"/>
+      <c r="P29" s="173"/>
+      <c r="Q29" s="173"/>
+      <c r="S29" s="173"/>
+      <c r="T29" s="173"/>
+      <c r="U29" s="173"/>
+      <c r="V29" s="173"/>
+      <c r="W29" s="173"/>
+      <c r="X29" s="173"/>
+      <c r="Y29" s="173"/>
+      <c r="Z29" s="173"/>
+      <c r="AA29" s="173"/>
+      <c r="AB29" s="173"/>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="N30" s="175"/>
+      <c r="O30" s="173"/>
+      <c r="P30" s="173"/>
+      <c r="Q30" s="173"/>
+      <c r="S30" s="173"/>
+      <c r="T30" s="173"/>
+      <c r="U30" s="173"/>
+      <c r="V30" s="173"/>
+      <c r="W30" s="173"/>
+      <c r="X30" s="173"/>
+      <c r="Y30" s="173"/>
+      <c r="Z30" s="173"/>
+      <c r="AA30" s="173"/>
+      <c r="AB30" s="173"/>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="N31" s="175"/>
+      <c r="O31" s="173"/>
+      <c r="P31" s="173"/>
+      <c r="Q31" s="173"/>
+      <c r="S31" s="173"/>
+      <c r="T31" s="173"/>
+      <c r="U31" s="173"/>
+      <c r="V31" s="173"/>
+      <c r="W31" s="173"/>
+      <c r="X31" s="173"/>
+      <c r="Y31" s="173"/>
+      <c r="Z31" s="173"/>
+      <c r="AA31" s="173"/>
+      <c r="AB31" s="173"/>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="N32" s="175"/>
+      <c r="O32" s="173"/>
+      <c r="P32" s="173"/>
+      <c r="Q32" s="173"/>
+      <c r="S32" s="173"/>
+      <c r="T32" s="173"/>
+      <c r="U32" s="173"/>
+      <c r="V32" s="173"/>
+      <c r="W32" s="173"/>
+      <c r="X32" s="173"/>
+      <c r="Y32" s="173"/>
+      <c r="Z32" s="173"/>
+      <c r="AA32" s="173"/>
+      <c r="AB32" s="173"/>
+    </row>
+    <row r="33" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N33" s="175"/>
+      <c r="O33" s="173"/>
+      <c r="P33" s="173"/>
+      <c r="Q33" s="173"/>
+      <c r="S33" s="173"/>
+      <c r="T33" s="173"/>
+      <c r="U33" s="173"/>
+      <c r="V33" s="173"/>
+      <c r="W33" s="173"/>
+      <c r="X33" s="173"/>
+      <c r="Y33" s="173"/>
+      <c r="Z33" s="173"/>
+      <c r="AA33" s="173"/>
+      <c r="AB33" s="173"/>
+    </row>
+    <row r="34" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N34" s="175"/>
+      <c r="O34" s="173"/>
+      <c r="P34" s="173"/>
+      <c r="Q34" s="173"/>
+      <c r="S34" s="173"/>
+      <c r="T34" s="173"/>
+      <c r="U34" s="173"/>
+      <c r="V34" s="173"/>
+      <c r="W34" s="173"/>
+      <c r="X34" s="173"/>
+      <c r="Y34" s="173"/>
+      <c r="Z34" s="173"/>
+      <c r="AA34" s="173"/>
+      <c r="AB34" s="173"/>
+    </row>
+    <row r="35" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N35" s="175"/>
+      <c r="O35" s="173"/>
+      <c r="P35" s="173"/>
+      <c r="Q35" s="173"/>
+      <c r="S35" s="173"/>
+      <c r="T35" s="173"/>
+      <c r="U35" s="173"/>
+      <c r="V35" s="173"/>
+      <c r="W35" s="173"/>
+      <c r="X35" s="173"/>
+      <c r="Y35" s="173"/>
+      <c r="Z35" s="173"/>
+      <c r="AA35" s="173"/>
+      <c r="AB35" s="173"/>
+    </row>
+    <row r="36" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N36" s="175"/>
+      <c r="O36" s="173"/>
+      <c r="P36" s="173"/>
+      <c r="Q36" s="173"/>
+      <c r="S36" s="173"/>
+      <c r="T36" s="173"/>
+      <c r="U36" s="173"/>
+      <c r="V36" s="173"/>
+      <c r="W36" s="173"/>
+      <c r="X36" s="173"/>
+      <c r="Y36" s="173"/>
+      <c r="Z36" s="173"/>
+      <c r="AA36" s="173"/>
+      <c r="AB36" s="173"/>
+    </row>
+    <row r="37" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N37" s="175"/>
+      <c r="O37" s="173"/>
+      <c r="P37" s="173"/>
+      <c r="Q37" s="173"/>
+      <c r="S37" s="173"/>
+      <c r="T37" s="173"/>
+      <c r="U37" s="173"/>
+      <c r="V37" s="173"/>
+      <c r="W37" s="173"/>
+      <c r="X37" s="173"/>
+      <c r="Y37" s="173"/>
+      <c r="Z37" s="173"/>
+      <c r="AA37" s="173"/>
+      <c r="AB37" s="173"/>
+    </row>
+    <row r="38" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N38" s="175"/>
+      <c r="O38" s="173"/>
+      <c r="P38" s="173"/>
+      <c r="Q38" s="173"/>
+      <c r="S38" s="173"/>
+      <c r="T38" s="173"/>
+      <c r="U38" s="173"/>
+      <c r="V38" s="173"/>
+      <c r="W38" s="173"/>
+      <c r="X38" s="173"/>
+      <c r="Y38" s="173"/>
+      <c r="Z38" s="173"/>
+      <c r="AA38" s="173"/>
+      <c r="AB38" s="173"/>
+    </row>
+    <row r="39" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N39" s="175"/>
+      <c r="O39" s="173"/>
+      <c r="P39" s="173"/>
+      <c r="Q39" s="173"/>
+      <c r="S39" s="173"/>
+      <c r="T39" s="173"/>
+      <c r="U39" s="173"/>
+      <c r="V39" s="173"/>
+      <c r="W39" s="173"/>
+      <c r="X39" s="173"/>
+      <c r="Y39" s="173"/>
+      <c r="Z39" s="173"/>
+      <c r="AA39" s="173"/>
+      <c r="AB39" s="173"/>
+    </row>
+    <row r="40" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N40" s="175"/>
+      <c r="S40" s="173"/>
+      <c r="T40" s="173"/>
+      <c r="U40" s="173"/>
+      <c r="V40" s="173"/>
+      <c r="W40" s="173"/>
+      <c r="X40" s="173"/>
+      <c r="Y40" s="173"/>
+      <c r="Z40" s="173"/>
+      <c r="AA40" s="173"/>
+      <c r="AB40" s="173"/>
+    </row>
+    <row r="41" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N41" s="175"/>
+    </row>
+    <row r="42" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N42" s="175"/>
+    </row>
+    <row r="43" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N43" s="175"/>
+    </row>
+    <row r="44" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N44" s="175"/>
+    </row>
+    <row r="45" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N45" s="175"/>
+    </row>
+    <row r="46" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N46" s="175"/>
+    </row>
+    <row r="47" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N47" s="175"/>
+    </row>
+    <row r="48" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N48" s="175"/>
+    </row>
+    <row r="49" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N49" s="175"/>
+    </row>
+    <row r="50" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N50" s="175"/>
+    </row>
+    <row r="51" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N51" s="175"/>
+    </row>
+    <row r="52" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N52" s="175"/>
+    </row>
+    <row r="53" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N53" s="175"/>
+    </row>
+    <row r="54" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N54" s="175"/>
+    </row>
+    <row r="55" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N55" s="175"/>
+    </row>
+    <row r="56" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N56" s="175"/>
+    </row>
+    <row r="57" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N57" s="175"/>
+    </row>
+    <row r="58" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N58" s="175"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E9:I9"/>
+  <mergeCells count="2">
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Documents/WebTours_Профиль_нагрузки.xlsx
+++ b/Documents/WebTours_Профиль_нагрузки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey.Home-PC\LoadRunner_WebTours\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE0A39E-AF8C-4CAC-AF58-9B751F9BFB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634E9759-99E5-4140-B799-BB2F48889A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="56" r:id="rId5"/>
+    <pivotCache cacheId="12" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="96">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -457,9 +457,6 @@
     <t>Duration + Think_time</t>
   </si>
   <si>
-    <t>Action_Transaction</t>
-  </si>
-  <si>
     <t>Профиль</t>
   </si>
   <si>
@@ -502,24 +499,6 @@
     <t>ticket_Search</t>
   </si>
   <si>
-    <t>UC1_Login&amp;Logout</t>
-  </si>
-  <si>
-    <t>UC3_Book_Flights</t>
-  </si>
-  <si>
-    <t>UC4_Flights_List_w/o_Payment</t>
-  </si>
-  <si>
-    <t>UC4_Itinerary_List</t>
-  </si>
-  <si>
-    <t>UC5_Delete_From_Itinerary</t>
-  </si>
-  <si>
-    <t>UC6_Register_New_Users</t>
-  </si>
-  <si>
     <t>ConfirmMaxPerf</t>
   </si>
   <si>
@@ -530,21 +509,26 @@
   </si>
   <si>
     <t>Поиск максимума 4 ступень</t>
-  </si>
-  <si>
-    <t>UC2_Flights_List_w/o_Payment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1116,7 +1100,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -1749,17 +1733,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -1809,87 +1782,107 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="180">
+  <cellStyleXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1991,28 +1984,28 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2021,7 +2014,7 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="38" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2029,23 +2022,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2065,30 +2058,30 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="66"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="37" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="66"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="38" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2203,50 +2196,38 @@
     <xf numFmtId="2" fontId="0" fillId="42" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="42" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="80" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="80"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="100"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="80" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="80"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="80" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="100"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="80" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="80" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="80" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="80" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="80" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="80" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="80" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" xfId="80" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="120"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="140" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="140" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="140" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="140"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="140" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="140" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="140" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="140" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="140" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="140" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="140" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="140" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="140" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="140" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="140" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="140" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="120"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="140" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="140" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="140" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="140"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="140" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="140" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="140" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="140" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="140" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="140" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="140" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="140" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2262,9 +2243,9 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="160"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="180"/>
   </cellXfs>
-  <cellStyles count="180">
+  <cellStyles count="200">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% — акцент1 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% — акцент1 3" xfId="68" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -2273,6 +2254,7 @@
     <cellStyle name="20% — акцент1 6" xfId="122" xr:uid="{9473782A-5ADE-4FEE-BF26-7B55DE6EB938}"/>
     <cellStyle name="20% — акцент1 7" xfId="142" xr:uid="{F73A1432-22E8-4178-AD28-48BBEBBCBFB5}"/>
     <cellStyle name="20% — акцент1 8" xfId="162" xr:uid="{531F3ECC-AEEC-43A7-83C2-A88BEEB09AD7}"/>
+    <cellStyle name="20% — акцент1 9" xfId="182" xr:uid="{E5F5934F-C853-4ADA-B22F-FB6FCF114392}"/>
     <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% — акцент2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="20% — акцент2 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
@@ -2281,6 +2263,7 @@
     <cellStyle name="20% — акцент2 6" xfId="125" xr:uid="{5C3A3E5E-BDA8-46F5-A8C0-F26F72F63D14}"/>
     <cellStyle name="20% — акцент2 7" xfId="145" xr:uid="{583C09FC-1877-4D5B-B600-0C5932F56859}"/>
     <cellStyle name="20% — акцент2 8" xfId="165" xr:uid="{9AE9AE75-77C1-49DE-84C5-CE9DBD1E7F93}"/>
+    <cellStyle name="20% — акцент2 9" xfId="185" xr:uid="{E6FE251E-2141-4682-8443-6A2D91DB6A44}"/>
     <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% — акцент3 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="20% — акцент3 3" xfId="72" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
@@ -2289,6 +2272,7 @@
     <cellStyle name="20% — акцент3 6" xfId="128" xr:uid="{58C5D03C-8790-46B3-8957-F164DE52D3DE}"/>
     <cellStyle name="20% — акцент3 7" xfId="148" xr:uid="{6D924771-7F35-450A-BC4F-D1F18FE2BBE5}"/>
     <cellStyle name="20% — акцент3 8" xfId="168" xr:uid="{6D52EAE3-C935-4835-A368-F68E97C507FE}"/>
+    <cellStyle name="20% — акцент3 9" xfId="188" xr:uid="{B7848C41-2388-460E-8BF0-F1AB7B154950}"/>
     <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% — акцент4 2" xfId="57" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="20% — акцент4 3" xfId="74" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
@@ -2297,6 +2281,7 @@
     <cellStyle name="20% — акцент4 6" xfId="131" xr:uid="{A2528598-E7F1-4A70-B54C-77AD61CA2203}"/>
     <cellStyle name="20% — акцент4 7" xfId="151" xr:uid="{24163773-2D15-4CF1-B6CE-390351524950}"/>
     <cellStyle name="20% — акцент4 8" xfId="171" xr:uid="{D365EFAA-9BE6-4ACF-A70A-0A4B78050A8D}"/>
+    <cellStyle name="20% — акцент4 9" xfId="191" xr:uid="{5D849E28-A0C0-4A2D-A3EA-B61D6C52C25E}"/>
     <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% — акцент5 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="20% — акцент5 3" xfId="76" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
@@ -2305,6 +2290,7 @@
     <cellStyle name="20% — акцент5 6" xfId="134" xr:uid="{23D0B485-9120-4FC6-AF57-68186DE78206}"/>
     <cellStyle name="20% — акцент5 7" xfId="154" xr:uid="{87673121-3336-46B2-B5AD-73A7F9089FEB}"/>
     <cellStyle name="20% — акцент5 8" xfId="174" xr:uid="{B974FA3C-ABE3-4C0D-B275-11404AE3AAB4}"/>
+    <cellStyle name="20% — акцент5 9" xfId="194" xr:uid="{C1EE0497-8F4B-459D-964C-2D3E7195A0FF}"/>
     <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% — акцент6 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="20% — акцент6 3" xfId="78" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
@@ -2313,6 +2299,7 @@
     <cellStyle name="20% — акцент6 6" xfId="137" xr:uid="{D3B13CCD-FB4E-4D99-B1E5-352AB7D66358}"/>
     <cellStyle name="20% — акцент6 7" xfId="157" xr:uid="{7710FB1D-B78A-474D-BAB7-6A5EC20FA897}"/>
     <cellStyle name="20% — акцент6 8" xfId="177" xr:uid="{360C7C0A-F217-4E5E-B913-64C90DE866DD}"/>
+    <cellStyle name="20% — акцент6 9" xfId="197" xr:uid="{AA8E63C6-1545-4870-B417-E7B09AF0AD0B}"/>
     <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% — акцент1 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="40% — акцент1 3" xfId="69" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
@@ -2321,6 +2308,7 @@
     <cellStyle name="40% — акцент1 6" xfId="123" xr:uid="{8F1D4210-50C8-452E-9D40-65190494B376}"/>
     <cellStyle name="40% — акцент1 7" xfId="143" xr:uid="{702D5BA7-1A96-4A2C-87B3-BFD6AA9ADDB6}"/>
     <cellStyle name="40% — акцент1 8" xfId="163" xr:uid="{045B0C98-F971-4405-AF93-15E31541827D}"/>
+    <cellStyle name="40% — акцент1 9" xfId="183" xr:uid="{96862EAE-BD92-4C13-9971-A9092B026D9E}"/>
     <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% — акцент2 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
     <cellStyle name="40% — акцент2 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
@@ -2329,6 +2317,7 @@
     <cellStyle name="40% — акцент2 6" xfId="126" xr:uid="{0310C9FB-F485-43F8-B4DE-58D737C27488}"/>
     <cellStyle name="40% — акцент2 7" xfId="146" xr:uid="{04BABF9C-0DAF-4E21-BF9A-03D10C7A3A2C}"/>
     <cellStyle name="40% — акцент2 8" xfId="166" xr:uid="{966E69E3-BE91-4938-BE07-B3C58A2193F8}"/>
+    <cellStyle name="40% — акцент2 9" xfId="186" xr:uid="{70DAFA83-238C-4551-92C6-425A33C8ED4B}"/>
     <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% — акцент3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="40% — акцент3 3" xfId="73" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
@@ -2337,6 +2326,7 @@
     <cellStyle name="40% — акцент3 6" xfId="129" xr:uid="{74FF778B-5A2B-46A8-976A-8F9373669F1F}"/>
     <cellStyle name="40% — акцент3 7" xfId="149" xr:uid="{65407718-50F2-42A1-9DF0-D540766AB786}"/>
     <cellStyle name="40% — акцент3 8" xfId="169" xr:uid="{249B0834-87B4-4702-8CC3-341A6B522029}"/>
+    <cellStyle name="40% — акцент3 9" xfId="189" xr:uid="{AC6B0585-C986-435D-8139-11B934B3DDAE}"/>
     <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% — акцент4 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
     <cellStyle name="40% — акцент4 3" xfId="75" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
@@ -2345,6 +2335,7 @@
     <cellStyle name="40% — акцент4 6" xfId="132" xr:uid="{1B748F86-C340-4D80-BBDB-CF2F2964E643}"/>
     <cellStyle name="40% — акцент4 7" xfId="152" xr:uid="{36B38B69-D4D3-4B35-AB02-34793C280E3B}"/>
     <cellStyle name="40% — акцент4 8" xfId="172" xr:uid="{48804958-C0F7-4761-8EB4-88E81A66B2D5}"/>
+    <cellStyle name="40% — акцент4 9" xfId="192" xr:uid="{17F42D4F-5853-4774-81C2-3C360656426A}"/>
     <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% — акцент5 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
     <cellStyle name="40% — акцент5 3" xfId="77" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
@@ -2353,6 +2344,7 @@
     <cellStyle name="40% — акцент5 6" xfId="135" xr:uid="{4C187E17-E746-4762-B7B2-21C9AA81A74C}"/>
     <cellStyle name="40% — акцент5 7" xfId="155" xr:uid="{904675A9-709F-498C-9082-C72D43294D60}"/>
     <cellStyle name="40% — акцент5 8" xfId="175" xr:uid="{58BA27C0-5BDD-4041-9028-1CDC2A0AE79D}"/>
+    <cellStyle name="40% — акцент5 9" xfId="195" xr:uid="{08C77940-8ADC-454D-A39E-7FB5DC20B9C4}"/>
     <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% — акцент6 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
     <cellStyle name="40% — акцент6 3" xfId="79" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
@@ -2361,6 +2353,7 @@
     <cellStyle name="40% — акцент6 6" xfId="138" xr:uid="{7810E4E9-F6B0-4EB2-BA41-5EE217E54389}"/>
     <cellStyle name="40% — акцент6 7" xfId="158" xr:uid="{9F790017-55FC-432F-A8F2-0FD80CEB85D5}"/>
     <cellStyle name="40% — акцент6 8" xfId="178" xr:uid="{9D46FF57-4511-46C0-A475-E8F756F481AA}"/>
+    <cellStyle name="40% — акцент6 9" xfId="198" xr:uid="{FADD9251-A688-4F0E-9180-406945799E9A}"/>
     <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% — акцент1 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="60% — акцент1 3" xfId="84" xr:uid="{15D2BB41-6FA3-445E-AA64-291A3F296CB1}"/>
@@ -2368,6 +2361,7 @@
     <cellStyle name="60% — акцент1 5" xfId="124" xr:uid="{6947CB81-55D3-4263-A703-BD22F177D5E9}"/>
     <cellStyle name="60% — акцент1 6" xfId="144" xr:uid="{08FDFCCB-A9D7-4BAA-8263-39FBA494C0BC}"/>
     <cellStyle name="60% — акцент1 7" xfId="164" xr:uid="{E1BF74D6-C927-4C99-9D1E-ECC21C64EA24}"/>
+    <cellStyle name="60% — акцент1 8" xfId="184" xr:uid="{DA028283-AA8C-42F8-BD7E-C80DD2E17EE0}"/>
     <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% — акцент2 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="60% — акцент2 3" xfId="87" xr:uid="{A361825B-D69A-4F69-8C86-B0F7128E0EA6}"/>
@@ -2375,6 +2369,7 @@
     <cellStyle name="60% — акцент2 5" xfId="127" xr:uid="{0DD8C917-6323-4515-BDD7-8F94A0ED78CA}"/>
     <cellStyle name="60% — акцент2 6" xfId="147" xr:uid="{BA37D287-3E75-4CCA-95F5-D8BFC3B31177}"/>
     <cellStyle name="60% — акцент2 7" xfId="167" xr:uid="{4978DEEE-FAB6-4C09-AF9F-9799464C5DB4}"/>
+    <cellStyle name="60% — акцент2 8" xfId="187" xr:uid="{60C54A23-BB91-417F-8A79-F6F17958C8EA}"/>
     <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% — акцент3 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
     <cellStyle name="60% — акцент3 3" xfId="90" xr:uid="{58DBACA8-1FE6-4A47-BB21-6FE5F4FCC5A5}"/>
@@ -2382,6 +2377,7 @@
     <cellStyle name="60% — акцент3 5" xfId="130" xr:uid="{59CAD118-DB59-4ADA-A8C5-9A15DE38264B}"/>
     <cellStyle name="60% — акцент3 6" xfId="150" xr:uid="{CECA61F8-EB2B-4B72-A879-0ECFF0EDC23C}"/>
     <cellStyle name="60% — акцент3 7" xfId="170" xr:uid="{0826B3F6-1D13-4781-A165-0653987F3B7F}"/>
+    <cellStyle name="60% — акцент3 8" xfId="190" xr:uid="{166C28C4-C617-484E-8C41-4F0006BEDDFE}"/>
     <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% — акцент4 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
     <cellStyle name="60% — акцент4 3" xfId="93" xr:uid="{DF5DB50A-6EFD-4073-BED4-7890547E0270}"/>
@@ -2389,6 +2385,7 @@
     <cellStyle name="60% — акцент4 5" xfId="133" xr:uid="{9D7AAFD3-ECBC-4763-AB24-A7311794E195}"/>
     <cellStyle name="60% — акцент4 6" xfId="153" xr:uid="{C974F664-B035-4FC7-8DBE-68792BB50D9C}"/>
     <cellStyle name="60% — акцент4 7" xfId="173" xr:uid="{2E0BE9C8-E68E-4B52-AFE0-7A964F0708F9}"/>
+    <cellStyle name="60% — акцент4 8" xfId="193" xr:uid="{CD8B54A7-A673-4971-B375-45219C1F4745}"/>
     <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% — акцент5 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
     <cellStyle name="60% — акцент5 3" xfId="96" xr:uid="{53CFB547-923E-4645-9D18-8113DA0FAA63}"/>
@@ -2396,6 +2393,7 @@
     <cellStyle name="60% — акцент5 5" xfId="136" xr:uid="{B93B336E-17DC-42F5-9B9E-6B21D7532EC7}"/>
     <cellStyle name="60% — акцент5 6" xfId="156" xr:uid="{86E9A897-E685-4CE6-8CFE-D6E325ACE8A8}"/>
     <cellStyle name="60% — акцент5 7" xfId="176" xr:uid="{D2B6A6BB-CBA6-4B5B-A7DD-4E0332950CF9}"/>
+    <cellStyle name="60% — акцент5 8" xfId="196" xr:uid="{F5030005-5DE8-4EA1-84EC-FCDEEC1DB552}"/>
     <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% — акцент6 2" xfId="65" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="60% — акцент6 3" xfId="99" xr:uid="{88B6875E-9822-489A-B86D-29F1E2A4089F}"/>
@@ -2403,6 +2401,7 @@
     <cellStyle name="60% — акцент6 5" xfId="139" xr:uid="{51A8EBBC-232C-4221-A9EA-EDE717402400}"/>
     <cellStyle name="60% — акцент6 6" xfId="159" xr:uid="{A0394859-D295-4C2A-BFCB-A92FDD6D16FA}"/>
     <cellStyle name="60% — акцент6 7" xfId="179" xr:uid="{1AC892AF-1E12-4EB8-A14E-BB10FC3A142E}"/>
+    <cellStyle name="60% — акцент6 8" xfId="199" xr:uid="{5CCFD16B-53D6-4A5C-B901-263BA8761C79}"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -2423,6 +2422,7 @@
     <cellStyle name="Нейтральный 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 10" xfId="160" xr:uid="{4EFCF304-647E-40D3-AC3C-42D724D189F3}"/>
+    <cellStyle name="Обычный 11" xfId="180" xr:uid="{5F9F56FB-AF85-473B-8EDD-883234792B53}"/>
     <cellStyle name="Обычный 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
     <cellStyle name="Обычный 3" xfId="42" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
     <cellStyle name="Обычный 4" xfId="45" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
@@ -2433,6 +2433,7 @@
     <cellStyle name="Обычный 9" xfId="140" xr:uid="{0429715C-C222-4C69-A75C-14C4B90B007A}"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Примечание 10" xfId="181" xr:uid="{C49ED3A5-6E41-426B-B814-E571A7B4CEB8}"/>
     <cellStyle name="Примечание 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
     <cellStyle name="Примечание 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
     <cellStyle name="Примечание 4" xfId="67" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
@@ -2446,7 +2447,7 @@
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="91">
+  <dxfs count="28">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000000"/>
     </dxf>
@@ -2511,214 +2512,25 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.00000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2734,7 +2546,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Andrey" refreshedDate="45342.868680439817" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="31" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Andrey" refreshedDate="45342.992481134257" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="31" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H32" sheet="Автоматизированный расчет"/>
   </cacheSource>
@@ -3102,7 +2914,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица2" cacheId="56" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -3182,25 +2994,25 @@
     <dataField name="Сумма по полю Итого" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="14">
+    <format dxfId="27">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="25">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="24">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="23">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="22">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="21">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -3481,8 +3293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3562,7 +3374,7 @@
         <v>44</v>
       </c>
       <c r="T1" s="54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U1" s="43" t="s">
         <v>42</v>
@@ -4856,14 +4668,14 @@
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="213" t="s">
+      <c r="A36" s="201" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="214"/>
-      <c r="C36" s="215" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="216"/>
+      <c r="B36" s="202"/>
+      <c r="C36" s="203" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="204"/>
     </row>
     <row r="37" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
@@ -4984,11 +4796,11 @@
       </c>
       <c r="H40" s="16">
         <f>VLOOKUP(F40,SummaryReport!A:J,8,FALSE)</f>
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="I40" s="14">
         <f t="shared" si="25"/>
-        <v>-0.18779342723004677</v>
+        <v>9.2141634855880117E-4</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -5182,11 +4994,11 @@
       </c>
       <c r="H46" s="16">
         <f>VLOOKUP(F46,SummaryReport!A:J,8,FALSE)</f>
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="I46" s="14">
         <f t="shared" si="25"/>
-        <v>-0.39146567717996295</v>
+        <v>-1.3351134846462109E-3</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -5248,11 +5060,11 @@
       </c>
       <c r="H48" s="16">
         <f>VLOOKUP(F48,SummaryReport!A:J,8,FALSE)</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I48" s="14">
         <f t="shared" si="25"/>
-        <v>1.7199017199017064E-2</v>
+        <v>-1.3513513513513598E-2</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -5365,7 +5177,7 @@
         <v>Главная Welcome страница</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5374,7 +5186,7 @@
         <v>Вход в систему</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5383,7 +5195,7 @@
         <v>Переход на страницу поиска билетов</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5392,7 +5204,7 @@
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5401,7 +5213,7 @@
         <v xml:space="preserve">Выбор рейса из найденных </v>
       </c>
       <c r="B6" s="172" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5410,7 +5222,7 @@
         <v>Оплата билета</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5419,7 +5231,7 @@
         <v>Просмотр квитанций</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5428,7 +5240,7 @@
         <v xml:space="preserve">Отмена бронирования </v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -5437,7 +5249,7 @@
         <v>Выход из системы</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5446,7 +5258,7 @@
         <v>Перход на страницу регистрации</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5455,7 +5267,7 @@
         <v>Заполнение полей регистарции</v>
       </c>
       <c r="B12" s="172" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -5464,7 +5276,7 @@
         <v>Переход на следуюущий эран после регистарции</v>
       </c>
       <c r="B13" s="172" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5474,10 +5286,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X67"/>
+  <dimension ref="A1:X52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5496,38 +5308,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="183" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="189" t="s">
+      <c r="C1" s="182" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="191" t="s">
+      <c r="D1" s="184" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="189" t="s">
+      <c r="E1" s="182" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="189" t="s">
+      <c r="F1" s="182" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="189" t="s">
+      <c r="G1" s="182" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="191" t="s">
+      <c r="H1" s="184" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="190" t="s">
+      <c r="I1" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="189" t="s">
+      <c r="J1" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="192" t="s">
-        <v>100</v>
+      <c r="K1" s="185" t="s">
+        <v>93</v>
       </c>
       <c r="N1" s="53"/>
       <c r="O1" s="173"/>
@@ -5542,34 +5354,34 @@
       <c r="X1" s="173"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="218" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="218" t="s">
+      <c r="A2" s="206" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="206" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="218">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="D2" s="218">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="E2" s="218">
-        <v>1.9550000000000001</v>
-      </c>
-      <c r="F2" s="218">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="G2" s="218">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="H2" s="218">
-        <v>180</v>
-      </c>
-      <c r="I2" s="218">
-        <v>0</v>
-      </c>
-      <c r="J2" s="218">
+      <c r="C2" s="206">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D2" s="206">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E2" s="206">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F2" s="206">
+        <v>2E-3</v>
+      </c>
+      <c r="G2" s="206">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="H2" s="206">
+        <v>90</v>
+      </c>
+      <c r="I2" s="206">
+        <v>0</v>
+      </c>
+      <c r="J2" s="206">
         <v>0</v>
       </c>
       <c r="N2" s="53"/>
@@ -5585,34 +5397,34 @@
       <c r="X2" s="173"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="218" t="s">
+      <c r="A3" s="206" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="206" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="218">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D3" s="218">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="E3" s="218">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="F3" s="218">
-        <v>2E-3</v>
-      </c>
-      <c r="G3" s="218">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="H3" s="218">
-        <v>90</v>
-      </c>
-      <c r="I3" s="218">
-        <v>0</v>
-      </c>
-      <c r="J3" s="218">
+      <c r="C3" s="206">
+        <v>0.114</v>
+      </c>
+      <c r="D3" s="206">
+        <v>0.12</v>
+      </c>
+      <c r="E3" s="206">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="F3" s="206">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G3" s="206">
+        <v>0.12</v>
+      </c>
+      <c r="H3" s="206">
+        <v>32</v>
+      </c>
+      <c r="I3" s="206">
+        <v>0</v>
+      </c>
+      <c r="J3" s="206">
         <v>0</v>
       </c>
       <c r="N3" s="53"/>
@@ -5628,34 +5440,34 @@
       <c r="X3" s="173"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="218" t="s">
+      <c r="A4" s="206" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="218" t="s">
+      <c r="B4" s="206" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="218">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="D4" s="218">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="E4" s="218">
-        <v>0.15</v>
-      </c>
-      <c r="F4" s="218">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G4" s="218">
-        <v>0.121</v>
-      </c>
-      <c r="H4" s="218">
-        <v>32</v>
-      </c>
-      <c r="I4" s="218">
-        <v>0</v>
-      </c>
-      <c r="J4" s="218">
+      <c r="C4" s="206">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D4" s="206">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E4" s="206">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F4" s="206">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G4" s="206">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H4" s="206">
+        <v>24</v>
+      </c>
+      <c r="I4" s="206">
+        <v>0</v>
+      </c>
+      <c r="J4" s="206">
         <v>0</v>
       </c>
       <c r="N4" s="53"/>
@@ -5671,34 +5483,34 @@
       <c r="X4" s="173"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="218" t="s">
+      <c r="A5" s="206" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="218" t="s">
+      <c r="B5" s="206" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="218">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="D5" s="218">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="E5" s="218">
-        <v>7.8E-2</v>
-      </c>
-      <c r="F5" s="218">
-        <v>0.01</v>
-      </c>
-      <c r="G5" s="218">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="H5" s="218">
-        <v>24</v>
-      </c>
-      <c r="I5" s="218">
-        <v>0</v>
-      </c>
-      <c r="J5" s="218">
+      <c r="C5" s="206">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D5" s="206">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E5" s="206">
+        <v>0.105</v>
+      </c>
+      <c r="F5" s="206">
+        <v>2E-3</v>
+      </c>
+      <c r="G5" s="206">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="H5" s="206">
+        <v>107</v>
+      </c>
+      <c r="I5" s="206">
+        <v>0</v>
+      </c>
+      <c r="J5" s="206">
         <v>0</v>
       </c>
       <c r="N5" s="53"/>
@@ -5714,37 +5526,36 @@
       <c r="X5" s="173"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="218" t="s">
+      <c r="A6" s="206" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="218" t="s">
+      <c r="B6" s="206" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="218">
-        <v>9.4E-2</v>
-      </c>
-      <c r="D6" s="218">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="E6" s="218">
-        <v>0.104</v>
-      </c>
-      <c r="F6" s="218">
+      <c r="C6" s="206">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D6" s="206">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E6" s="206">
+        <v>0.06</v>
+      </c>
+      <c r="F6" s="206">
         <v>2E-3</v>
       </c>
-      <c r="G6" s="218">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="H6" s="218">
-        <v>90</v>
-      </c>
-      <c r="I6" s="218">
-        <v>0</v>
-      </c>
-      <c r="J6" s="218">
-        <v>0</v>
-      </c>
-      <c r="N6" s="53"/>
+      <c r="G6" s="206">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H6" s="206">
+        <v>180</v>
+      </c>
+      <c r="I6" s="206">
+        <v>0</v>
+      </c>
+      <c r="J6" s="206">
+        <v>0</v>
+      </c>
       <c r="O6" s="173"/>
       <c r="P6" s="173"/>
       <c r="Q6" s="173"/>
@@ -5757,34 +5568,34 @@
       <c r="X6" s="173"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="218" t="s">
+      <c r="A7" s="206" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="218" t="s">
+      <c r="B7" s="206" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="218">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="D7" s="218">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="E7" s="218">
-        <v>0.06</v>
-      </c>
-      <c r="F7" s="218">
-        <v>2E-3</v>
-      </c>
-      <c r="G7" s="218">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="H7" s="218">
-        <v>180</v>
-      </c>
-      <c r="I7" s="218">
-        <v>0</v>
-      </c>
-      <c r="J7" s="218">
+      <c r="C7" s="206">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D7" s="206">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="E7" s="206">
+        <v>0.11</v>
+      </c>
+      <c r="F7" s="206">
+        <v>0.01</v>
+      </c>
+      <c r="G7" s="206">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="H7" s="206">
+        <v>148</v>
+      </c>
+      <c r="I7" s="206">
+        <v>0</v>
+      </c>
+      <c r="J7" s="206">
         <v>0</v>
       </c>
       <c r="O7" s="173"/>
@@ -5799,34 +5610,34 @@
       <c r="X7" s="173"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="218" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="218" t="s">
+      <c r="A8" s="206" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="206" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="218">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="D8" s="218">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="E8" s="218">
-        <v>1.4930000000000001</v>
-      </c>
-      <c r="F8" s="218">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="G8" s="218">
-        <v>0.107</v>
-      </c>
-      <c r="H8" s="218">
-        <v>148</v>
-      </c>
-      <c r="I8" s="218">
-        <v>0</v>
-      </c>
-      <c r="J8" s="218">
+      <c r="C8" s="206">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D8" s="206">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E8" s="206">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F8" s="206">
+        <v>2E-3</v>
+      </c>
+      <c r="G8" s="206">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H8" s="206">
+        <v>107</v>
+      </c>
+      <c r="I8" s="206">
+        <v>0</v>
+      </c>
+      <c r="J8" s="206">
         <v>0</v>
       </c>
       <c r="O8" s="173"/>
@@ -5841,34 +5652,34 @@
       <c r="X8" s="173"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="218" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="218" t="s">
+      <c r="A9" s="206" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="206" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="218">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="D9" s="218">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="E9" s="218">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="F9" s="218">
+      <c r="C9" s="206">
+        <v>0.03</v>
+      </c>
+      <c r="D9" s="206">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E9" s="206">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F9" s="206">
         <v>2E-3</v>
       </c>
-      <c r="G9" s="218">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="H9" s="218">
-        <v>77</v>
-      </c>
-      <c r="I9" s="218">
-        <v>0</v>
-      </c>
-      <c r="J9" s="218">
+      <c r="G9" s="206">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H9" s="206">
+        <v>60</v>
+      </c>
+      <c r="I9" s="206">
+        <v>0</v>
+      </c>
+      <c r="J9" s="206">
         <v>0</v>
       </c>
       <c r="O9" s="173"/>
@@ -5883,459 +5694,449 @@
       <c r="X9" s="173"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="218" t="s">
+      <c r="A10" s="206" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="218" t="s">
+      <c r="B10" s="206" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="218">
+      <c r="C10" s="206">
         <v>0.03</v>
       </c>
-      <c r="D10" s="218">
+      <c r="D10" s="206">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="E10" s="218">
+      <c r="E10" s="206">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F10" s="206">
+        <v>2E-3</v>
+      </c>
+      <c r="G10" s="206">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H10" s="206">
+        <v>32</v>
+      </c>
+      <c r="I10" s="206">
+        <v>0</v>
+      </c>
+      <c r="J10" s="206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="206" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="206" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="206">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D11" s="206">
+        <v>0.03</v>
+      </c>
+      <c r="E11" s="206">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F11" s="206">
+        <v>2E-3</v>
+      </c>
+      <c r="G11" s="206">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H11" s="206">
+        <v>32</v>
+      </c>
+      <c r="I11" s="206">
+        <v>0</v>
+      </c>
+      <c r="J11" s="206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="206" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="206" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="206">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D12" s="206">
+        <v>0.153</v>
+      </c>
+      <c r="E12" s="206">
+        <v>0.318</v>
+      </c>
+      <c r="F12" s="206">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G12" s="206">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="H12" s="206">
+        <v>90</v>
+      </c>
+      <c r="I12" s="206">
+        <v>0</v>
+      </c>
+      <c r="J12" s="206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="206" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="206" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="206">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D13" s="206">
+        <v>0.03</v>
+      </c>
+      <c r="E13" s="206">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F13" s="206">
+        <v>2E-3</v>
+      </c>
+      <c r="G13" s="206">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H13" s="206">
+        <v>90</v>
+      </c>
+      <c r="I13" s="206">
+        <v>0</v>
+      </c>
+      <c r="J13" s="206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="179" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="181" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="179" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="179" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="179" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="179" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="179" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="180" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="179" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="181" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="185" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="178" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="177" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="52">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D18" s="52">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E18" s="52">
+        <v>0.09</v>
+      </c>
+      <c r="F18" s="52">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G18" s="52">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="H18" s="52">
+        <v>270</v>
+      </c>
+      <c r="I18" s="52">
+        <v>0</v>
+      </c>
+      <c r="J18" s="176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="178" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="177" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="52">
+        <v>0.114</v>
+      </c>
+      <c r="D19" s="52">
+        <v>0.126</v>
+      </c>
+      <c r="E19" s="52">
+        <v>0.16</v>
+      </c>
+      <c r="F19" s="52">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G19" s="52">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="H19" s="52">
+        <v>98</v>
+      </c>
+      <c r="I19" s="52">
+        <v>0</v>
+      </c>
+      <c r="J19" s="176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="178" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="177" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="52">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D20" s="52">
+        <v>0.03</v>
+      </c>
+      <c r="E20" s="52">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="F10" s="218">
-        <v>2E-3</v>
-      </c>
-      <c r="G10" s="218">
+      <c r="F20" s="52">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G20" s="52">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H10" s="218">
-        <v>60</v>
-      </c>
-      <c r="I10" s="218">
-        <v>0</v>
-      </c>
-      <c r="J10" s="218">
-        <v>0</v>
-      </c>
-      <c r="O10" s="173"/>
-      <c r="P10" s="173"/>
-      <c r="Q10" s="173"/>
-      <c r="R10" s="173"/>
-      <c r="S10" s="173"/>
-      <c r="T10" s="173"/>
-      <c r="U10" s="173"/>
-      <c r="V10" s="173"/>
-      <c r="W10" s="173"/>
-      <c r="X10" s="173"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="218" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="218" t="s">
+      <c r="H20" s="52">
+        <v>71</v>
+      </c>
+      <c r="I20" s="52">
+        <v>0</v>
+      </c>
+      <c r="J20" s="176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="178" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="177" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="218">
-        <v>0.03</v>
-      </c>
-      <c r="D11" s="218">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="E11" s="218">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="F11" s="218">
-        <v>2E-3</v>
-      </c>
-      <c r="G11" s="218">
+      <c r="C21" s="52">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D21" s="52">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="E21" s="52">
+        <v>0.188</v>
+      </c>
+      <c r="F21" s="52">
+        <v>0.01</v>
+      </c>
+      <c r="G21" s="52">
+        <v>0.105</v>
+      </c>
+      <c r="H21" s="52">
+        <v>321</v>
+      </c>
+      <c r="I21" s="52">
+        <v>0</v>
+      </c>
+      <c r="J21" s="176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="178" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="177" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="52">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D22" s="52">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E22" s="52">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F22" s="52">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G22" s="52">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H22" s="52">
+        <v>541</v>
+      </c>
+      <c r="I22" s="52">
+        <v>0</v>
+      </c>
+      <c r="J22" s="176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="192" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="192" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="192">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D23" s="192">
+        <v>0.9</v>
+      </c>
+      <c r="E23" s="192">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F23" s="192">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G23" s="192">
+        <v>0.111</v>
+      </c>
+      <c r="H23" s="192">
+        <v>444</v>
+      </c>
+      <c r="I23" s="192">
+        <v>0</v>
+      </c>
+      <c r="J23" s="192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="178" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="177" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="52">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D24" s="52">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E24" s="52">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="F24" s="52">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G24" s="52">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="H24" s="52">
+        <v>341</v>
+      </c>
+      <c r="I24" s="52">
+        <v>0</v>
+      </c>
+      <c r="J24" s="176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="178" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="177" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="52">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D25" s="52">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="H11" s="218">
-        <v>33</v>
-      </c>
-      <c r="I11" s="218">
-        <v>0</v>
-      </c>
-      <c r="J11" s="218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="218" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="218" t="s">
+      <c r="E25" s="52">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F25" s="52">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G25" s="52">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H25" s="52">
+        <v>180</v>
+      </c>
+      <c r="I25" s="52">
+        <v>0</v>
+      </c>
+      <c r="J25" s="176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="178" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="177" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="218">
+      <c r="C26" s="52">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="D12" s="218">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="E12" s="218">
-        <v>1.6890000000000001</v>
-      </c>
-      <c r="F12" s="218">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="G12" s="218">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="H12" s="218">
-        <v>32</v>
-      </c>
-      <c r="I12" s="218">
-        <v>0</v>
-      </c>
-      <c r="J12" s="218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="218" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="218" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="218">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="D13" s="218">
-        <v>0.153</v>
-      </c>
-      <c r="E13" s="218">
-        <v>0.315</v>
-      </c>
-      <c r="F13" s="218">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="G13" s="218">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="H13" s="218">
-        <v>90</v>
-      </c>
-      <c r="I13" s="218">
-        <v>0</v>
-      </c>
-      <c r="J13" s="218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="218" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="218" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="218">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="D14" s="218">
-        <v>0.03</v>
-      </c>
-      <c r="E14" s="218">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="F14" s="218">
-        <v>1E-3</v>
-      </c>
-      <c r="G14" s="218">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="H14" s="218">
-        <v>90</v>
-      </c>
-      <c r="I14" s="218">
-        <v>0</v>
-      </c>
-      <c r="J14" s="218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="218" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="218">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="D15" s="218">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="E15" s="218">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="F15" s="218">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="G15" s="218">
-        <v>0.498</v>
-      </c>
-      <c r="H15" s="218">
-        <v>17</v>
-      </c>
-      <c r="I15" s="218">
-        <v>0</v>
-      </c>
-      <c r="J15" s="218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="218" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="218" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="218">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="D16" s="218">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="E16" s="218">
-        <v>0.37</v>
-      </c>
-      <c r="F16" s="218">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="G16" s="218">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="H16" s="218">
-        <v>30</v>
-      </c>
-      <c r="I16" s="218">
-        <v>0</v>
-      </c>
-      <c r="J16" s="218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="218" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="218" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="218">
-        <v>0.41</v>
-      </c>
-      <c r="D17" s="218">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="E17" s="218">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="F17" s="218">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="G17" s="218">
-        <v>0.44</v>
-      </c>
-      <c r="H17" s="218">
-        <v>60</v>
-      </c>
-      <c r="I17" s="218">
-        <v>0</v>
-      </c>
-      <c r="J17" s="218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="218" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" s="218" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="218">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="D18" s="218">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="E18" s="218">
-        <v>1.845</v>
-      </c>
-      <c r="F18" s="218">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="G18" s="218">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="H18" s="218">
-        <v>17</v>
-      </c>
-      <c r="I18" s="218">
-        <v>0</v>
-      </c>
-      <c r="J18" s="218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="218" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="218" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="218">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="D19" s="218">
-        <v>0.32</v>
-      </c>
-      <c r="E19" s="218">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="F19" s="218">
-        <v>4.7E-2</v>
-      </c>
-      <c r="G19" s="218">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="H19" s="218">
-        <v>24</v>
-      </c>
-      <c r="I19" s="218">
-        <v>0</v>
-      </c>
-      <c r="J19" s="218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="218" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="218" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="218">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="D20" s="218">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="E20" s="218">
-        <v>1.9550000000000001</v>
-      </c>
-      <c r="F20" s="218">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="G20" s="218">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="H20" s="218">
-        <v>32</v>
-      </c>
-      <c r="I20" s="218">
-        <v>0</v>
-      </c>
-      <c r="J20" s="218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="186" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="188" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="186" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="186" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="186" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="186" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" s="186" t="s">
-        <v>74</v>
-      </c>
-      <c r="H24" s="187" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="186" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="188" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="192" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="182" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="183" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="184">
-        <v>0.219</v>
-      </c>
-      <c r="D25" s="184">
-        <v>0.378</v>
-      </c>
-      <c r="E25" s="184">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="F25" s="184">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="G25" s="184">
-        <v>0.46</v>
-      </c>
-      <c r="H25" s="184">
-        <v>542</v>
-      </c>
-      <c r="I25" s="184">
-        <v>0</v>
-      </c>
-      <c r="J25" s="185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="180" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="179" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="52">
-        <v>7.3999999999999996E-2</v>
-      </c>
       <c r="D26" s="52">
-        <v>7.8E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E26" s="52">
-        <v>0.09</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F26" s="52">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G26" s="52">
-        <v>8.4000000000000005E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="H26" s="52">
-        <v>270</v>
+        <v>98</v>
       </c>
       <c r="I26" s="52">
         <v>0</v>
@@ -6345,26 +6146,26 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="180" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="179" t="s">
+      <c r="A27" s="178" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="177" t="s">
         <v>75</v>
       </c>
       <c r="C27" s="52">
-        <v>0.114</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D27" s="52">
-        <v>0.126</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="E27" s="52">
-        <v>0.16</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="F27" s="52">
-        <v>1.2E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G27" s="52">
-        <v>0.14899999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="H27" s="52">
         <v>98</v>
@@ -6377,1129 +6178,639 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="180" t="s">
+      <c r="A28" s="178" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="177" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="52">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D28" s="52">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="E28" s="52">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="F28" s="52">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G28" s="52">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="H28" s="52">
+        <v>272</v>
+      </c>
+      <c r="I28" s="52">
+        <v>0</v>
+      </c>
+      <c r="J28" s="176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="178" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="177" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="52">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D29" s="52">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E29" s="52">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F29" s="52">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G29" s="52">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H29" s="52">
+        <v>270</v>
+      </c>
+      <c r="I29" s="52">
+        <v>0</v>
+      </c>
+      <c r="J29" s="176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="194" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="198" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="194" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="198" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="194" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="198" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="194" t="s">
+        <v>74</v>
+      </c>
+      <c r="H33" s="198" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="194" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="196" t="s">
+        <v>30</v>
+      </c>
+      <c r="K33" s="186" t="s">
+        <v>94</v>
+      </c>
+      <c r="N33" s="188"/>
+      <c r="O33" s="188"/>
+      <c r="P33" s="188"/>
+      <c r="Q33" s="188"/>
+      <c r="R33" s="188"/>
+      <c r="S33" s="188"/>
+      <c r="T33" s="188"/>
+      <c r="U33" s="188"/>
+      <c r="V33" s="188"/>
+      <c r="W33" s="188"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="195" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="200" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="189">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D34" s="189">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E34" s="189">
+        <v>1.157</v>
+      </c>
+      <c r="F34" s="189">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="G34" s="189">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="H34" s="189">
+        <v>360</v>
+      </c>
+      <c r="I34" s="189">
+        <v>0</v>
+      </c>
+      <c r="J34" s="197">
+        <v>0</v>
+      </c>
+      <c r="N34" s="188"/>
+      <c r="O34" s="188"/>
+      <c r="P34" s="188"/>
+      <c r="Q34" s="188"/>
+      <c r="R34" s="188"/>
+      <c r="S34" s="188"/>
+      <c r="T34" s="188"/>
+      <c r="U34" s="188"/>
+      <c r="V34" s="188"/>
+      <c r="W34" s="188"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="195" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="200" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="189">
+        <v>0.115</v>
+      </c>
+      <c r="D35" s="189">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="E35" s="189">
+        <v>1.712</v>
+      </c>
+      <c r="F35" s="189">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="G35" s="189">
+        <v>0.151</v>
+      </c>
+      <c r="H35" s="189">
+        <v>130</v>
+      </c>
+      <c r="I35" s="189">
+        <v>0</v>
+      </c>
+      <c r="J35" s="197">
+        <v>0</v>
+      </c>
+      <c r="N35" s="188"/>
+      <c r="O35" s="188"/>
+      <c r="P35" s="188"/>
+      <c r="Q35" s="188"/>
+      <c r="R35" s="188"/>
+      <c r="S35" s="188"/>
+      <c r="T35" s="188"/>
+      <c r="U35" s="188"/>
+      <c r="V35" s="188"/>
+      <c r="W35" s="188"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="195" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="200" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="189">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D36" s="189">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E36" s="189">
+        <v>0.08</v>
+      </c>
+      <c r="F36" s="189">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G36" s="189">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="H36" s="189">
+        <v>94</v>
+      </c>
+      <c r="I36" s="189">
+        <v>0</v>
+      </c>
+      <c r="J36" s="197">
+        <v>0</v>
+      </c>
+      <c r="N36" s="188"/>
+      <c r="O36" s="188"/>
+      <c r="P36" s="188"/>
+      <c r="Q36" s="188"/>
+      <c r="R36" s="188"/>
+      <c r="S36" s="188"/>
+      <c r="T36" s="188"/>
+      <c r="U36" s="188"/>
+      <c r="V36" s="188"/>
+      <c r="W36" s="188"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="195" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="179" t="s">
+      <c r="B37" s="200" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="52">
+      <c r="C37" s="189">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D37" s="189">
+        <v>0.1</v>
+      </c>
+      <c r="E37" s="189">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="F37" s="189">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G37" s="189">
+        <v>0.104</v>
+      </c>
+      <c r="H37" s="189">
+        <v>360</v>
+      </c>
+      <c r="I37" s="189">
+        <v>0</v>
+      </c>
+      <c r="J37" s="197">
+        <v>0</v>
+      </c>
+      <c r="N37" s="188"/>
+      <c r="O37" s="188"/>
+      <c r="P37" s="188"/>
+      <c r="Q37" s="188"/>
+      <c r="R37" s="188"/>
+      <c r="S37" s="188"/>
+      <c r="T37" s="188"/>
+      <c r="U37" s="188"/>
+      <c r="V37" s="188"/>
+      <c r="W37" s="188"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="195" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="200" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="189">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D38" s="189">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E38" s="189">
+        <v>1.597</v>
+      </c>
+      <c r="F38" s="189">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G38" s="189">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H38" s="189">
+        <v>721</v>
+      </c>
+      <c r="I38" s="189">
+        <v>0</v>
+      </c>
+      <c r="J38" s="197">
+        <v>0</v>
+      </c>
+      <c r="N38" s="188"/>
+      <c r="O38" s="188"/>
+      <c r="P38" s="188"/>
+      <c r="Q38" s="188"/>
+      <c r="R38" s="188"/>
+      <c r="S38" s="188"/>
+      <c r="T38" s="188"/>
+      <c r="U38" s="188"/>
+      <c r="V38" s="188"/>
+      <c r="W38" s="188"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="195" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="200" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="189">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D39" s="189">
+        <v>0.107</v>
+      </c>
+      <c r="E39" s="189">
+        <v>1.845</v>
+      </c>
+      <c r="F39" s="189">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="G39" s="189">
+        <v>0.108</v>
+      </c>
+      <c r="H39" s="189">
+        <v>591</v>
+      </c>
+      <c r="I39" s="189">
+        <v>0</v>
+      </c>
+      <c r="J39" s="197">
+        <v>0</v>
+      </c>
+      <c r="N39" s="188"/>
+      <c r="O39" s="188"/>
+      <c r="P39" s="188"/>
+      <c r="Q39" s="188"/>
+      <c r="R39" s="188"/>
+      <c r="S39" s="188"/>
+      <c r="T39" s="188"/>
+      <c r="U39" s="188"/>
+      <c r="V39" s="188"/>
+      <c r="W39" s="188"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="195" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="200" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="189">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D40" s="189">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E40" s="189">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F40" s="189">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G40" s="189">
+        <v>0.06</v>
+      </c>
+      <c r="H40" s="189">
+        <v>308</v>
+      </c>
+      <c r="I40" s="189">
+        <v>0</v>
+      </c>
+      <c r="J40" s="197">
+        <v>0</v>
+      </c>
+      <c r="N40" s="188"/>
+      <c r="O40" s="188"/>
+      <c r="P40" s="188"/>
+      <c r="Q40" s="188"/>
+      <c r="R40" s="188"/>
+      <c r="S40" s="188"/>
+      <c r="T40" s="188"/>
+      <c r="U40" s="188"/>
+      <c r="V40" s="188"/>
+      <c r="W40" s="188"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="195" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="200" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="189">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D41" s="189">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E41" s="189">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F41" s="189">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G41" s="189">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H41" s="189">
+        <v>240</v>
+      </c>
+      <c r="I41" s="189">
+        <v>0</v>
+      </c>
+      <c r="J41" s="197">
+        <v>0</v>
+      </c>
+      <c r="N41" s="188"/>
+      <c r="O41" s="188"/>
+      <c r="P41" s="188"/>
+      <c r="Q41" s="188"/>
+      <c r="R41" s="188"/>
+      <c r="S41" s="188"/>
+      <c r="T41" s="188"/>
+      <c r="U41" s="188"/>
+      <c r="V41" s="188"/>
+      <c r="W41" s="188"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" s="195" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="200" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="189">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D42" s="189">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E42" s="189">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F42" s="189">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G42" s="189">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H42" s="189">
+        <v>130</v>
+      </c>
+      <c r="I42" s="189">
+        <v>0</v>
+      </c>
+      <c r="J42" s="197">
+        <v>0</v>
+      </c>
+      <c r="N42" s="188"/>
+      <c r="O42" s="188"/>
+      <c r="P42" s="188"/>
+      <c r="Q42" s="188"/>
+      <c r="R42" s="188"/>
+      <c r="S42" s="188"/>
+      <c r="T42" s="188"/>
+      <c r="U42" s="188"/>
+      <c r="V42" s="188"/>
+      <c r="W42" s="188"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="195" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="200" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="189">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="D28" s="52">
-        <v>0.03</v>
-      </c>
-      <c r="E28" s="52">
+      <c r="D43" s="189">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E43" s="189">
+        <v>0.114</v>
+      </c>
+      <c r="F43" s="189">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G43" s="189">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="F28" s="52">
+      <c r="H43" s="189">
+        <v>130</v>
+      </c>
+      <c r="I43" s="189">
+        <v>0</v>
+      </c>
+      <c r="J43" s="197">
+        <v>0</v>
+      </c>
+      <c r="N43" s="188"/>
+      <c r="O43" s="188"/>
+      <c r="P43" s="188"/>
+      <c r="Q43" s="188"/>
+      <c r="R43" s="188"/>
+      <c r="S43" s="188"/>
+      <c r="T43" s="188"/>
+      <c r="U43" s="188"/>
+      <c r="V43" s="188"/>
+      <c r="W43" s="188"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="195" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="200" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="189">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="D44" s="189">
+        <v>0.192</v>
+      </c>
+      <c r="E44" s="189">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="F44" s="189">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="G44" s="189">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="H44" s="189">
+        <v>231</v>
+      </c>
+      <c r="I44" s="189">
+        <v>0</v>
+      </c>
+      <c r="J44" s="197">
+        <v>0</v>
+      </c>
+      <c r="N44" s="188"/>
+      <c r="O44" s="188"/>
+      <c r="P44" s="188"/>
+      <c r="Q44" s="188"/>
+      <c r="R44" s="188"/>
+      <c r="S44" s="188"/>
+      <c r="T44" s="188"/>
+      <c r="U44" s="188"/>
+      <c r="V44" s="188"/>
+      <c r="W44" s="188"/>
+    </row>
+    <row r="45" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="190" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="199" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="193">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D45" s="193">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E45" s="193">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F45" s="193">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G28" s="52">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="H28" s="52">
-        <v>71</v>
-      </c>
-      <c r="I28" s="52">
-        <v>0</v>
-      </c>
-      <c r="J28" s="176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="180" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="179" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="52">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D29" s="52">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="E29" s="52">
-        <v>0.188</v>
-      </c>
-      <c r="F29" s="52">
-        <v>0.01</v>
-      </c>
-      <c r="G29" s="52">
-        <v>0.105</v>
-      </c>
-      <c r="H29" s="52">
-        <v>321</v>
-      </c>
-      <c r="I29" s="52">
-        <v>0</v>
-      </c>
-      <c r="J29" s="176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="180" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="179" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="52">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="D30" s="52">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="E30" s="52">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="F30" s="52">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G30" s="52">
-        <v>6.3E-2</v>
-      </c>
-      <c r="H30" s="52">
-        <v>541</v>
-      </c>
-      <c r="I30" s="52">
-        <v>0</v>
-      </c>
-      <c r="J30" s="176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="200" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" s="200" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="200">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="D31" s="200">
-        <v>0.9</v>
-      </c>
-      <c r="E31" s="200">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="F31" s="200">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="G31" s="200">
-        <v>0.111</v>
-      </c>
-      <c r="H31" s="200">
-        <v>444</v>
-      </c>
-      <c r="I31" s="200">
-        <v>0</v>
-      </c>
-      <c r="J31" s="200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="180" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="179" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="52">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="D32" s="52">
-        <v>5.5E-2</v>
-      </c>
-      <c r="E32" s="52">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="F32" s="52">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G32" s="52">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="H32" s="52">
-        <v>341</v>
-      </c>
-      <c r="I32" s="52">
-        <v>0</v>
-      </c>
-      <c r="J32" s="176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="180" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="179" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="52">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="D33" s="52">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="E33" s="52">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F33" s="52">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G33" s="52">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="H33" s="52">
-        <v>180</v>
-      </c>
-      <c r="I33" s="52">
-        <v>0</v>
-      </c>
-      <c r="J33" s="176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="180" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="179" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="52">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="D34" s="52">
+      <c r="G45" s="193">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="E34" s="52">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="F34" s="52">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G34" s="52">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="H34" s="52">
-        <v>98</v>
-      </c>
-      <c r="I34" s="52">
-        <v>0</v>
-      </c>
-      <c r="J34" s="176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="180" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="179" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="52">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="D35" s="52">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="E35" s="52">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F35" s="52">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G35" s="52">
-        <v>0.04</v>
-      </c>
-      <c r="H35" s="52">
-        <v>98</v>
-      </c>
-      <c r="I35" s="52">
-        <v>0</v>
-      </c>
-      <c r="J35" s="176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="180" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" s="179" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="52">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="D36" s="52">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="E36" s="52">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="F36" s="52">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="G36" s="52">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="H36" s="52">
-        <v>272</v>
-      </c>
-      <c r="I36" s="52">
-        <v>0</v>
-      </c>
-      <c r="J36" s="176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="180" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="179" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="52">
-        <v>2.7E-2</v>
-      </c>
-      <c r="D37" s="52">
-        <v>3.1E-2</v>
-      </c>
-      <c r="E37" s="52">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="F37" s="52">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G37" s="52">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="H37" s="52">
-        <v>270</v>
-      </c>
-      <c r="I37" s="52">
-        <v>0</v>
-      </c>
-      <c r="J37" s="176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="180" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="179" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="52">
-        <v>0.219</v>
-      </c>
-      <c r="D38" s="52">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="E38" s="52">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="F38" s="52">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G38" s="52">
-        <v>0.27</v>
-      </c>
-      <c r="H38" s="52">
-        <v>52</v>
-      </c>
-      <c r="I38" s="52">
-        <v>0</v>
-      </c>
-      <c r="J38" s="176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="180" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" s="179" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="52">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="D39" s="52">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="E39" s="52">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="F39" s="52">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="G39" s="52">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="H39" s="52">
-        <v>180</v>
-      </c>
-      <c r="I39" s="52">
-        <v>0</v>
-      </c>
-      <c r="J39" s="176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="180" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="179" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="52">
-        <v>0.373</v>
-      </c>
-      <c r="D40" s="52">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="E40" s="52">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="F40" s="52">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G40" s="52">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="H40" s="52">
-        <v>90</v>
-      </c>
-      <c r="I40" s="52">
-        <v>0</v>
-      </c>
-      <c r="J40" s="176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="180" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41" s="179" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="52">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="D41" s="52">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="E41" s="52">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="F41" s="52">
-        <v>2.3E-2</v>
-      </c>
-      <c r="G41" s="52">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="H41" s="52">
-        <v>51</v>
-      </c>
-      <c r="I41" s="52">
-        <v>0</v>
-      </c>
-      <c r="J41" s="176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="180" t="s">
-        <v>97</v>
-      </c>
-      <c r="B42" s="179" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="52">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="D42" s="52">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="E42" s="52">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="F42" s="52">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="G42" s="52">
-        <v>0.373</v>
-      </c>
-      <c r="H42" s="52">
-        <v>71</v>
-      </c>
-      <c r="I42" s="52">
-        <v>0</v>
-      </c>
-      <c r="J42" s="176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="181" t="s">
-        <v>98</v>
-      </c>
-      <c r="B43" s="193" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="177">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D43" s="177">
-        <v>0.33</v>
-      </c>
-      <c r="E43" s="177">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="F43" s="177">
-        <v>1.9E-2</v>
-      </c>
-      <c r="G43" s="177">
-        <v>0.36</v>
-      </c>
-      <c r="H43" s="177">
-        <v>98</v>
-      </c>
-      <c r="I43" s="177">
-        <v>0</v>
-      </c>
-      <c r="J43" s="178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="202" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="207" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="202" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" s="207" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" s="202" t="s">
-        <v>72</v>
-      </c>
-      <c r="F47" s="207" t="s">
-        <v>73</v>
-      </c>
-      <c r="G47" s="202" t="s">
-        <v>74</v>
-      </c>
-      <c r="H47" s="207" t="s">
-        <v>28</v>
-      </c>
-      <c r="I47" s="202" t="s">
-        <v>29</v>
-      </c>
-      <c r="J47" s="204" t="s">
-        <v>30</v>
-      </c>
-      <c r="K47" s="194" t="s">
-        <v>101</v>
-      </c>
-      <c r="N47" s="196"/>
-      <c r="O47" s="196"/>
-      <c r="P47" s="196"/>
-      <c r="Q47" s="196"/>
-      <c r="R47" s="196"/>
-      <c r="S47" s="196"/>
-      <c r="T47" s="196"/>
-      <c r="U47" s="196"/>
-      <c r="V47" s="196"/>
-      <c r="W47" s="196"/>
+      <c r="H45" s="193">
+        <v>360</v>
+      </c>
+      <c r="I45" s="193">
+        <v>0</v>
+      </c>
+      <c r="J45" s="191">
+        <v>0</v>
+      </c>
+      <c r="N45" s="188"/>
+      <c r="O45" s="188"/>
+      <c r="P45" s="188"/>
+      <c r="Q45" s="188"/>
+      <c r="R45" s="188"/>
+      <c r="S45" s="188"/>
+      <c r="T45" s="188"/>
+      <c r="U45" s="188"/>
+      <c r="V45" s="188"/>
+      <c r="W45" s="188"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="H47" s="11"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="212" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" s="210" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="208">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="D48" s="208">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="E48" s="208">
-        <v>2.2069999999999999</v>
-      </c>
-      <c r="F48" s="208">
-        <v>0.219</v>
-      </c>
-      <c r="G48" s="208">
-        <v>0.49</v>
-      </c>
-      <c r="H48" s="208">
-        <v>720</v>
-      </c>
-      <c r="I48" s="208">
-        <v>0</v>
-      </c>
-      <c r="J48" s="205">
-        <v>0</v>
-      </c>
-      <c r="N48" s="196"/>
-      <c r="O48" s="196"/>
-      <c r="P48" s="196"/>
-      <c r="Q48" s="196"/>
-      <c r="R48" s="196"/>
-      <c r="S48" s="196"/>
-      <c r="T48" s="196"/>
-      <c r="U48" s="196"/>
-      <c r="V48" s="196"/>
-      <c r="W48" s="196"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A49" s="203" t="s">
-        <v>81</v>
-      </c>
-      <c r="B49" s="211" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" s="197">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D49" s="197">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="E49" s="197">
-        <v>1.157</v>
-      </c>
-      <c r="F49" s="197">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="G49" s="197">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="H49" s="197">
-        <v>360</v>
-      </c>
-      <c r="I49" s="197">
-        <v>0</v>
-      </c>
-      <c r="J49" s="206">
-        <v>0</v>
-      </c>
-      <c r="N49" s="196"/>
-      <c r="O49" s="196"/>
-      <c r="P49" s="196"/>
-      <c r="Q49" s="196"/>
-      <c r="R49" s="196"/>
-      <c r="S49" s="196"/>
-      <c r="T49" s="196"/>
-      <c r="U49" s="196"/>
-      <c r="V49" s="196"/>
-      <c r="W49" s="196"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A50" s="203" t="s">
-        <v>82</v>
-      </c>
-      <c r="B50" s="211" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="197">
-        <v>0.115</v>
-      </c>
-      <c r="D50" s="197">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="E50" s="197">
-        <v>1.712</v>
-      </c>
-      <c r="F50" s="197">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="G50" s="197">
-        <v>0.151</v>
-      </c>
-      <c r="H50" s="197">
-        <v>130</v>
-      </c>
-      <c r="I50" s="197">
-        <v>0</v>
-      </c>
-      <c r="J50" s="206">
-        <v>0</v>
-      </c>
-      <c r="N50" s="196"/>
-      <c r="O50" s="196"/>
-      <c r="P50" s="196"/>
-      <c r="Q50" s="196"/>
-      <c r="R50" s="196"/>
-      <c r="S50" s="196"/>
-      <c r="T50" s="196"/>
-      <c r="U50" s="196"/>
-      <c r="V50" s="196"/>
-      <c r="W50" s="196"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" s="203" t="s">
-        <v>83</v>
-      </c>
-      <c r="B51" s="211" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" s="197">
-        <v>5.5E-2</v>
-      </c>
-      <c r="D51" s="197">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="E51" s="197">
-        <v>0.08</v>
-      </c>
-      <c r="F51" s="197">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G51" s="197">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="H51" s="197">
-        <v>94</v>
-      </c>
-      <c r="I51" s="197">
-        <v>0</v>
-      </c>
-      <c r="J51" s="206">
-        <v>0</v>
-      </c>
-      <c r="N51" s="196"/>
-      <c r="O51" s="196"/>
-      <c r="P51" s="196"/>
-      <c r="Q51" s="196"/>
-      <c r="R51" s="196"/>
-      <c r="S51" s="196"/>
-      <c r="T51" s="196"/>
-      <c r="U51" s="196"/>
-      <c r="V51" s="196"/>
-      <c r="W51" s="196"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A52" s="203" t="s">
-        <v>84</v>
-      </c>
-      <c r="B52" s="211" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="197">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="D52" s="197">
-        <v>0.1</v>
-      </c>
-      <c r="E52" s="197">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="F52" s="197">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="G52" s="197">
-        <v>0.104</v>
-      </c>
-      <c r="H52" s="197">
-        <v>360</v>
-      </c>
-      <c r="I52" s="197">
-        <v>0</v>
-      </c>
-      <c r="J52" s="206">
-        <v>0</v>
-      </c>
-      <c r="N52" s="196"/>
-      <c r="O52" s="196"/>
-      <c r="P52" s="196"/>
-      <c r="Q52" s="196"/>
-      <c r="R52" s="196"/>
-      <c r="S52" s="196"/>
-      <c r="T52" s="196"/>
-      <c r="U52" s="196"/>
-      <c r="V52" s="196"/>
-      <c r="W52" s="196"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A53" s="203" t="s">
-        <v>85</v>
-      </c>
-      <c r="B53" s="211" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="197">
-        <v>4.7E-2</v>
-      </c>
-      <c r="D53" s="197">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="E53" s="197">
-        <v>1.597</v>
-      </c>
-      <c r="F53" s="197">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="G53" s="197">
-        <v>6.3E-2</v>
-      </c>
-      <c r="H53" s="197">
-        <v>721</v>
-      </c>
-      <c r="I53" s="197">
-        <v>0</v>
-      </c>
-      <c r="J53" s="206">
-        <v>0</v>
-      </c>
-      <c r="N53" s="196"/>
-      <c r="O53" s="196"/>
-      <c r="P53" s="196"/>
-      <c r="Q53" s="196"/>
-      <c r="R53" s="196"/>
-      <c r="S53" s="196"/>
-      <c r="T53" s="196"/>
-      <c r="U53" s="196"/>
-      <c r="V53" s="196"/>
-      <c r="W53" s="196"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A54" s="203" t="s">
-        <v>86</v>
-      </c>
-      <c r="B54" s="211" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="197">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="D54" s="197">
-        <v>0.107</v>
-      </c>
-      <c r="E54" s="197">
-        <v>1.845</v>
-      </c>
-      <c r="F54" s="197">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="G54" s="197">
-        <v>0.108</v>
-      </c>
-      <c r="H54" s="197">
-        <v>591</v>
-      </c>
-      <c r="I54" s="197">
-        <v>0</v>
-      </c>
-      <c r="J54" s="206">
-        <v>0</v>
-      </c>
-      <c r="N54" s="196"/>
-      <c r="O54" s="196"/>
-      <c r="P54" s="196"/>
-      <c r="Q54" s="196"/>
-      <c r="R54" s="196"/>
-      <c r="S54" s="196"/>
-      <c r="T54" s="196"/>
-      <c r="U54" s="196"/>
-      <c r="V54" s="196"/>
-      <c r="W54" s="196"/>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A55" s="203" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" s="211" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="197">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="D55" s="197">
-        <v>5.5E-2</v>
-      </c>
-      <c r="E55" s="197">
-        <v>6.3E-2</v>
-      </c>
-      <c r="F55" s="197">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G55" s="197">
-        <v>0.06</v>
-      </c>
-      <c r="H55" s="197">
-        <v>308</v>
-      </c>
-      <c r="I55" s="197">
-        <v>0</v>
-      </c>
-      <c r="J55" s="206">
-        <v>0</v>
-      </c>
-      <c r="N55" s="196"/>
-      <c r="O55" s="196"/>
-      <c r="P55" s="196"/>
-      <c r="Q55" s="196"/>
-      <c r="R55" s="196"/>
-      <c r="S55" s="196"/>
-      <c r="T55" s="196"/>
-      <c r="U55" s="196"/>
-      <c r="V55" s="196"/>
-      <c r="W55" s="196"/>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A56" s="203" t="s">
-        <v>88</v>
-      </c>
-      <c r="B56" s="211" t="s">
-        <v>75</v>
-      </c>
-      <c r="C56" s="197">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="D56" s="197">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E56" s="197">
-        <v>4.7E-2</v>
-      </c>
-      <c r="F56" s="197">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G56" s="197">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="H56" s="197">
-        <v>240</v>
-      </c>
-      <c r="I56" s="197">
-        <v>0</v>
-      </c>
-      <c r="J56" s="206">
-        <v>0</v>
-      </c>
-      <c r="N56" s="196"/>
-      <c r="O56" s="196"/>
-      <c r="P56" s="196"/>
-      <c r="Q56" s="196"/>
-      <c r="R56" s="196"/>
-      <c r="S56" s="196"/>
-      <c r="T56" s="196"/>
-      <c r="U56" s="196"/>
-      <c r="V56" s="196"/>
-      <c r="W56" s="196"/>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A57" s="203" t="s">
-        <v>89</v>
-      </c>
-      <c r="B57" s="211" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" s="197">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="D57" s="197">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E57" s="197">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="F57" s="197">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G57" s="197">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="H57" s="197">
-        <v>130</v>
-      </c>
-      <c r="I57" s="197">
-        <v>0</v>
-      </c>
-      <c r="J57" s="206">
-        <v>0</v>
-      </c>
-      <c r="N57" s="196"/>
-      <c r="O57" s="196"/>
-      <c r="P57" s="196"/>
-      <c r="Q57" s="196"/>
-      <c r="R57" s="196"/>
-      <c r="S57" s="196"/>
-      <c r="T57" s="196"/>
-      <c r="U57" s="196"/>
-      <c r="V57" s="196"/>
-      <c r="W57" s="196"/>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A58" s="203" t="s">
-        <v>90</v>
-      </c>
-      <c r="B58" s="211" t="s">
-        <v>75</v>
-      </c>
-      <c r="C58" s="197">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="D58" s="197">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="E58" s="197">
-        <v>0.114</v>
-      </c>
-      <c r="F58" s="197">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="G58" s="197">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="H58" s="197">
-        <v>130</v>
-      </c>
-      <c r="I58" s="197">
-        <v>0</v>
-      </c>
-      <c r="J58" s="206">
-        <v>0</v>
-      </c>
-      <c r="N58" s="196"/>
-      <c r="O58" s="196"/>
-      <c r="P58" s="196"/>
-      <c r="Q58" s="196"/>
-      <c r="R58" s="196"/>
-      <c r="S58" s="196"/>
-      <c r="T58" s="196"/>
-      <c r="U58" s="196"/>
-      <c r="V58" s="196"/>
-      <c r="W58" s="196"/>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A59" s="203" t="s">
-        <v>91</v>
-      </c>
-      <c r="B59" s="211" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" s="197">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="D59" s="197">
-        <v>0.192</v>
-      </c>
-      <c r="E59" s="197">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="F59" s="197">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="G59" s="197">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="H59" s="197">
-        <v>231</v>
-      </c>
-      <c r="I59" s="197">
-        <v>0</v>
-      </c>
-      <c r="J59" s="206">
-        <v>0</v>
-      </c>
-      <c r="N59" s="196"/>
-      <c r="O59" s="196"/>
-      <c r="P59" s="196"/>
-      <c r="Q59" s="196"/>
-      <c r="R59" s="196"/>
-      <c r="S59" s="196"/>
-      <c r="T59" s="196"/>
-      <c r="U59" s="196"/>
-      <c r="V59" s="196"/>
-      <c r="W59" s="196"/>
-    </row>
-    <row r="60" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="198" t="s">
-        <v>92</v>
-      </c>
-      <c r="B60" s="209" t="s">
-        <v>75</v>
-      </c>
-      <c r="C60" s="201">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="D60" s="201">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="E60" s="201">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="F60" s="201">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G60" s="201">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="H60" s="201">
-        <v>360</v>
-      </c>
-      <c r="I60" s="201">
-        <v>0</v>
-      </c>
-      <c r="J60" s="199">
-        <v>0</v>
-      </c>
-      <c r="N60" s="196"/>
-      <c r="O60" s="196"/>
-      <c r="P60" s="196"/>
-      <c r="Q60" s="196"/>
-      <c r="R60" s="196"/>
-      <c r="S60" s="196"/>
-      <c r="T60" s="196"/>
-      <c r="U60" s="196"/>
-      <c r="V60" s="196"/>
-      <c r="W60" s="196"/>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H61" s="11"/>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H62" s="11"/>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H63" s="11"/>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H64" s="11"/>
-    </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H65" s="11"/>
-    </row>
-    <row r="66" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H66" s="11"/>
-    </row>
-    <row r="67" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H67" s="11"/>
+      <c r="H48" s="11"/>
+    </row>
+    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H49" s="11"/>
+    </row>
+    <row r="50" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H50" s="11"/>
+    </row>
+    <row r="51" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H51" s="11"/>
+    </row>
+    <row r="52" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H52" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7510,8 +6821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B8:AB58"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7526,13 +6837,13 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="217" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="217"/>
-      <c r="D8" s="217"/>
-      <c r="E8" s="217"/>
-      <c r="F8" s="217"/>
+      <c r="B8" s="205" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="205"/>
+      <c r="D8" s="205"/>
+      <c r="E8" s="205"/>
+      <c r="F8" s="205"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
@@ -7558,12 +6869,12 @@
       <c r="C11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="195">
+      <c r="D11" s="187">
         <f>'Автоматизированный расчет'!G39*3*4</f>
         <v>1770.8841282992071</v>
       </c>
       <c r="E11" s="3">
-        <f>SummaryReport!H54 * 3</f>
+        <f>SummaryReport!H39 * 3</f>
         <v>1773</v>
       </c>
       <c r="F11" s="5">
@@ -7578,12 +6889,12 @@
       <c r="C12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="195">
+      <c r="D12" s="187">
         <f>'Автоматизированный расчет'!G41*3 *4</f>
         <v>1080</v>
       </c>
       <c r="E12" s="3">
-        <f>SummaryReport!H60 *3</f>
+        <f>SummaryReport!H45 *3</f>
         <v>1080</v>
       </c>
       <c r="F12" s="5">
@@ -7598,12 +6909,12 @@
       <c r="C13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="195">
+      <c r="D13" s="187">
         <f>'Автоматизированный расчет'!G42*3*4</f>
         <v>1080</v>
       </c>
       <c r="E13" s="3">
-        <f>SummaryReport!H49*3</f>
+        <f>SummaryReport!H34*3</f>
         <v>1080</v>
       </c>
       <c r="F13" s="5">
@@ -7618,12 +6929,12 @@
       <c r="C14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="195">
+      <c r="D14" s="187">
         <f>'Автоматизированный расчет'!G43*3*4</f>
         <v>720</v>
       </c>
       <c r="E14" s="3">
-        <f>SummaryReport!H56*3</f>
+        <f>SummaryReport!H41*3</f>
         <v>720</v>
       </c>
       <c r="F14" s="1">
@@ -7638,12 +6949,12 @@
       <c r="C15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="195">
+      <c r="D15" s="187">
         <f>'Автоматизированный расчет'!G44*3*4</f>
         <v>1080.0733174883962</v>
       </c>
       <c r="E15" s="3">
-        <f>SummaryReport!H59*3</f>
+        <f>SummaryReport!H44*3</f>
         <v>693</v>
       </c>
       <c r="F15" s="5">
@@ -7658,12 +6969,12 @@
       <c r="C16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="195">
+      <c r="D16" s="187">
         <f>'Автоматизированный расчет'!G45*3*4</f>
         <v>282.35294117647061</v>
       </c>
       <c r="E16" s="3">
-        <f>SummaryReport!H51 *3</f>
+        <f>SummaryReport!H36 *3</f>
         <v>282</v>
       </c>
       <c r="F16" s="5">
@@ -7678,12 +6989,12 @@
       <c r="C17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="195">
+      <c r="D17" s="187">
         <f>'Автоматизированный расчет'!G46*3*4</f>
         <v>1285.7142857142858</v>
       </c>
       <c r="E17" s="3">
-        <f>SummaryReport!H55 * 3</f>
+        <f>SummaryReport!H40 * 3</f>
         <v>924</v>
       </c>
       <c r="F17" s="5">
@@ -7698,13 +7009,13 @@
       </c>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B20" s="217" t="s">
+      <c r="B20" s="205" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="217"/>
-      <c r="D20" s="217"/>
-      <c r="E20" s="217"/>
-      <c r="F20" s="217"/>
+      <c r="C20" s="205"/>
+      <c r="D20" s="205"/>
+      <c r="E20" s="205"/>
+      <c r="F20" s="205"/>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
@@ -7743,7 +7054,7 @@
         <v>442.72103207480177</v>
       </c>
       <c r="E23" s="3">
-        <f>SummaryReport!H31</f>
+        <f>SummaryReport!H23</f>
         <v>444</v>
       </c>
       <c r="F23" s="5">
@@ -7781,7 +7092,7 @@
         <v>270</v>
       </c>
       <c r="E24" s="3">
-        <f>SummaryReport!H37</f>
+        <f>SummaryReport!H29</f>
         <v>270</v>
       </c>
       <c r="F24" s="5">
@@ -7819,7 +7130,7 @@
         <v>270</v>
       </c>
       <c r="E25" s="3">
-        <f>SummaryReport!H26</f>
+        <f>SummaryReport!H18</f>
         <v>270</v>
       </c>
       <c r="F25" s="5">
@@ -7894,7 +7205,7 @@
         <v>270.01832937209906</v>
       </c>
       <c r="E27" s="3">
-        <f>SummaryReport!H36</f>
+        <f>SummaryReport!H28</f>
         <v>272</v>
       </c>
       <c r="F27" s="5">
@@ -7969,7 +7280,7 @@
         <v>321.42857142857144</v>
       </c>
       <c r="E29" s="3">
-        <f>SummaryReport!H32</f>
+        <f>SummaryReport!H24</f>
         <v>341</v>
       </c>
       <c r="F29" s="5">

--- a/Documents/WebTours_Профиль_нагрузки.xlsx
+++ b/Documents/WebTours_Профиль_нагрузки.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey.Home-PC\LoadRunner_WebTours\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634E9759-99E5-4140-B799-BB2F48889A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF8A5AF-9778-4B6D-9664-83BF2456D0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -221,26 +221,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="86">
   <si>
     <t>Вход в систему</t>
   </si>
   <si>
-    <t>Заполнение полей для поиска билета</t>
-  </si>
-  <si>
-    <t>Выбор рейса из найденных</t>
-  </si>
-  <si>
     <t>Оплата билета</t>
   </si>
   <si>
     <t>Просмотр квитанций</t>
   </si>
   <si>
-    <t>Отмена бронирования билета</t>
-  </si>
-  <si>
     <t>Выход из системы</t>
   </si>
   <si>
@@ -280,28 +271,7 @@
     <t>% отклонения</t>
   </si>
   <si>
-    <t>payment_details</t>
-  </si>
-  <si>
-    <t>Просмотр квитанции</t>
-  </si>
-  <si>
-    <t>Cancel_reservation</t>
-  </si>
-  <si>
-    <t>Check_ticket</t>
-  </si>
-  <si>
-    <t>fing_flight</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
     <t>logout</t>
-  </si>
-  <si>
-    <t>select_ticket</t>
   </si>
   <si>
     <t>Transaction Name</t>
@@ -515,12 +485,28 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -662,14 +648,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -833,6 +811,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="47">
@@ -1100,7 +1085,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1720,19 +1705,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -1756,11 +1728,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -1769,7 +1741,83 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -1782,87 +1830,127 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="200">
+  <cellStyleXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1984,28 +2072,9 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2014,7 +2083,7 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="38" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2022,23 +2091,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2058,30 +2127,30 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="66"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="38" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="66"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="39" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2196,38 +2265,25 @@
     <xf numFmtId="2" fontId="0" fillId="42" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="42" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="80" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="80"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="80" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="100"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="80" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="80"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="80" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="100"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="80" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="80" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="80" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" xfId="80" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="120"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="140" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="140" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="140" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="140"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="140" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="140" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="140" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="140" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="140" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="140" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="140" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="140" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="80" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="80" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="80" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="80" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="120"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="140" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="140" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="140" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="180"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="200"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2243,10 +2299,82 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="180"/>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="80" applyBorder="1"/>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="80" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="55" xfId="80" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="41" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="200" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="220"/>
   </cellXfs>
-  <cellStyles count="200">
+  <cellStyles count="240">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент1 10" xfId="202" xr:uid="{F7776260-1898-48DB-802E-9FEDD9D01718}"/>
+    <cellStyle name="20% — акцент1 11" xfId="222" xr:uid="{4B0CDA34-DB37-41E2-923C-6E015416D492}"/>
     <cellStyle name="20% — акцент1 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% — акцент1 3" xfId="68" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="20% — акцент1 4" xfId="82" xr:uid="{41AA1822-D324-49C3-B855-FF8EB70AED6C}"/>
@@ -2256,6 +2384,8 @@
     <cellStyle name="20% — акцент1 8" xfId="162" xr:uid="{531F3ECC-AEEC-43A7-83C2-A88BEEB09AD7}"/>
     <cellStyle name="20% — акцент1 9" xfId="182" xr:uid="{E5F5934F-C853-4ADA-B22F-FB6FCF114392}"/>
     <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2 10" xfId="205" xr:uid="{9D89C596-6FEB-4852-8017-32FCF7F27D78}"/>
+    <cellStyle name="20% — акцент2 11" xfId="225" xr:uid="{B379AFA2-CD5E-4EB4-8DE6-9D2F2E90C414}"/>
     <cellStyle name="20% — акцент2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="20% — акцент2 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="20% — акцент2 4" xfId="85" xr:uid="{0C221A5A-E1F1-4FCC-8B64-67E65C9F10D4}"/>
@@ -2265,6 +2395,8 @@
     <cellStyle name="20% — акцент2 8" xfId="165" xr:uid="{9AE9AE75-77C1-49DE-84C5-CE9DBD1E7F93}"/>
     <cellStyle name="20% — акцент2 9" xfId="185" xr:uid="{E6FE251E-2141-4682-8443-6A2D91DB6A44}"/>
     <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3 10" xfId="208" xr:uid="{AD699403-B664-4FBE-A6B6-468B2723E2E4}"/>
+    <cellStyle name="20% — акцент3 11" xfId="228" xr:uid="{B13E6B53-4A75-4FF7-A108-9A3619C3A2AD}"/>
     <cellStyle name="20% — акцент3 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="20% — акцент3 3" xfId="72" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="20% — акцент3 4" xfId="88" xr:uid="{A642B30D-EAC6-4100-A9F2-BF7715B9F12A}"/>
@@ -2274,6 +2406,8 @@
     <cellStyle name="20% — акцент3 8" xfId="168" xr:uid="{6D52EAE3-C935-4835-A368-F68E97C507FE}"/>
     <cellStyle name="20% — акцент3 9" xfId="188" xr:uid="{B7848C41-2388-460E-8BF0-F1AB7B154950}"/>
     <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4 10" xfId="211" xr:uid="{1CCE22EA-123D-4054-889C-0DD2F4D6EDFF}"/>
+    <cellStyle name="20% — акцент4 11" xfId="231" xr:uid="{44A50EDF-D1C1-42A9-9775-DB690B6BCC2F}"/>
     <cellStyle name="20% — акцент4 2" xfId="57" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="20% — акцент4 3" xfId="74" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="20% — акцент4 4" xfId="91" xr:uid="{36EE2587-A985-49C8-90D7-FDB731A3C3FD}"/>
@@ -2283,6 +2417,8 @@
     <cellStyle name="20% — акцент4 8" xfId="171" xr:uid="{D365EFAA-9BE6-4ACF-A70A-0A4B78050A8D}"/>
     <cellStyle name="20% — акцент4 9" xfId="191" xr:uid="{5D849E28-A0C0-4A2D-A3EA-B61D6C52C25E}"/>
     <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5 10" xfId="214" xr:uid="{CD288F46-5D60-484B-8EDA-A0AE743B9F3A}"/>
+    <cellStyle name="20% — акцент5 11" xfId="234" xr:uid="{AE7EBB30-D681-474A-A4DC-4ACD4387486C}"/>
     <cellStyle name="20% — акцент5 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="20% — акцент5 3" xfId="76" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="20% — акцент5 4" xfId="94" xr:uid="{9E89038E-7879-474C-9145-CF59613A4166}"/>
@@ -2292,6 +2428,8 @@
     <cellStyle name="20% — акцент5 8" xfId="174" xr:uid="{B974FA3C-ABE3-4C0D-B275-11404AE3AAB4}"/>
     <cellStyle name="20% — акцент5 9" xfId="194" xr:uid="{C1EE0497-8F4B-459D-964C-2D3E7195A0FF}"/>
     <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6 10" xfId="217" xr:uid="{5068236F-5635-4DCE-B204-B7D3842261AA}"/>
+    <cellStyle name="20% — акцент6 11" xfId="237" xr:uid="{2E8D7D88-3966-4153-92CB-BA5E4B525308}"/>
     <cellStyle name="20% — акцент6 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="20% — акцент6 3" xfId="78" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="20% — акцент6 4" xfId="97" xr:uid="{46AAA499-83C8-4487-85B6-2926D9038AE8}"/>
@@ -2301,6 +2439,8 @@
     <cellStyle name="20% — акцент6 8" xfId="177" xr:uid="{360C7C0A-F217-4E5E-B913-64C90DE866DD}"/>
     <cellStyle name="20% — акцент6 9" xfId="197" xr:uid="{AA8E63C6-1545-4870-B417-E7B09AF0AD0B}"/>
     <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1 10" xfId="203" xr:uid="{CB639D18-C7CE-42DD-BB8C-AB0DCA6B02F2}"/>
+    <cellStyle name="40% — акцент1 11" xfId="223" xr:uid="{793A04A3-E305-4381-9EDD-4BA50EA4717B}"/>
     <cellStyle name="40% — акцент1 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="40% — акцент1 3" xfId="69" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="40% — акцент1 4" xfId="83" xr:uid="{1EBAB30D-6EDB-4EFE-A4F9-E2F96CBDC7CC}"/>
@@ -2310,6 +2450,8 @@
     <cellStyle name="40% — акцент1 8" xfId="163" xr:uid="{045B0C98-F971-4405-AF93-15E31541827D}"/>
     <cellStyle name="40% — акцент1 9" xfId="183" xr:uid="{96862EAE-BD92-4C13-9971-A9092B026D9E}"/>
     <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2 10" xfId="206" xr:uid="{50BF970A-8ABE-455B-864B-A4B5BBA1EBB0}"/>
+    <cellStyle name="40% — акцент2 11" xfId="226" xr:uid="{C8B9BF99-7D96-473E-9381-3F3FFE5572CA}"/>
     <cellStyle name="40% — акцент2 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
     <cellStyle name="40% — акцент2 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="40% — акцент2 4" xfId="86" xr:uid="{3449D548-5BBD-4E05-83E6-28240601D9B7}"/>
@@ -2319,6 +2461,8 @@
     <cellStyle name="40% — акцент2 8" xfId="166" xr:uid="{966E69E3-BE91-4938-BE07-B3C58A2193F8}"/>
     <cellStyle name="40% — акцент2 9" xfId="186" xr:uid="{70DAFA83-238C-4551-92C6-425A33C8ED4B}"/>
     <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3 10" xfId="209" xr:uid="{DA7D1B29-991A-42BE-AB04-D22299A3607A}"/>
+    <cellStyle name="40% — акцент3 11" xfId="229" xr:uid="{16E40344-07CB-4DBE-8DB9-867A4B7B53EA}"/>
     <cellStyle name="40% — акцент3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="40% — акцент3 3" xfId="73" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="40% — акцент3 4" xfId="89" xr:uid="{B1114D56-7B06-4B9C-A1CB-3A3FF7E35C53}"/>
@@ -2328,6 +2472,8 @@
     <cellStyle name="40% — акцент3 8" xfId="169" xr:uid="{249B0834-87B4-4702-8CC3-341A6B522029}"/>
     <cellStyle name="40% — акцент3 9" xfId="189" xr:uid="{AC6B0585-C986-435D-8139-11B934B3DDAE}"/>
     <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4 10" xfId="212" xr:uid="{5D153652-A21C-4F6F-8F70-3A13E7217538}"/>
+    <cellStyle name="40% — акцент4 11" xfId="232" xr:uid="{45F2E801-E66D-44B2-AA68-0B3FAB0DC944}"/>
     <cellStyle name="40% — акцент4 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
     <cellStyle name="40% — акцент4 3" xfId="75" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="40% — акцент4 4" xfId="92" xr:uid="{9461EF89-35EA-4294-A430-61825C8E1D3C}"/>
@@ -2337,6 +2483,8 @@
     <cellStyle name="40% — акцент4 8" xfId="172" xr:uid="{48804958-C0F7-4761-8EB4-88E81A66B2D5}"/>
     <cellStyle name="40% — акцент4 9" xfId="192" xr:uid="{17F42D4F-5853-4774-81C2-3C360656426A}"/>
     <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5 10" xfId="215" xr:uid="{68A66F63-76E1-43D6-BCB1-88D4DE1EB01A}"/>
+    <cellStyle name="40% — акцент5 11" xfId="235" xr:uid="{4B80F67C-3A65-4826-A1A3-0EF421433EEF}"/>
     <cellStyle name="40% — акцент5 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
     <cellStyle name="40% — акцент5 3" xfId="77" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
     <cellStyle name="40% — акцент5 4" xfId="95" xr:uid="{45AF0BA6-FDCC-42A1-9722-AB68561D2988}"/>
@@ -2346,6 +2494,8 @@
     <cellStyle name="40% — акцент5 8" xfId="175" xr:uid="{58BA27C0-5BDD-4041-9028-1CDC2A0AE79D}"/>
     <cellStyle name="40% — акцент5 9" xfId="195" xr:uid="{08C77940-8ADC-454D-A39E-7FB5DC20B9C4}"/>
     <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6 10" xfId="218" xr:uid="{636EB6F4-CEB3-4572-9C97-99B9537F0A63}"/>
+    <cellStyle name="40% — акцент6 11" xfId="238" xr:uid="{2A905FC0-BA0F-4D07-988E-BC63C447BB27}"/>
     <cellStyle name="40% — акцент6 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
     <cellStyle name="40% — акцент6 3" xfId="79" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="40% — акцент6 4" xfId="98" xr:uid="{EC5719D2-4851-4B8E-A14A-C156D581AA8F}"/>
@@ -2355,6 +2505,7 @@
     <cellStyle name="40% — акцент6 8" xfId="178" xr:uid="{9D46FF57-4511-46C0-A475-E8F756F481AA}"/>
     <cellStyle name="40% — акцент6 9" xfId="198" xr:uid="{FADD9251-A688-4F0E-9180-406945799E9A}"/>
     <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1 10" xfId="224" xr:uid="{3D08D6BE-9330-4729-8ABA-B2629643228F}"/>
     <cellStyle name="60% — акцент1 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="60% — акцент1 3" xfId="84" xr:uid="{15D2BB41-6FA3-445E-AA64-291A3F296CB1}"/>
     <cellStyle name="60% — акцент1 4" xfId="104" xr:uid="{0A723422-5DE2-494C-A171-06369E706D3A}"/>
@@ -2362,7 +2513,9 @@
     <cellStyle name="60% — акцент1 6" xfId="144" xr:uid="{08FDFCCB-A9D7-4BAA-8263-39FBA494C0BC}"/>
     <cellStyle name="60% — акцент1 7" xfId="164" xr:uid="{E1BF74D6-C927-4C99-9D1E-ECC21C64EA24}"/>
     <cellStyle name="60% — акцент1 8" xfId="184" xr:uid="{DA028283-AA8C-42F8-BD7E-C80DD2E17EE0}"/>
+    <cellStyle name="60% — акцент1 9" xfId="204" xr:uid="{F83E1A06-D360-4ABB-B608-75E577C3191C}"/>
     <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2 10" xfId="227" xr:uid="{7A0EA4D7-4DFB-4F9C-B98F-4A2B03A0043F}"/>
     <cellStyle name="60% — акцент2 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="60% — акцент2 3" xfId="87" xr:uid="{A361825B-D69A-4F69-8C86-B0F7128E0EA6}"/>
     <cellStyle name="60% — акцент2 4" xfId="107" xr:uid="{01E41DDD-0196-4541-A2A1-FC7BAF17DE6C}"/>
@@ -2370,7 +2523,9 @@
     <cellStyle name="60% — акцент2 6" xfId="147" xr:uid="{BA37D287-3E75-4CCA-95F5-D8BFC3B31177}"/>
     <cellStyle name="60% — акцент2 7" xfId="167" xr:uid="{4978DEEE-FAB6-4C09-AF9F-9799464C5DB4}"/>
     <cellStyle name="60% — акцент2 8" xfId="187" xr:uid="{60C54A23-BB91-417F-8A79-F6F17958C8EA}"/>
+    <cellStyle name="60% — акцент2 9" xfId="207" xr:uid="{B4BFAC7D-DFAC-4885-9BCE-B31B812A55F5}"/>
     <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3 10" xfId="230" xr:uid="{DFCA6904-D812-4F68-B435-A267B64E0F28}"/>
     <cellStyle name="60% — акцент3 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
     <cellStyle name="60% — акцент3 3" xfId="90" xr:uid="{58DBACA8-1FE6-4A47-BB21-6FE5F4FCC5A5}"/>
     <cellStyle name="60% — акцент3 4" xfId="110" xr:uid="{160CADBA-33A6-4BB0-A2E1-3671AD56260C}"/>
@@ -2378,7 +2533,9 @@
     <cellStyle name="60% — акцент3 6" xfId="150" xr:uid="{CECA61F8-EB2B-4B72-A879-0ECFF0EDC23C}"/>
     <cellStyle name="60% — акцент3 7" xfId="170" xr:uid="{0826B3F6-1D13-4781-A165-0653987F3B7F}"/>
     <cellStyle name="60% — акцент3 8" xfId="190" xr:uid="{166C28C4-C617-484E-8C41-4F0006BEDDFE}"/>
+    <cellStyle name="60% — акцент3 9" xfId="210" xr:uid="{2AF3DFDD-ED94-4A38-944B-28D0A870331C}"/>
     <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4 10" xfId="233" xr:uid="{E08F2507-6813-496D-8133-B0ACA81F53A6}"/>
     <cellStyle name="60% — акцент4 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
     <cellStyle name="60% — акцент4 3" xfId="93" xr:uid="{DF5DB50A-6EFD-4073-BED4-7890547E0270}"/>
     <cellStyle name="60% — акцент4 4" xfId="113" xr:uid="{1CC460FE-B74D-4D1D-BEF3-5A051FC7B2F0}"/>
@@ -2386,7 +2543,9 @@
     <cellStyle name="60% — акцент4 6" xfId="153" xr:uid="{C974F664-B035-4FC7-8DBE-68792BB50D9C}"/>
     <cellStyle name="60% — акцент4 7" xfId="173" xr:uid="{2E0BE9C8-E68E-4B52-AFE0-7A964F0708F9}"/>
     <cellStyle name="60% — акцент4 8" xfId="193" xr:uid="{CD8B54A7-A673-4971-B375-45219C1F4745}"/>
+    <cellStyle name="60% — акцент4 9" xfId="213" xr:uid="{7BAE3A2E-972B-404B-A229-F8B8C8766D91}"/>
     <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5 10" xfId="236" xr:uid="{EE590DF1-4DF6-4D29-B5ED-14FBE0420A1E}"/>
     <cellStyle name="60% — акцент5 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
     <cellStyle name="60% — акцент5 3" xfId="96" xr:uid="{53CFB547-923E-4645-9D18-8113DA0FAA63}"/>
     <cellStyle name="60% — акцент5 4" xfId="116" xr:uid="{7C4FEC8D-C52D-431A-B2D5-1C2B719AF17B}"/>
@@ -2394,7 +2553,9 @@
     <cellStyle name="60% — акцент5 6" xfId="156" xr:uid="{86E9A897-E685-4CE6-8CFE-D6E325ACE8A8}"/>
     <cellStyle name="60% — акцент5 7" xfId="176" xr:uid="{D2B6A6BB-CBA6-4B5B-A7DD-4E0332950CF9}"/>
     <cellStyle name="60% — акцент5 8" xfId="196" xr:uid="{F5030005-5DE8-4EA1-84EC-FCDEEC1DB552}"/>
+    <cellStyle name="60% — акцент5 9" xfId="216" xr:uid="{7CD2BF5D-6CC3-497F-A1EA-384874012363}"/>
     <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6 10" xfId="239" xr:uid="{EFEC1F47-2565-4512-BBD2-F725F95ABD3C}"/>
     <cellStyle name="60% — акцент6 2" xfId="65" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="60% — акцент6 3" xfId="99" xr:uid="{88B6875E-9822-489A-B86D-29F1E2A4089F}"/>
     <cellStyle name="60% — акцент6 4" xfId="119" xr:uid="{AF23ED74-B25D-4281-BF82-9D6C366C323B}"/>
@@ -2402,6 +2563,7 @@
     <cellStyle name="60% — акцент6 6" xfId="159" xr:uid="{A0394859-D295-4C2A-BFCB-A92FDD6D16FA}"/>
     <cellStyle name="60% — акцент6 7" xfId="179" xr:uid="{1AC892AF-1E12-4EB8-A14E-BB10FC3A142E}"/>
     <cellStyle name="60% — акцент6 8" xfId="199" xr:uid="{5CCFD16B-53D6-4A5C-B901-263BA8761C79}"/>
+    <cellStyle name="60% — акцент6 9" xfId="219" xr:uid="{6BC91275-D387-4D9B-A018-1C11468D55F1}"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -2423,6 +2585,8 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 10" xfId="160" xr:uid="{4EFCF304-647E-40D3-AC3C-42D724D189F3}"/>
     <cellStyle name="Обычный 11" xfId="180" xr:uid="{5F9F56FB-AF85-473B-8EDD-883234792B53}"/>
+    <cellStyle name="Обычный 12" xfId="200" xr:uid="{4D14B8B3-5FEF-4A46-A1A5-CE627C675A0F}"/>
+    <cellStyle name="Обычный 13" xfId="220" xr:uid="{17AF575D-DD84-4E8D-927E-237D99A18DA4}"/>
     <cellStyle name="Обычный 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
     <cellStyle name="Обычный 3" xfId="42" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
     <cellStyle name="Обычный 4" xfId="45" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
@@ -2434,6 +2598,8 @@
     <cellStyle name="Плохой" xfId="2" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание 10" xfId="181" xr:uid="{C49ED3A5-6E41-426B-B814-E571A7B4CEB8}"/>
+    <cellStyle name="Примечание 11" xfId="201" xr:uid="{2F878C13-75F0-4A82-A9F2-1BC4EA29CB49}"/>
+    <cellStyle name="Примечание 12" xfId="221" xr:uid="{AB0A1F8B-45AF-40F5-94E5-FE848A3DB801}"/>
     <cellStyle name="Примечание 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
     <cellStyle name="Примечание 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
     <cellStyle name="Примечание 4" xfId="67" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
@@ -2447,90 +2613,27 @@
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2914,7 +3017,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2994,25 +3097,25 @@
     <dataField name="Сумма по полю Итого" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="27">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -3293,8 +3396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3323,1815 +3426,1815 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="U1" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="V1" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="X1" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="F1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q1" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="U1" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="X1" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="57">
+      <c r="C2" s="50">
         <v>1</v>
       </c>
-      <c r="D2" s="99">
+      <c r="D2" s="92">
         <f>VLOOKUP(A2,$M$1:$X$8,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E2" s="100">
+      <c r="E2" s="93">
         <f>VLOOKUP(A2,$M$1:$X$8,5,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="F2" s="101">
+      <c r="F2" s="94">
         <f>60/E2*C2</f>
         <v>1</v>
       </c>
-      <c r="G2" s="100">
+      <c r="G2" s="93">
         <f t="shared" ref="G2:G32" si="0">VLOOKUP(A2,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H2" s="102">
+      <c r="H2" s="95">
         <f>D2*F2*G2</f>
         <v>60</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="11">
+      <c r="I2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
         <v>147.57367735826725</v>
       </c>
-      <c r="M2" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="12">
+      <c r="M2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="5">
         <v>0.92700000000000005</v>
       </c>
-      <c r="O2" s="30">
+      <c r="O2" s="23">
         <v>16</v>
       </c>
-      <c r="P2" s="31">
+      <c r="P2" s="24">
         <f>N2+O2</f>
         <v>16.927</v>
       </c>
-      <c r="Q2" s="18">
+      <c r="Q2" s="11">
         <v>60</v>
       </c>
-      <c r="R2" s="40">
+      <c r="R2" s="33">
         <v>3</v>
       </c>
-      <c r="S2" s="41">
+      <c r="S2" s="34">
         <f t="shared" ref="S2:S7" si="1">R2/X$2</f>
         <v>0.3</v>
       </c>
-      <c r="T2" s="56">
+      <c r="T2" s="49">
         <f t="shared" ref="T2:T7" si="2">60/(Q2)</f>
         <v>1</v>
       </c>
-      <c r="U2" s="44">
+      <c r="U2" s="37">
         <v>20</v>
       </c>
-      <c r="V2" s="45">
+      <c r="V2" s="38">
         <f>ROUND(R2*T2*U2,0)</f>
         <v>60</v>
       </c>
       <c r="W2">
         <v>60</v>
       </c>
-      <c r="X2" s="23">
+      <c r="X2" s="16">
         <f>SUM(R2:R7)</f>
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="59">
+      <c r="A3" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="52">
         <v>1</v>
       </c>
-      <c r="D3" s="103">
+      <c r="D3" s="96">
         <f>VLOOKUP(A3,$M$1:$X$8,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E3" s="85">
+      <c r="E3" s="78">
         <f>VLOOKUP(A3,$M$1:$X$8,5,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="F3" s="86">
+      <c r="F3" s="79">
         <f>60/E3*C3</f>
         <v>1</v>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="78">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H3" s="104">
+      <c r="H3" s="97">
         <f>D3*F3*G3</f>
         <v>60</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="11">
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="4">
         <v>90</v>
       </c>
-      <c r="M3" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="12">
+      <c r="M3" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="5">
         <v>0.629</v>
       </c>
-      <c r="O3" s="30">
+      <c r="O3" s="23">
         <v>5</v>
       </c>
-      <c r="P3" s="31">
+      <c r="P3" s="24">
         <f t="shared" ref="P3:P7" si="3">N3+O3</f>
         <v>5.6289999999999996</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="Q3" s="11">
         <v>51</v>
       </c>
-      <c r="R3" s="40">
+      <c r="R3" s="33">
         <v>1</v>
       </c>
-      <c r="S3" s="41">
+      <c r="S3" s="34">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="T3" s="56">
+      <c r="T3" s="49">
         <f t="shared" si="2"/>
         <v>1.1764705882352942</v>
       </c>
-      <c r="U3" s="44">
+      <c r="U3" s="37">
         <v>20</v>
       </c>
-      <c r="V3" s="45">
+      <c r="V3" s="38">
         <f t="shared" ref="V3:V7" si="4">ROUND(R3*T3*U3,0)</f>
         <v>24</v>
       </c>
-      <c r="W3" s="23">
+      <c r="W3" s="16">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="59">
+      <c r="A4" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="52">
         <v>1</v>
       </c>
-      <c r="D4" s="103">
+      <c r="D4" s="96">
         <f>VLOOKUP(A5,$M$1:$X$8,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E4" s="85">
+      <c r="E4" s="78">
         <f>VLOOKUP(A5,$M$1:$X$8,5,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="F4" s="86">
+      <c r="F4" s="79">
         <f t="shared" ref="F4" si="5">60/E4*C4</f>
         <v>1</v>
       </c>
-      <c r="G4" s="85">
+      <c r="G4" s="78">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H4" s="104">
+      <c r="H4" s="97">
         <f t="shared" ref="H4" si="6">D4*F4*G4</f>
         <v>60</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="11">
+      <c r="I4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="4">
         <v>107.14285714285714</v>
       </c>
-      <c r="M4" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4" s="12">
+      <c r="M4" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="5">
         <v>0.60299999999999998</v>
       </c>
-      <c r="O4" s="30">
+      <c r="O4" s="23">
         <v>13</v>
       </c>
-      <c r="P4" s="31">
+      <c r="P4" s="24">
         <f t="shared" si="3"/>
         <v>13.603</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="11">
         <v>74</v>
       </c>
-      <c r="R4" s="40">
+      <c r="R4" s="33">
         <v>2</v>
       </c>
-      <c r="S4" s="41">
+      <c r="S4" s="34">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="T4" s="56">
+      <c r="T4" s="49">
         <f t="shared" si="2"/>
         <v>0.81081081081081086</v>
       </c>
-      <c r="U4" s="44">
+      <c r="U4" s="37">
         <v>20</v>
       </c>
-      <c r="V4" s="45">
+      <c r="V4" s="38">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="W4" s="23">
+      <c r="W4" s="16">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="59">
+      <c r="C5" s="52">
         <v>1</v>
       </c>
-      <c r="D5" s="103">
+      <c r="D5" s="96">
         <f>VLOOKUP(A6,$M$1:$X$8,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E5" s="85">
+      <c r="E5" s="78">
         <f>VLOOKUP(A6,$M$1:$X$8,5,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="F5" s="86">
+      <c r="F5" s="79">
         <f t="shared" ref="F5" si="7">60/E5*C5</f>
         <v>1</v>
       </c>
-      <c r="G5" s="85">
+      <c r="G5" s="78">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H5" s="104">
+      <c r="H5" s="97">
         <f t="shared" ref="H5" si="8">D5*F5*G5</f>
         <v>60</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="11">
+      <c r="I5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="4">
         <v>90</v>
       </c>
-      <c r="M5" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="N5" s="12">
+      <c r="M5" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="5">
         <v>0.76300000000000001</v>
       </c>
-      <c r="O5" s="30">
+      <c r="O5" s="23">
         <v>8</v>
       </c>
-      <c r="P5" s="31">
+      <c r="P5" s="24">
         <f t="shared" si="3"/>
         <v>8.7629999999999999</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="11">
         <v>80</v>
       </c>
-      <c r="R5" s="40">
+      <c r="R5" s="33">
         <v>2</v>
       </c>
-      <c r="S5" s="41">
+      <c r="S5" s="34">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="T5" s="56">
+      <c r="T5" s="49">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="U5" s="44">
+      <c r="U5" s="37">
         <v>20</v>
       </c>
-      <c r="V5" s="45">
+      <c r="V5" s="38">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="W5" s="23">
+      <c r="W5" s="16">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="59">
+      <c r="A6" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="52">
         <v>1</v>
       </c>
-      <c r="D6" s="103">
+      <c r="D6" s="96">
         <f t="shared" ref="D6:D32" si="9">VLOOKUP(A6,$M$1:$X$8,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E6" s="85">
+      <c r="E6" s="78">
         <f t="shared" ref="E6:E32" si="10">VLOOKUP(A6,$M$1:$X$8,5,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="F6" s="86">
+      <c r="F6" s="79">
         <f t="shared" ref="F6:F32" si="11">60/E6*C6</f>
         <v>1</v>
       </c>
-      <c r="G6" s="85">
+      <c r="G6" s="78">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H6" s="104">
+      <c r="H6" s="97">
         <f t="shared" ref="H6:H17" si="12">D6*F6*G6</f>
         <v>60</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="11">
+      <c r="I6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
         <v>60</v>
       </c>
-      <c r="M6" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="12">
+      <c r="M6" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="5">
         <v>0.68</v>
       </c>
-      <c r="O6" s="30">
+      <c r="O6" s="23">
         <v>8</v>
       </c>
-      <c r="P6" s="31">
+      <c r="P6" s="24">
         <f t="shared" si="3"/>
         <v>8.68</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="Q6" s="11">
         <v>71</v>
       </c>
-      <c r="R6" s="40">
+      <c r="R6" s="33">
         <v>1</v>
       </c>
-      <c r="S6" s="41">
+      <c r="S6" s="34">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="T6" s="56">
+      <c r="T6" s="49">
         <f t="shared" si="2"/>
         <v>0.84507042253521125</v>
       </c>
-      <c r="U6" s="44">
+      <c r="U6" s="37">
         <v>20</v>
       </c>
-      <c r="V6" s="45">
+      <c r="V6" s="38">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="W6" s="23">
+      <c r="W6" s="16">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="155" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="156" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="155">
+      <c r="A7" s="148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="157">
+      <c r="C7" s="148">
+        <v>1</v>
+      </c>
+      <c r="D7" s="150">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="E7" s="158">
+      <c r="E7" s="151">
         <f t="shared" si="10"/>
         <v>60</v>
       </c>
-      <c r="F7" s="159">
+      <c r="F7" s="152">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="G7" s="158">
+      <c r="G7" s="151">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H7" s="160">
+      <c r="H7" s="153">
         <f t="shared" si="12"/>
         <v>60</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="11">
+      <c r="I7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="4">
         <v>23.529411764705884</v>
       </c>
-      <c r="M7" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="N7" s="12">
+      <c r="M7" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="5">
         <v>0.55900000000000005</v>
       </c>
-      <c r="O7" s="32">
+      <c r="O7" s="25">
         <v>12</v>
       </c>
-      <c r="P7" s="31">
+      <c r="P7" s="24">
         <f t="shared" si="3"/>
         <v>12.558999999999999</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="Q7" s="11">
         <v>70</v>
       </c>
-      <c r="R7" s="40">
+      <c r="R7" s="33">
         <v>1</v>
       </c>
-      <c r="S7" s="41">
+      <c r="S7" s="34">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="T7" s="56">
+      <c r="T7" s="49">
         <f t="shared" si="2"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="U7" s="44">
+      <c r="U7" s="37">
         <v>20</v>
       </c>
-      <c r="V7" s="45">
+      <c r="V7" s="38">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="W7" s="23">
+      <c r="W7" s="16">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="155" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="156" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="155">
+      <c r="A8" s="148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="148">
         <v>1</v>
       </c>
-      <c r="D8" s="157">
+      <c r="D8" s="150">
         <f t="shared" ref="D8" si="13">VLOOKUP(A8,$M$1:$X$8,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E8" s="158">
+      <c r="E8" s="151">
         <f t="shared" ref="E8" si="14">VLOOKUP(A8,$M$1:$X$8,5,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="F8" s="159">
+      <c r="F8" s="152">
         <f t="shared" ref="F8" si="15">60/E8*C8</f>
         <v>1</v>
       </c>
-      <c r="G8" s="158">
+      <c r="G8" s="151">
         <f t="shared" ref="G8" si="16">VLOOKUP(A8,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H8" s="160">
+      <c r="H8" s="153">
         <f t="shared" ref="H8" si="17">D8*F8*G8</f>
         <v>60</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="11">
+      <c r="I8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="4">
         <v>90.006109790699682</v>
       </c>
-      <c r="M8" s="38"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="46">
+      <c r="M8" s="31"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="39">
         <f>SUM(S2:S7)</f>
         <v>1</v>
       </c>
-      <c r="T8" s="55"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="24"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="17"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="61">
+      <c r="A9" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="54">
         <v>1</v>
       </c>
-      <c r="D9" s="161">
+      <c r="D9" s="154">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="E9" s="162">
+      <c r="E9" s="155">
         <f t="shared" si="10"/>
         <v>51</v>
       </c>
-      <c r="F9" s="163">
+      <c r="F9" s="156">
         <f t="shared" si="11"/>
         <v>1.1764705882352942</v>
       </c>
-      <c r="G9" s="164">
+      <c r="G9" s="157">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H9" s="165">
+      <c r="H9" s="158">
         <f t="shared" si="12"/>
         <v>23.529411764705884</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="11">
+      <c r="I9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="4">
         <v>180.0061097906997</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="63">
+      <c r="A10" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="56">
         <v>1</v>
       </c>
-      <c r="D10" s="105">
+      <c r="D10" s="98">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="E10" s="88">
+      <c r="E10" s="81">
         <f t="shared" si="10"/>
         <v>51</v>
       </c>
-      <c r="F10" s="89">
+      <c r="F10" s="82">
         <f t="shared" si="11"/>
         <v>1.1764705882352942</v>
       </c>
-      <c r="G10" s="87">
+      <c r="G10" s="80">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H10" s="106">
+      <c r="H10" s="99">
         <f t="shared" si="12"/>
         <v>23.529411764705884</v>
       </c>
-      <c r="I10" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="11">
+      <c r="I10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="4">
         <v>32.432432432432435</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="63">
+      <c r="A11" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="56">
         <v>1</v>
       </c>
-      <c r="D11" s="105">
+      <c r="D11" s="98">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="81">
         <f t="shared" si="10"/>
         <v>51</v>
       </c>
-      <c r="F11" s="89">
+      <c r="F11" s="82">
         <f t="shared" si="11"/>
         <v>1.1764705882352942</v>
       </c>
-      <c r="G11" s="87">
+      <c r="G11" s="80">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H11" s="106">
+      <c r="H11" s="99">
         <f t="shared" si="12"/>
         <v>23.529411764705884</v>
       </c>
-      <c r="I11" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="11">
+      <c r="I11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="4">
         <v>32.432432432432435</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="63">
+      <c r="A12" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="56">
         <v>1</v>
       </c>
-      <c r="D12" s="105">
+      <c r="D12" s="98">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="81">
         <f t="shared" si="10"/>
         <v>51</v>
       </c>
-      <c r="F12" s="89">
+      <c r="F12" s="82">
         <f t="shared" si="11"/>
         <v>1.1764705882352942</v>
       </c>
-      <c r="G12" s="87">
+      <c r="G12" s="80">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H12" s="106">
+      <c r="H12" s="99">
         <f t="shared" si="12"/>
         <v>23.529411764705884</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="11">
+      <c r="I12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="4">
         <v>32.432432432432435</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="66" t="s">
+      <c r="A13" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="65">
-        <v>0</v>
-      </c>
-      <c r="D13" s="166">
+      <c r="B13" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="58">
+        <v>0</v>
+      </c>
+      <c r="D13" s="159">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="E13" s="167">
+      <c r="E13" s="160">
         <f t="shared" si="10"/>
         <v>51</v>
       </c>
-      <c r="F13" s="168">
+      <c r="F13" s="161">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G13" s="169">
+      <c r="G13" s="162">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H13" s="170">
+      <c r="H13" s="163">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I13" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" s="11">
+      <c r="I13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="4">
         <v>106.90140845070422</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="69">
+      <c r="A14" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="62">
         <v>1</v>
       </c>
-      <c r="D14" s="145">
+      <c r="D14" s="138">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="E14" s="146">
+      <c r="E14" s="139">
         <f t="shared" si="10"/>
         <v>74</v>
       </c>
-      <c r="F14" s="147">
+      <c r="F14" s="140">
         <f t="shared" si="11"/>
         <v>0.81081081081081086</v>
       </c>
-      <c r="G14" s="148">
+      <c r="G14" s="141">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H14" s="149">
+      <c r="H14" s="142">
         <f t="shared" si="12"/>
         <v>32.432432432432435</v>
       </c>
-      <c r="I14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="11">
+      <c r="I14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="4">
         <v>992.45687159523118</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="71">
+      <c r="A15" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="64">
         <v>1</v>
       </c>
-      <c r="D15" s="107">
+      <c r="D15" s="100">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="E15" s="91">
+      <c r="E15" s="84">
         <f t="shared" si="10"/>
         <v>74</v>
       </c>
-      <c r="F15" s="92">
+      <c r="F15" s="85">
         <f t="shared" si="11"/>
         <v>0.81081081081081086</v>
       </c>
-      <c r="G15" s="90">
+      <c r="G15" s="83">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H15" s="108">
+      <c r="H15" s="101">
         <f t="shared" si="12"/>
         <v>32.432432432432435</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="71">
+      <c r="A16" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="64">
         <v>1</v>
       </c>
-      <c r="D16" s="107">
+      <c r="D16" s="100">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="E16" s="91">
+      <c r="E16" s="84">
         <f t="shared" si="10"/>
         <v>74</v>
       </c>
-      <c r="F16" s="92">
+      <c r="F16" s="85">
         <f t="shared" si="11"/>
         <v>0.81081081081081086</v>
       </c>
-      <c r="G16" s="90">
+      <c r="G16" s="83">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H16" s="108">
+      <c r="H16" s="101">
         <f t="shared" si="12"/>
         <v>32.432432432432435</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="71">
+      <c r="A17" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="64">
         <v>1</v>
       </c>
-      <c r="D17" s="107">
+      <c r="D17" s="100">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="E17" s="91">
+      <c r="E17" s="84">
         <f t="shared" si="10"/>
         <v>74</v>
       </c>
-      <c r="F17" s="92">
+      <c r="F17" s="85">
         <f t="shared" si="11"/>
         <v>0.81081081081081086</v>
       </c>
-      <c r="G17" s="90">
+      <c r="G17" s="83">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H17" s="108">
+      <c r="H17" s="101">
         <f t="shared" si="12"/>
         <v>32.432432432432435</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="73">
+      <c r="A18" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="66">
         <v>1</v>
       </c>
-      <c r="D18" s="150">
+      <c r="D18" s="143">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="E18" s="151">
+      <c r="E18" s="144">
         <f t="shared" si="10"/>
         <v>74</v>
       </c>
-      <c r="F18" s="152">
+      <c r="F18" s="145">
         <f t="shared" si="11"/>
         <v>0.81081081081081086</v>
       </c>
-      <c r="G18" s="153">
+      <c r="G18" s="146">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H18" s="154">
+      <c r="H18" s="147">
         <f t="shared" ref="H18" si="18">D18*F18*G18</f>
         <v>32.432432432432435</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="139" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="140" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="139">
+      <c r="A19" s="132" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="132">
         <v>1</v>
       </c>
-      <c r="D19" s="141">
+      <c r="D19" s="134">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="E19" s="142">
+      <c r="E19" s="135">
         <f t="shared" si="10"/>
         <v>70</v>
       </c>
-      <c r="F19" s="143">
+      <c r="F19" s="136">
         <f t="shared" si="11"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="G19" s="142">
+      <c r="G19" s="135">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H19" s="144">
+      <c r="H19" s="137">
         <f t="shared" ref="H19:H32" si="19">D19*F19*G19</f>
         <v>17.142857142857142</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="67">
+      <c r="A20" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="60">
         <v>1</v>
       </c>
-      <c r="D20" s="109">
+      <c r="D20" s="102">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="E20" s="93">
+      <c r="E20" s="86">
         <f t="shared" si="10"/>
         <v>70</v>
       </c>
-      <c r="F20" s="94">
+      <c r="F20" s="87">
         <f t="shared" si="11"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="G20" s="93">
+      <c r="G20" s="86">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H20" s="110">
+      <c r="H20" s="103">
         <f t="shared" si="19"/>
         <v>17.142857142857142</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="67">
+      <c r="A21" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="60">
         <v>1</v>
       </c>
-      <c r="D21" s="109">
+      <c r="D21" s="102">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="E21" s="93">
+      <c r="E21" s="86">
         <f t="shared" si="10"/>
         <v>70</v>
       </c>
-      <c r="F21" s="94">
+      <c r="F21" s="87">
         <f t="shared" si="11"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="G21" s="93">
+      <c r="G21" s="86">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H21" s="110">
+      <c r="H21" s="103">
         <f t="shared" si="19"/>
         <v>17.142857142857142</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="120" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="119">
+      <c r="A22" s="112" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="112">
         <v>1</v>
       </c>
-      <c r="D22" s="121">
+      <c r="D22" s="114">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="E22" s="122">
+      <c r="E22" s="115">
         <f t="shared" si="10"/>
         <v>70</v>
       </c>
-      <c r="F22" s="123">
+      <c r="F22" s="116">
         <f t="shared" si="11"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="G22" s="122">
+      <c r="G22" s="115">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H22" s="124">
+      <c r="H22" s="117">
         <f t="shared" si="19"/>
         <v>17.142857142857142</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="75">
+      <c r="A23" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="68">
         <v>1</v>
       </c>
-      <c r="D23" s="131">
+      <c r="D23" s="124">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="E23" s="132">
+      <c r="E23" s="125">
         <f t="shared" si="10"/>
         <v>80</v>
       </c>
-      <c r="F23" s="133">
+      <c r="F23" s="126">
         <f t="shared" si="11"/>
         <v>0.75</v>
       </c>
-      <c r="G23" s="132">
+      <c r="G23" s="125">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H23" s="134">
+      <c r="H23" s="127">
         <f t="shared" si="19"/>
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="77">
+      <c r="A24" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="70">
         <v>1</v>
       </c>
-      <c r="D24" s="111">
+      <c r="D24" s="104">
         <f t="shared" ref="D24" si="20">VLOOKUP(A24,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E24" s="95">
+      <c r="E24" s="88">
         <f t="shared" ref="E24" si="21">VLOOKUP(A24,$M$1:$X$8,5,FALSE)</f>
         <v>80</v>
       </c>
-      <c r="F24" s="96">
+      <c r="F24" s="89">
         <f t="shared" ref="F24" si="22">60/E24*C24</f>
         <v>0.75</v>
       </c>
-      <c r="G24" s="95">
+      <c r="G24" s="88">
         <f t="shared" ref="G24" si="23">VLOOKUP(A24,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H24" s="112">
+      <c r="H24" s="105">
         <f t="shared" ref="H24" si="24">D24*F24*G24</f>
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="77">
+      <c r="A25" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="70">
         <v>1</v>
       </c>
-      <c r="D25" s="111">
+      <c r="D25" s="104">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="E25" s="95">
+      <c r="E25" s="88">
         <f t="shared" si="10"/>
         <v>80</v>
       </c>
-      <c r="F25" s="96">
+      <c r="F25" s="89">
         <f t="shared" si="11"/>
         <v>0.75</v>
       </c>
-      <c r="G25" s="95">
+      <c r="G25" s="88">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H25" s="112">
+      <c r="H25" s="105">
         <f t="shared" si="19"/>
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="77">
+      <c r="A26" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="70">
         <v>1</v>
       </c>
-      <c r="D26" s="111">
+      <c r="D26" s="104">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="E26" s="95">
+      <c r="E26" s="88">
         <f t="shared" si="10"/>
         <v>80</v>
       </c>
-      <c r="F26" s="96">
+      <c r="F26" s="89">
         <f t="shared" si="11"/>
         <v>0.75</v>
       </c>
-      <c r="G26" s="95">
+      <c r="G26" s="88">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H26" s="112">
+      <c r="H26" s="105">
         <f t="shared" si="19"/>
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="77">
+      <c r="A27" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="70">
         <v>1</v>
       </c>
-      <c r="D27" s="111">
+      <c r="D27" s="104">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="E27" s="95">
+      <c r="E27" s="88">
         <f t="shared" si="10"/>
         <v>80</v>
       </c>
-      <c r="F27" s="96">
+      <c r="F27" s="89">
         <f t="shared" si="11"/>
         <v>0.75</v>
       </c>
-      <c r="G27" s="95">
+      <c r="G27" s="88">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H27" s="112">
+      <c r="H27" s="105">
         <f t="shared" si="19"/>
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="79" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="79">
+      <c r="A28" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="72">
         <v>1</v>
       </c>
-      <c r="D28" s="135">
+      <c r="D28" s="128">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="E28" s="136">
+      <c r="E28" s="129">
         <f t="shared" si="10"/>
         <v>80</v>
       </c>
-      <c r="F28" s="137">
+      <c r="F28" s="130">
         <f t="shared" si="11"/>
         <v>0.75</v>
       </c>
-      <c r="G28" s="136">
+      <c r="G28" s="129">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H28" s="138">
+      <c r="H28" s="131">
         <f t="shared" si="19"/>
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="125" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="126" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="125">
+      <c r="A29" s="118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="119" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="118">
         <v>1</v>
       </c>
-      <c r="D29" s="127">
+      <c r="D29" s="120">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="E29" s="128">
+      <c r="E29" s="121">
         <f t="shared" si="10"/>
         <v>71</v>
       </c>
-      <c r="F29" s="129">
+      <c r="F29" s="122">
         <f t="shared" si="11"/>
         <v>0.84507042253521125</v>
       </c>
-      <c r="G29" s="128">
+      <c r="G29" s="121">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H29" s="130">
+      <c r="H29" s="123">
         <f t="shared" si="19"/>
         <v>16.901408450704224</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="81">
+      <c r="A30" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="74">
         <v>1</v>
       </c>
-      <c r="D30" s="113">
+      <c r="D30" s="106">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="E30" s="97">
+      <c r="E30" s="90">
         <f t="shared" si="10"/>
         <v>71</v>
       </c>
-      <c r="F30" s="98">
+      <c r="F30" s="91">
         <f t="shared" si="11"/>
         <v>0.84507042253521125</v>
       </c>
-      <c r="G30" s="97">
+      <c r="G30" s="90">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H30" s="114">
+      <c r="H30" s="107">
         <f t="shared" si="19"/>
         <v>16.901408450704224</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="81">
+      <c r="A31" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="74">
         <v>1</v>
       </c>
-      <c r="D31" s="113">
+      <c r="D31" s="106">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="E31" s="97">
+      <c r="E31" s="90">
         <f t="shared" si="10"/>
         <v>71</v>
       </c>
-      <c r="F31" s="98">
+      <c r="F31" s="91">
         <f t="shared" si="11"/>
         <v>0.84507042253521125</v>
       </c>
-      <c r="G31" s="97">
+      <c r="G31" s="90">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H31" s="114">
+      <c r="H31" s="107">
         <f t="shared" si="19"/>
         <v>16.901408450704224</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="83" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="83">
+      <c r="A32" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="76">
         <v>1</v>
       </c>
-      <c r="D32" s="115">
+      <c r="D32" s="108">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="E32" s="116">
+      <c r="E32" s="109">
         <f t="shared" si="10"/>
         <v>71</v>
       </c>
-      <c r="F32" s="117">
+      <c r="F32" s="110">
         <f t="shared" si="11"/>
         <v>0.84507042253521125</v>
       </c>
-      <c r="G32" s="116">
+      <c r="G32" s="109">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H32" s="118">
+      <c r="H32" s="111">
         <f t="shared" si="19"/>
         <v>16.901408450704224</v>
       </c>
-      <c r="I32" s="171"/>
+      <c r="I32" s="164"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="201" t="s">
+      <c r="A36" s="183" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="184"/>
+      <c r="C36" s="185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="186"/>
+    </row>
+    <row r="37" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="202"/>
-      <c r="C36" s="203" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="204"/>
-    </row>
-    <row r="37" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>55</v>
+      <c r="G37" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="48">
+      <c r="A38" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="41">
         <v>520</v>
       </c>
-      <c r="C38" s="31">
+      <c r="C38" s="24">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A38)*3</f>
         <v>540.01832937209906</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="6">
         <f>1-B38/C38</f>
         <v>3.706972205068515E-2</v>
       </c>
-      <c r="E38" s="26"/>
-      <c r="F38" s="52" t="str">
+      <c r="E38" s="19"/>
+      <c r="F38" s="45" t="str">
         <f>VLOOKUP(A38,Соответствие!A:B,2,FALSE)</f>
         <v>go_to_WebTours</v>
       </c>
-      <c r="G38" s="28">
+      <c r="G38" s="21">
         <f>C38/3</f>
         <v>180.0061097906997</v>
       </c>
-      <c r="H38" s="16">
+      <c r="H38" s="9">
         <f>VLOOKUP(F38,SummaryReport!A:J,8,FALSE)</f>
         <v>180</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I38" s="7">
         <f t="shared" ref="I38:I49" si="25">1-G38/H38</f>
         <v>-3.3943281664949865E-5</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="48">
+      <c r="A39" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="41">
         <v>422</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="24">
         <f t="shared" ref="C39:C49" si="26">GETPIVOTDATA("Итого",$I$1,"transaction rq",A39)*3</f>
         <v>442.72103207480177</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="6">
         <f t="shared" ref="D39:D50" si="27">1-B39/C39</f>
         <v>4.6803812273596201E-2</v>
       </c>
-      <c r="E39" s="26"/>
-      <c r="F39" s="52" t="str">
+      <c r="E39" s="19"/>
+      <c r="F39" s="45" t="str">
         <f>VLOOKUP(A39,Соответствие!A:B,2,FALSE)</f>
         <v>Login</v>
       </c>
-      <c r="G39" s="28">
+      <c r="G39" s="21">
         <f t="shared" ref="G39:G49" si="28">C39/3</f>
         <v>147.57367735826725</v>
       </c>
-      <c r="H39" s="16">
+      <c r="H39" s="9">
         <f>VLOOKUP(F39,SummaryReport!A:J,8,FALSE)</f>
         <v>148</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I39" s="7">
         <f t="shared" si="25"/>
         <v>2.8805583900861631E-3</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="48">
+      <c r="A40" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="41">
         <v>305</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="24">
         <f t="shared" si="26"/>
         <v>320.70422535211264</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="6">
         <f t="shared" si="27"/>
         <v>4.8967940272288013E-2</v>
       </c>
-      <c r="E40" s="26"/>
-      <c r="F40" s="52" t="str">
+      <c r="E40" s="19"/>
+      <c r="F40" s="45" t="str">
         <f>VLOOKUP(A40,Соответствие!A:B,2,FALSE)</f>
         <v>go_to_FlightsPage</v>
       </c>
-      <c r="G40" s="28">
+      <c r="G40" s="21">
         <f t="shared" si="28"/>
         <v>106.90140845070421</v>
       </c>
-      <c r="H40" s="16">
+      <c r="H40" s="9">
         <f>VLOOKUP(F40,SummaryReport!A:J,8,FALSE)</f>
         <v>107</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I40" s="7">
         <f t="shared" si="25"/>
         <v>9.2141634855880117E-4</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="48">
+      <c r="A41" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="41">
         <v>282</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="24">
         <f t="shared" si="26"/>
         <v>270</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="6">
         <f t="shared" si="27"/>
         <v>-4.4444444444444509E-2</v>
       </c>
-      <c r="E41" s="26"/>
-      <c r="F41" s="52" t="str">
+      <c r="E41" s="19"/>
+      <c r="F41" s="45" t="str">
         <f>VLOOKUP(A41,Соответствие!A:B,2,FALSE)</f>
         <v>ticket_Search</v>
       </c>
-      <c r="G41" s="28">
+      <c r="G41" s="21">
         <f t="shared" si="28"/>
         <v>90</v>
       </c>
-      <c r="H41" s="16">
+      <c r="H41" s="9">
         <f>VLOOKUP(F41,SummaryReport!A:J,8,FALSE)</f>
         <v>90</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I41" s="7">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" s="48">
+      <c r="A42" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="41">
         <v>270</v>
       </c>
-      <c r="C42" s="31">
+      <c r="C42" s="24">
         <f t="shared" si="26"/>
         <v>270</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="6">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="E42" s="26"/>
-      <c r="F42" s="52" t="str">
+      <c r="E42" s="19"/>
+      <c r="F42" s="45" t="str">
         <f>VLOOKUP(A42,Соответствие!A:B,2,FALSE)</f>
         <v>choose_Ticket</v>
       </c>
-      <c r="G42" s="28">
+      <c r="G42" s="21">
         <f t="shared" si="28"/>
         <v>90</v>
       </c>
-      <c r="H42" s="16">
+      <c r="H42" s="9">
         <f>VLOOKUP(F42,SummaryReport!A:J,8,FALSE)</f>
         <v>90</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I42" s="7">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="48">
+      <c r="A43" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="41">
         <v>175</v>
       </c>
-      <c r="C43" s="31">
+      <c r="C43" s="24">
         <f t="shared" si="26"/>
         <v>180</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="6">
         <f t="shared" si="27"/>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="E43" s="26"/>
-      <c r="F43" s="52" t="str">
+      <c r="E43" s="19"/>
+      <c r="F43" s="45" t="str">
         <f>VLOOKUP(A43,Соответствие!A:B,2,FALSE)</f>
         <v>payment_Details</v>
       </c>
-      <c r="G43" s="28">
+      <c r="G43" s="21">
         <f t="shared" si="28"/>
         <v>60</v>
       </c>
-      <c r="H43" s="16">
+      <c r="H43" s="9">
         <f>VLOOKUP(F43,SummaryReport!A:J,8,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="I43" s="14">
+      <c r="I43" s="7">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="48">
+      <c r="A44" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="41">
         <v>280</v>
       </c>
-      <c r="C44" s="31">
+      <c r="C44" s="24">
         <f t="shared" si="26"/>
         <v>270.01832937209906</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="6">
         <f t="shared" si="27"/>
         <v>-3.6966640935496287E-2</v>
       </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="52" t="str">
+      <c r="E44" s="26"/>
+      <c r="F44" s="45" t="str">
         <f>VLOOKUP(A44,Соответствие!A:B,2,FALSE)</f>
         <v>search_Itinerary</v>
       </c>
-      <c r="G44" s="28">
+      <c r="G44" s="21">
         <f t="shared" si="28"/>
         <v>90.006109790699682</v>
       </c>
-      <c r="H44" s="16">
+      <c r="H44" s="9">
         <f>VLOOKUP(F44,SummaryReport!A:J,8,FALSE)</f>
         <v>90</v>
       </c>
-      <c r="I44" s="14">
+      <c r="I44" s="7">
         <f t="shared" si="25"/>
         <v>-6.788656332989973E-5</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="48">
+      <c r="A45" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="41">
         <v>73</v>
       </c>
-      <c r="C45" s="31">
+      <c r="C45" s="24">
         <f t="shared" si="26"/>
         <v>70.588235294117652</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="6">
         <f t="shared" si="27"/>
         <v>-3.4166666666666679E-2</v>
       </c>
-      <c r="E45" s="26"/>
-      <c r="F45" s="52" t="str">
+      <c r="E45" s="19"/>
+      <c r="F45" s="45" t="str">
         <f>VLOOKUP(A45,Соответствие!A:B,2,FALSE)</f>
         <v>delete_Itinerary</v>
       </c>
-      <c r="G45" s="28">
+      <c r="G45" s="21">
         <f t="shared" si="28"/>
         <v>23.529411764705884</v>
       </c>
-      <c r="H45" s="16">
+      <c r="H45" s="9">
         <f>VLOOKUP(F45,SummaryReport!A:J,8,FALSE)</f>
         <v>24</v>
       </c>
-      <c r="I45" s="14">
+      <c r="I45" s="7">
         <f t="shared" si="25"/>
         <v>1.9607843137254832E-2</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="48">
+      <c r="A46" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="41">
         <v>326</v>
       </c>
-      <c r="C46" s="31">
+      <c r="C46" s="24">
         <f t="shared" si="26"/>
         <v>321.42857142857144</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="6">
         <f t="shared" si="27"/>
         <v>-1.4222222222222136E-2</v>
       </c>
-      <c r="E46" s="26"/>
-      <c r="F46" s="52" t="str">
+      <c r="E46" s="19"/>
+      <c r="F46" s="45" t="str">
         <f>VLOOKUP(A46,Соответствие!A:B,2,FALSE)</f>
         <v>Logout</v>
       </c>
-      <c r="G46" s="28">
+      <c r="G46" s="21">
         <f t="shared" si="28"/>
         <v>107.14285714285715</v>
       </c>
-      <c r="H46" s="16">
+      <c r="H46" s="9">
         <f>VLOOKUP(F46,SummaryReport!A:J,8,FALSE)</f>
         <v>107</v>
       </c>
-      <c r="I46" s="14">
+      <c r="I46" s="7">
         <f t="shared" si="25"/>
         <v>-1.3351134846462109E-3</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="48">
+      <c r="A47" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="41">
         <v>97</v>
       </c>
-      <c r="C47" s="31">
+      <c r="C47" s="24">
         <f t="shared" si="26"/>
         <v>97.297297297297305</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="6">
         <f t="shared" si="27"/>
         <v>3.0555555555555891E-3</v>
       </c>
-      <c r="E47" s="26"/>
-      <c r="F47" s="52" t="str">
+      <c r="E47" s="19"/>
+      <c r="F47" s="45" t="str">
         <f>VLOOKUP(A47,Соответствие!A:B,2,FALSE)</f>
         <v>RegPage</v>
       </c>
-      <c r="G47" s="28">
+      <c r="G47" s="21">
         <f t="shared" si="28"/>
         <v>32.432432432432435</v>
       </c>
-      <c r="H47" s="16">
+      <c r="H47" s="9">
         <f>VLOOKUP(F47,SummaryReport!A:J,8,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="I47" s="14">
+      <c r="I47" s="7">
         <f t="shared" si="25"/>
         <v>-1.3513513513513598E-2</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="48">
+      <c r="A48" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="41">
         <v>97</v>
       </c>
-      <c r="C48" s="31">
+      <c r="C48" s="24">
         <f t="shared" si="26"/>
         <v>97.297297297297305</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="6">
         <f t="shared" si="27"/>
         <v>3.0555555555555891E-3</v>
       </c>
-      <c r="E48" s="26"/>
-      <c r="F48" s="52" t="str">
+      <c r="E48" s="19"/>
+      <c r="F48" s="45" t="str">
         <f>VLOOKUP(A48,Соответствие!A:B,2,FALSE)</f>
         <v>RegisterNewUser</v>
       </c>
-      <c r="G48" s="28">
+      <c r="G48" s="21">
         <f t="shared" si="28"/>
         <v>32.432432432432435</v>
       </c>
-      <c r="H48" s="16">
+      <c r="H48" s="9">
         <f>VLOOKUP(F48,SummaryReport!A:J,8,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="I48" s="14">
+      <c r="I48" s="7">
         <f t="shared" si="25"/>
         <v>-1.3513513513513598E-2</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="48">
+      <c r="A49" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="41">
         <v>97</v>
       </c>
-      <c r="C49" s="31">
+      <c r="C49" s="24">
         <f t="shared" si="26"/>
         <v>97.297297297297305</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="6">
         <f t="shared" si="27"/>
         <v>3.0555555555555891E-3</v>
       </c>
-      <c r="E49" s="26"/>
-      <c r="F49" s="52" t="str">
+      <c r="E49" s="19"/>
+      <c r="F49" s="45" t="str">
         <f>VLOOKUP(A49,Соответствие!A:B,2,FALSE)</f>
         <v>ContinueAfterReg</v>
       </c>
-      <c r="G49" s="28">
+      <c r="G49" s="21">
         <f t="shared" si="28"/>
         <v>32.432432432432435</v>
       </c>
-      <c r="H49" s="16">
+      <c r="H49" s="9">
         <f>VLOOKUP(F49,SummaryReport!A:J,8,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="I49" s="14">
+      <c r="I49" s="7">
         <f t="shared" si="25"/>
         <v>-1.3513513513513598E-2</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="49">
+      <c r="A50" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="42">
         <f>SUM(B38:B49)</f>
         <v>2944</v>
       </c>
-      <c r="C50" s="50">
+      <c r="C50" s="43">
         <f>SUM(C38:C49)</f>
         <v>2977.3706147856942</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="6">
         <f t="shared" si="27"/>
         <v>1.1208082265598662E-2</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I51" s="17"/>
+      <c r="I51" s="10"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="25"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5154,7 +5257,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5164,119 +5267,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>68</v>
+      <c r="A1" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="str">
+      <c r="A2" s="45" t="str">
         <f>'Автоматизированный расчет'!A38</f>
         <v>Главная Welcome страница</v>
       </c>
-      <c r="B2" s="52" t="s">
-        <v>84</v>
+      <c r="B2" s="45" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="str">
+      <c r="A3" s="45" t="str">
         <f>'Автоматизированный расчет'!A39</f>
         <v>Вход в систему</v>
       </c>
-      <c r="B3" s="52" t="s">
-        <v>85</v>
+      <c r="B3" s="45" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="str">
+      <c r="A4" s="45" t="str">
         <f>'Автоматизированный расчет'!A40</f>
         <v>Переход на страницу поиска билетов</v>
       </c>
-      <c r="B4" s="52" t="s">
-        <v>83</v>
+      <c r="B4" s="45" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="str">
+      <c r="A5" s="45" t="str">
         <f>'Автоматизированный расчет'!A41</f>
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
       </c>
-      <c r="B5" s="52" t="s">
-        <v>91</v>
+      <c r="B5" s="45" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="str">
+      <c r="A6" s="45" t="str">
         <f>'Автоматизированный расчет'!A42</f>
         <v xml:space="preserve">Выбор рейса из найденных </v>
       </c>
-      <c r="B6" s="172" t="s">
-        <v>80</v>
+      <c r="B6" s="165" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="str">
+      <c r="A7" s="45" t="str">
         <f>'Автоматизированный расчет'!A43</f>
         <v>Оплата билета</v>
       </c>
-      <c r="B7" s="52" t="s">
-        <v>87</v>
+      <c r="B7" s="45" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="str">
+      <c r="A8" s="45" t="str">
         <f>'Автоматизированный расчет'!A44</f>
         <v>Просмотр квитанций</v>
       </c>
-      <c r="B8" s="52" t="s">
-        <v>90</v>
+      <c r="B8" s="45" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="str">
+      <c r="A9" s="45" t="str">
         <f>'Автоматизированный расчет'!A45</f>
         <v xml:space="preserve">Отмена бронирования </v>
       </c>
-      <c r="B9" s="52" t="s">
-        <v>82</v>
+      <c r="B9" s="45" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="str">
+      <c r="A10" s="45" t="str">
         <f>'Автоматизированный расчет'!A46</f>
         <v>Выход из системы</v>
       </c>
-      <c r="B10" s="52" t="s">
-        <v>86</v>
+      <c r="B10" s="45" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="str">
+      <c r="A11" s="45" t="str">
         <f>'Автоматизированный расчет'!A47</f>
         <v>Перход на страницу регистрации</v>
       </c>
-      <c r="B11" s="52" t="s">
-        <v>89</v>
+      <c r="B11" s="45" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="str">
+      <c r="A12" s="45" t="str">
         <f>'Автоматизированный расчет'!A48</f>
         <v>Заполнение полей регистарции</v>
       </c>
-      <c r="B12" s="172" t="s">
-        <v>88</v>
+      <c r="B12" s="165" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="str">
+      <c r="A13" s="45" t="str">
         <f>'Автоматизированный расчет'!A49</f>
         <v>Переход на следуюущий эран после регистарции</v>
       </c>
-      <c r="B13" s="172" t="s">
-        <v>81</v>
+      <c r="B13" s="165" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -5288,13 +5391,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -5302,1533 +5405,1832 @@
     <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="182" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="183" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="182" t="s">
+      <c r="A1" s="172" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="173" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="172" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="174" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="172" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="172" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="172" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="174" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="173" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="172" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="175" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="46"/>
+      <c r="O1" s="166"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="166"/>
+      <c r="T1" s="166"/>
+      <c r="U1" s="166"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="166"/>
+      <c r="X1" s="166"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="181" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="184" t="s">
+      <c r="B2" s="181" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="181">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D2" s="181">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E2" s="181">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F2" s="181">
+        <v>2E-3</v>
+      </c>
+      <c r="G2" s="181">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="H2" s="181">
+        <v>90</v>
+      </c>
+      <c r="I2" s="181">
+        <v>0</v>
+      </c>
+      <c r="J2" s="181">
+        <v>0</v>
+      </c>
+      <c r="N2" s="46"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="182" t="s">
+      <c r="B3" s="181" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="181">
+        <v>0.114</v>
+      </c>
+      <c r="D3" s="181">
+        <v>0.12</v>
+      </c>
+      <c r="E3" s="181">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="F3" s="181">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G3" s="181">
+        <v>0.12</v>
+      </c>
+      <c r="H3" s="181">
+        <v>32</v>
+      </c>
+      <c r="I3" s="181">
+        <v>0</v>
+      </c>
+      <c r="J3" s="181">
+        <v>0</v>
+      </c>
+      <c r="N3" s="46"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="181" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="182" t="s">
+      <c r="B4" s="181" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="181">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D4" s="181">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E4" s="181">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F4" s="181">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G4" s="181">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H4" s="181">
+        <v>24</v>
+      </c>
+      <c r="I4" s="181">
+        <v>0</v>
+      </c>
+      <c r="J4" s="181">
+        <v>0</v>
+      </c>
+      <c r="N4" s="46"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="181" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="182" t="s">
+      <c r="B5" s="181" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="181">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D5" s="181">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E5" s="181">
+        <v>0.105</v>
+      </c>
+      <c r="F5" s="181">
+        <v>2E-3</v>
+      </c>
+      <c r="G5" s="181">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="H5" s="181">
+        <v>107</v>
+      </c>
+      <c r="I5" s="181">
+        <v>0</v>
+      </c>
+      <c r="J5" s="181">
+        <v>0</v>
+      </c>
+      <c r="N5" s="46"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="181" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="184" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="183" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="182" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="185" t="s">
-        <v>93</v>
-      </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="173"/>
-      <c r="T1" s="173"/>
-      <c r="U1" s="173"/>
-      <c r="V1" s="173"/>
-      <c r="W1" s="173"/>
-      <c r="X1" s="173"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="206" t="s">
+      <c r="B6" s="181" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="181">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D6" s="181">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E6" s="181">
+        <v>0.06</v>
+      </c>
+      <c r="F6" s="181">
+        <v>2E-3</v>
+      </c>
+      <c r="G6" s="181">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H6" s="181">
+        <v>180</v>
+      </c>
+      <c r="I6" s="181">
+        <v>0</v>
+      </c>
+      <c r="J6" s="181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="181" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="181" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="181">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D7" s="181">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="E7" s="181">
+        <v>0.11</v>
+      </c>
+      <c r="F7" s="181">
+        <v>0.01</v>
+      </c>
+      <c r="G7" s="181">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="H7" s="181">
+        <v>148</v>
+      </c>
+      <c r="I7" s="181">
+        <v>0</v>
+      </c>
+      <c r="J7" s="181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="181" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="181" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="181">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D8" s="181">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E8" s="181">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F8" s="181">
+        <v>2E-3</v>
+      </c>
+      <c r="G8" s="181">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H8" s="181">
+        <v>107</v>
+      </c>
+      <c r="I8" s="181">
+        <v>0</v>
+      </c>
+      <c r="J8" s="181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="181" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="181" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="181">
+        <v>0.03</v>
+      </c>
+      <c r="D9" s="181">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E9" s="181">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F9" s="181">
+        <v>2E-3</v>
+      </c>
+      <c r="G9" s="181">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H9" s="181">
+        <v>60</v>
+      </c>
+      <c r="I9" s="181">
+        <v>0</v>
+      </c>
+      <c r="J9" s="181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="181" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="181" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="181">
+        <v>0.03</v>
+      </c>
+      <c r="D10" s="181">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E10" s="181">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F10" s="181">
+        <v>2E-3</v>
+      </c>
+      <c r="G10" s="181">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H10" s="181">
+        <v>32</v>
+      </c>
+      <c r="I10" s="181">
+        <v>0</v>
+      </c>
+      <c r="J10" s="181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="181" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="181" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="181">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D11" s="181">
+        <v>0.03</v>
+      </c>
+      <c r="E11" s="181">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F11" s="181">
+        <v>2E-3</v>
+      </c>
+      <c r="G11" s="181">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H11" s="181">
+        <v>32</v>
+      </c>
+      <c r="I11" s="181">
+        <v>0</v>
+      </c>
+      <c r="J11" s="181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="181" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="206" t="s">
+      <c r="B12" s="181" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="181">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D12" s="181">
+        <v>0.153</v>
+      </c>
+      <c r="E12" s="181">
+        <v>0.318</v>
+      </c>
+      <c r="F12" s="181">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G12" s="181">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="H12" s="181">
+        <v>90</v>
+      </c>
+      <c r="I12" s="181">
+        <v>0</v>
+      </c>
+      <c r="J12" s="181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="181" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="181" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="181">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D13" s="181">
+        <v>0.03</v>
+      </c>
+      <c r="E13" s="181">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F13" s="181">
+        <v>2E-3</v>
+      </c>
+      <c r="G13" s="181">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H13" s="181">
+        <v>90</v>
+      </c>
+      <c r="I13" s="181">
+        <v>0</v>
+      </c>
+      <c r="J13" s="181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f>SUM(H2:H13)*3</f>
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="169" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="171" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="169" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="169" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="169" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="169" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="169" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="170" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="169" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="171" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="175" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="216" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="216" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="216">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D18" s="216">
+        <v>0.08</v>
+      </c>
+      <c r="E18" s="216">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F18" s="216">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G18" s="216">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="H18" s="216">
+        <v>1081</v>
+      </c>
+      <c r="I18" s="216">
+        <v>0</v>
+      </c>
+      <c r="J18" s="216">
+        <v>0</v>
+      </c>
+      <c r="O18" s="182" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" s="182" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q18" s="182">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R18" s="182">
+        <v>7.8E-2</v>
+      </c>
+      <c r="S18" s="182">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="T18" s="182">
+        <v>2E-3</v>
+      </c>
+      <c r="U18" s="182">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="V18" s="182">
+        <v>283</v>
+      </c>
+      <c r="W18" s="182">
+        <v>0</v>
+      </c>
+      <c r="X18" s="182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="216" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="216" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="216">
+        <v>0.115</v>
+      </c>
+      <c r="D19" s="216">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="E19" s="216">
+        <v>3.9340000000000002</v>
+      </c>
+      <c r="F19" s="216">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="G19" s="216">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="H19" s="216">
+        <v>388</v>
+      </c>
+      <c r="I19" s="216">
+        <v>0</v>
+      </c>
+      <c r="J19" s="216">
+        <v>0</v>
+      </c>
+      <c r="O19" s="182" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" s="182" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q19" s="182">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="R19" s="182">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="S19" s="182">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="T19" s="182">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U19" s="182">
+        <v>0.121</v>
+      </c>
+      <c r="V19" s="182">
+        <v>102</v>
+      </c>
+      <c r="W19" s="182">
+        <v>0</v>
+      </c>
+      <c r="X19" s="182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="216" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="216" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="216">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D20" s="216">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E20" s="216">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="F20" s="216">
+        <v>0.05</v>
+      </c>
+      <c r="G20" s="216">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="H20" s="216">
+        <v>280</v>
+      </c>
+      <c r="I20" s="216">
+        <v>0</v>
+      </c>
+      <c r="J20" s="216">
+        <v>0</v>
+      </c>
+      <c r="O20" s="182" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" s="182" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q20" s="182">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="R20" s="182">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S20" s="182">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="T20" s="182">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="U20" s="182">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="V20" s="182">
+        <v>74</v>
+      </c>
+      <c r="W20" s="182">
+        <v>0</v>
+      </c>
+      <c r="X20" s="182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="216" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="216" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="216">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D21" s="216">
+        <v>0.1</v>
+      </c>
+      <c r="E21" s="216">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="F21" s="216">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G21" s="216">
+        <v>0.106</v>
+      </c>
+      <c r="H21" s="216">
+        <v>1284</v>
+      </c>
+      <c r="I21" s="216">
+        <v>0</v>
+      </c>
+      <c r="J21" s="216">
+        <v>0</v>
+      </c>
+      <c r="O21" s="182" t="s">
+        <v>73</v>
+      </c>
+      <c r="P21" s="182" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q21" s="182">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="R21" s="182">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="S21" s="182">
+        <v>0.104</v>
+      </c>
+      <c r="T21" s="182">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="U21" s="182">
+        <v>0.1</v>
+      </c>
+      <c r="V21" s="182">
+        <v>336</v>
+      </c>
+      <c r="W21" s="182">
+        <v>0</v>
+      </c>
+      <c r="X21" s="182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="216" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="216" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="216">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D22" s="216">
+        <v>0.191</v>
+      </c>
+      <c r="E22" s="216">
+        <v>4.5019999999999998</v>
+      </c>
+      <c r="F22" s="216">
+        <v>0.499</v>
+      </c>
+      <c r="G22" s="216">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="H22" s="216">
+        <v>2157</v>
+      </c>
+      <c r="I22" s="216">
+        <v>0</v>
+      </c>
+      <c r="J22" s="216">
+        <v>0</v>
+      </c>
+      <c r="O22" s="182" t="s">
+        <v>74</v>
+      </c>
+      <c r="P22" s="182" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q22" s="182">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="R22" s="182">
+        <v>5.5E-2</v>
+      </c>
+      <c r="S22" s="182">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="T22" s="182">
+        <v>3.9E-2</v>
+      </c>
+      <c r="U22" s="182">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="V22" s="182">
+        <v>566</v>
+      </c>
+      <c r="W22" s="182">
+        <v>0</v>
+      </c>
+      <c r="X22" s="182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="216" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="206">
+      <c r="B23" s="216" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="216">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D23" s="216">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="E23" s="216">
+        <v>4.8819999999999997</v>
+      </c>
+      <c r="F23" s="216">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="G23" s="216">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="H23" s="216">
+        <v>1769</v>
+      </c>
+      <c r="I23" s="216">
+        <v>0</v>
+      </c>
+      <c r="J23" s="216">
+        <v>0</v>
+      </c>
+      <c r="O23" s="182" t="s">
+        <v>75</v>
+      </c>
+      <c r="P23" s="182" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q23" s="182">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="R23" s="182">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S23" s="182">
+        <v>1.02</v>
+      </c>
+      <c r="T23" s="182">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="U23" s="182">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="V23" s="182">
+        <v>464</v>
+      </c>
+      <c r="W23" s="182">
+        <v>0</v>
+      </c>
+      <c r="X23" s="182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="216" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="216" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="216">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D24" s="216">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E24" s="216">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="F24" s="216">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G24" s="216">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H24" s="216">
+        <v>1287</v>
+      </c>
+      <c r="I24" s="216">
+        <v>0</v>
+      </c>
+      <c r="J24" s="216">
+        <v>0</v>
+      </c>
+      <c r="O24" s="182" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24" s="182" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q24" s="182">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="R24" s="182">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="S24" s="182">
+        <v>0.216</v>
+      </c>
+      <c r="T24" s="182">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U24" s="182">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="V24" s="182">
+        <v>337</v>
+      </c>
+      <c r="W24" s="182">
+        <v>0</v>
+      </c>
+      <c r="X24" s="182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="216" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="216" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="216">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D25" s="216">
+        <v>0.04</v>
+      </c>
+      <c r="E25" s="216">
+        <v>1.0369999999999999</v>
+      </c>
+      <c r="F25" s="216">
+        <v>0.05</v>
+      </c>
+      <c r="G25" s="216">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H25" s="216">
+        <v>721</v>
+      </c>
+      <c r="I25" s="216">
+        <v>0</v>
+      </c>
+      <c r="J25" s="216">
+        <v>0</v>
+      </c>
+      <c r="O25" s="182" t="s">
+        <v>77</v>
+      </c>
+      <c r="P25" s="182" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q25" s="182">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="R25" s="182">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="S25" s="182">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="T25" s="182">
+        <v>0.01</v>
+      </c>
+      <c r="U25" s="182">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="V25" s="182">
+        <v>188</v>
+      </c>
+      <c r="W25" s="182">
+        <v>0</v>
+      </c>
+      <c r="X25" s="182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="216" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="216" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="216">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D26" s="216">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E26" s="216">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="F26" s="216">
+        <v>0.03</v>
+      </c>
+      <c r="G26" s="216">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H26" s="216">
+        <v>389</v>
+      </c>
+      <c r="I26" s="216">
+        <v>0</v>
+      </c>
+      <c r="J26" s="216">
+        <v>0</v>
+      </c>
+      <c r="O26" s="182" t="s">
+        <v>78</v>
+      </c>
+      <c r="P26" s="182" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q26" s="182">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="R26" s="182">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="S26" s="182">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T26" s="182">
+        <v>2E-3</v>
+      </c>
+      <c r="U26" s="182">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="V26" s="182">
+        <v>102</v>
+      </c>
+      <c r="W26" s="182">
+        <v>0</v>
+      </c>
+      <c r="X26" s="182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="216" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="216" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="216">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D27" s="216">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E27" s="216">
+        <v>1.875</v>
+      </c>
+      <c r="F27" s="216">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="G27" s="216">
+        <v>0.121</v>
+      </c>
+      <c r="H27" s="216">
+        <v>388</v>
+      </c>
+      <c r="I27" s="216">
+        <v>0</v>
+      </c>
+      <c r="J27" s="216">
+        <v>0</v>
+      </c>
+      <c r="O27" s="182" t="s">
+        <v>79</v>
+      </c>
+      <c r="P27" s="182" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q27" s="182">
+        <v>2.7E-2</v>
+      </c>
+      <c r="R27" s="182">
+        <v>0.03</v>
+      </c>
+      <c r="S27" s="182">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="T27" s="182">
+        <v>2E-3</v>
+      </c>
+      <c r="U27" s="182">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="V27" s="182">
+        <v>102</v>
+      </c>
+      <c r="W27" s="182">
+        <v>0</v>
+      </c>
+      <c r="X27" s="182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="216" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="216" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="216">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D28" s="216">
+        <v>0.187</v>
+      </c>
+      <c r="E28" s="216">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="F28" s="216">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="G28" s="216">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="H28" s="216">
+        <v>1077</v>
+      </c>
+      <c r="I28" s="216">
+        <v>0</v>
+      </c>
+      <c r="J28" s="216">
+        <v>0</v>
+      </c>
+      <c r="O28" s="182" t="s">
+        <v>80</v>
+      </c>
+      <c r="P28" s="182" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q28" s="182">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="R28" s="182">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="S28" s="182">
+        <v>0.5</v>
+      </c>
+      <c r="T28" s="182">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="U28" s="182">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="V28" s="182">
+        <v>283</v>
+      </c>
+      <c r="W28" s="182">
+        <v>0</v>
+      </c>
+      <c r="X28" s="182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="216" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="216" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="216">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D29" s="216">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E29" s="216">
+        <v>0.05</v>
+      </c>
+      <c r="F29" s="216">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G29" s="216">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H29" s="216">
+        <v>1081</v>
+      </c>
+      <c r="I29" s="216">
+        <v>0</v>
+      </c>
+      <c r="J29" s="216">
+        <v>0</v>
+      </c>
+      <c r="O29" s="182" t="s">
+        <v>81</v>
+      </c>
+      <c r="P29" s="182" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q29" s="182">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="R29" s="182">
+        <v>0.03</v>
+      </c>
+      <c r="S29" s="182">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="T29" s="182">
+        <v>1E-3</v>
+      </c>
+      <c r="U29" s="182">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="V29" s="182">
+        <v>283</v>
+      </c>
+      <c r="W29" s="182">
+        <v>0</v>
+      </c>
+      <c r="X29" s="182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <f>SUM(H18:H29)+SUM(I18:I29)</f>
+        <v>11902</v>
+      </c>
+      <c r="V30">
+        <f>SUM(V18:V29)</f>
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="178" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="180" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="178" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="180" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="178" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="180" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="178" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33" s="180" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="178" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="179" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="176" t="s">
+        <v>84</v>
+      </c>
+      <c r="N33" s="177"/>
+      <c r="O33" s="177"/>
+      <c r="P33" s="177"/>
+      <c r="Q33" s="177"/>
+      <c r="R33" s="177"/>
+      <c r="S33" s="177"/>
+      <c r="T33" s="177"/>
+      <c r="U33" s="177"/>
+      <c r="V33" s="177"/>
+      <c r="W33" s="177"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="215" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="182" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="182">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D2" s="206">
-        <v>7.8E-2</v>
-      </c>
-      <c r="E2" s="206">
+      <c r="D34" s="182">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="E34" s="182">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F34" s="182">
+        <v>2E-3</v>
+      </c>
+      <c r="G34" s="182">
+        <v>0.08</v>
+      </c>
+      <c r="H34" s="182">
+        <v>360</v>
+      </c>
+      <c r="I34" s="182">
+        <v>0</v>
+      </c>
+      <c r="J34" s="182">
+        <v>0</v>
+      </c>
+      <c r="N34" s="177"/>
+      <c r="O34" s="177"/>
+      <c r="P34" s="177"/>
+      <c r="Q34" s="177"/>
+      <c r="R34" s="177"/>
+      <c r="S34" s="177"/>
+      <c r="T34" s="177"/>
+      <c r="U34" s="177"/>
+      <c r="V34" s="177"/>
+      <c r="W34" s="177"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="215" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="182" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="182">
+        <v>0.115</v>
+      </c>
+      <c r="D35" s="182">
+        <v>0.156</v>
+      </c>
+      <c r="E35" s="182">
+        <v>1.28</v>
+      </c>
+      <c r="F35" s="182">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G35" s="182">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="H35" s="182">
+        <v>129</v>
+      </c>
+      <c r="I35" s="182">
+        <v>0</v>
+      </c>
+      <c r="J35" s="182">
+        <v>0</v>
+      </c>
+      <c r="N35" s="177"/>
+      <c r="O35" s="177"/>
+      <c r="P35" s="177"/>
+      <c r="Q35" s="177"/>
+      <c r="R35" s="177"/>
+      <c r="S35" s="177"/>
+      <c r="T35" s="177"/>
+      <c r="U35" s="177"/>
+      <c r="V35" s="177"/>
+      <c r="W35" s="177"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="182" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="182" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="182">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D36" s="182">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E36" s="182">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="F2" s="206">
+      <c r="F36" s="182">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G36" s="182">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="H36" s="182">
+        <v>94</v>
+      </c>
+      <c r="I36" s="182">
+        <v>0</v>
+      </c>
+      <c r="J36" s="182">
+        <v>0</v>
+      </c>
+      <c r="N36" s="177"/>
+      <c r="O36" s="177"/>
+      <c r="P36" s="177"/>
+      <c r="Q36" s="177"/>
+      <c r="R36" s="177"/>
+      <c r="S36" s="177"/>
+      <c r="T36" s="177"/>
+      <c r="U36" s="177"/>
+      <c r="V36" s="177"/>
+      <c r="W36" s="177"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="182" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="182" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="182">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D37" s="182">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E37" s="182">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F37" s="182">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G37" s="182">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="H37" s="182">
+        <v>428</v>
+      </c>
+      <c r="I37" s="182">
+        <v>0</v>
+      </c>
+      <c r="J37" s="182">
+        <v>0</v>
+      </c>
+      <c r="N37" s="177"/>
+      <c r="O37" s="177"/>
+      <c r="P37" s="177"/>
+      <c r="Q37" s="177"/>
+      <c r="R37" s="177"/>
+      <c r="S37" s="177"/>
+      <c r="T37" s="177"/>
+      <c r="U37" s="177"/>
+      <c r="V37" s="177"/>
+      <c r="W37" s="177"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="182" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="182" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="182">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D38" s="182">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="E38" s="182">
+        <v>1.538</v>
+      </c>
+      <c r="F38" s="182">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="G38" s="182">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H38" s="182">
+        <v>722</v>
+      </c>
+      <c r="I38" s="182">
+        <v>0</v>
+      </c>
+      <c r="J38" s="182">
+        <v>0</v>
+      </c>
+      <c r="N38" s="177"/>
+      <c r="O38" s="177"/>
+      <c r="P38" s="177"/>
+      <c r="Q38" s="177"/>
+      <c r="R38" s="177"/>
+      <c r="S38" s="177"/>
+      <c r="T38" s="177"/>
+      <c r="U38" s="177"/>
+      <c r="V38" s="177"/>
+      <c r="W38" s="177"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="215" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="182" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="182">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="D39" s="182">
+        <v>0.108</v>
+      </c>
+      <c r="E39" s="182">
+        <v>2.0659999999999998</v>
+      </c>
+      <c r="F39" s="182">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="G39" s="182">
+        <v>0.105</v>
+      </c>
+      <c r="H39" s="182">
+        <v>591</v>
+      </c>
+      <c r="I39" s="182">
+        <v>0</v>
+      </c>
+      <c r="J39" s="182">
+        <v>0</v>
+      </c>
+      <c r="N39" s="177"/>
+      <c r="O39" s="177"/>
+      <c r="P39" s="177"/>
+      <c r="Q39" s="177"/>
+      <c r="R39" s="177"/>
+      <c r="S39" s="177"/>
+      <c r="T39" s="177"/>
+      <c r="U39" s="177"/>
+      <c r="V39" s="177"/>
+      <c r="W39" s="177"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="182" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="182" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="182">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D40" s="182">
+        <v>0.05</v>
+      </c>
+      <c r="E40" s="182">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F40" s="182">
         <v>2E-3</v>
       </c>
-      <c r="G2" s="206">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="H2" s="206">
-        <v>90</v>
-      </c>
-      <c r="I2" s="206">
-        <v>0</v>
-      </c>
-      <c r="J2" s="206">
-        <v>0</v>
-      </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="173"/>
-      <c r="Q2" s="173"/>
-      <c r="R2" s="173"/>
-      <c r="S2" s="173"/>
-      <c r="T2" s="173"/>
-      <c r="U2" s="173"/>
-      <c r="V2" s="173"/>
-      <c r="W2" s="173"/>
-      <c r="X2" s="173"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="206" t="s">
+      <c r="G40" s="182">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H40" s="182">
+        <v>428</v>
+      </c>
+      <c r="I40" s="182">
+        <v>0</v>
+      </c>
+      <c r="J40" s="182">
+        <v>0</v>
+      </c>
+      <c r="N40" s="177"/>
+      <c r="O40" s="177"/>
+      <c r="P40" s="177"/>
+      <c r="Q40" s="177"/>
+      <c r="R40" s="177"/>
+      <c r="S40" s="177"/>
+      <c r="T40" s="177"/>
+      <c r="U40" s="177"/>
+      <c r="V40" s="177"/>
+      <c r="W40" s="177"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="182" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="182" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="182">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D41" s="182">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E41" s="182">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F41" s="182">
+        <v>2E-3</v>
+      </c>
+      <c r="G41" s="182">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H41" s="182">
+        <v>240</v>
+      </c>
+      <c r="I41" s="182">
+        <v>0</v>
+      </c>
+      <c r="J41" s="182">
+        <v>0</v>
+      </c>
+      <c r="N41" s="177"/>
+      <c r="O41" s="177"/>
+      <c r="P41" s="177"/>
+      <c r="Q41" s="177"/>
+      <c r="R41" s="177"/>
+      <c r="S41" s="177"/>
+      <c r="T41" s="177"/>
+      <c r="U41" s="177"/>
+      <c r="V41" s="177"/>
+      <c r="W41" s="177"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" s="182" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="182" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="182">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D42" s="182">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E42" s="182">
+        <v>0.04</v>
+      </c>
+      <c r="F42" s="182">
+        <v>2E-3</v>
+      </c>
+      <c r="G42" s="182">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H42" s="182">
+        <v>129</v>
+      </c>
+      <c r="I42" s="182">
+        <v>0</v>
+      </c>
+      <c r="J42" s="182">
+        <v>0</v>
+      </c>
+      <c r="N42" s="177"/>
+      <c r="O42" s="177"/>
+      <c r="P42" s="177"/>
+      <c r="Q42" s="177"/>
+      <c r="R42" s="177"/>
+      <c r="S42" s="177"/>
+      <c r="T42" s="177"/>
+      <c r="U42" s="177"/>
+      <c r="V42" s="177"/>
+      <c r="W42" s="177"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="182" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="182" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="182">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D43" s="182">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E43" s="182">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="F43" s="182">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G43" s="182">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H43" s="182">
+        <v>129</v>
+      </c>
+      <c r="I43" s="182">
+        <v>0</v>
+      </c>
+      <c r="J43" s="182">
+        <v>0</v>
+      </c>
+      <c r="N43" s="177"/>
+      <c r="O43" s="177"/>
+      <c r="P43" s="177"/>
+      <c r="Q43" s="177"/>
+      <c r="R43" s="177"/>
+      <c r="S43" s="177"/>
+      <c r="T43" s="177"/>
+      <c r="U43" s="177"/>
+      <c r="V43" s="177"/>
+      <c r="W43" s="177"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="182" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="182" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="182">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D44" s="182">
+        <v>0.159</v>
+      </c>
+      <c r="E44" s="182">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="F44" s="182">
+        <v>0.106</v>
+      </c>
+      <c r="G44" s="182">
+        <v>0.309</v>
+      </c>
+      <c r="H44" s="182">
+        <v>360</v>
+      </c>
+      <c r="I44" s="182">
+        <v>0</v>
+      </c>
+      <c r="J44" s="182">
+        <v>0</v>
+      </c>
+      <c r="N44" s="177"/>
+      <c r="O44" s="177"/>
+      <c r="P44" s="177"/>
+      <c r="Q44" s="177"/>
+      <c r="R44" s="177"/>
+      <c r="S44" s="177"/>
+      <c r="T44" s="177"/>
+      <c r="U44" s="177"/>
+      <c r="V44" s="177"/>
+      <c r="W44" s="177"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="182" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="206" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="206">
-        <v>0.114</v>
-      </c>
-      <c r="D3" s="206">
-        <v>0.12</v>
-      </c>
-      <c r="E3" s="206">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="F3" s="206">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="G3" s="206">
-        <v>0.12</v>
-      </c>
-      <c r="H3" s="206">
-        <v>32</v>
-      </c>
-      <c r="I3" s="206">
-        <v>0</v>
-      </c>
-      <c r="J3" s="206">
-        <v>0</v>
-      </c>
-      <c r="N3" s="53"/>
-      <c r="O3" s="173"/>
-      <c r="P3" s="173"/>
-      <c r="Q3" s="173"/>
-      <c r="R3" s="173"/>
-      <c r="S3" s="173"/>
-      <c r="T3" s="173"/>
-      <c r="U3" s="173"/>
-      <c r="V3" s="173"/>
-      <c r="W3" s="173"/>
-      <c r="X3" s="173"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="206" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="206" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="206">
-        <v>3.1E-2</v>
-      </c>
-      <c r="D4" s="206">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="E4" s="206">
-        <v>7.8E-2</v>
-      </c>
-      <c r="F4" s="206">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G4" s="206">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="H4" s="206">
-        <v>24</v>
-      </c>
-      <c r="I4" s="206">
-        <v>0</v>
-      </c>
-      <c r="J4" s="206">
-        <v>0</v>
-      </c>
-      <c r="N4" s="53"/>
-      <c r="O4" s="173"/>
-      <c r="P4" s="173"/>
-      <c r="Q4" s="173"/>
-      <c r="R4" s="173"/>
-      <c r="S4" s="173"/>
-      <c r="T4" s="173"/>
-      <c r="U4" s="173"/>
-      <c r="V4" s="173"/>
-      <c r="W4" s="173"/>
-      <c r="X4" s="173"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="206" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="206" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="206">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="D5" s="206">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="E5" s="206">
-        <v>0.105</v>
-      </c>
-      <c r="F5" s="206">
+      <c r="B45" s="182" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="182">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D45" s="182">
+        <v>0.03</v>
+      </c>
+      <c r="E45" s="182">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F45" s="182">
         <v>2E-3</v>
       </c>
-      <c r="G5" s="206">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="H5" s="206">
-        <v>107</v>
-      </c>
-      <c r="I5" s="206">
-        <v>0</v>
-      </c>
-      <c r="J5" s="206">
-        <v>0</v>
-      </c>
-      <c r="N5" s="53"/>
-      <c r="O5" s="173"/>
-      <c r="P5" s="173"/>
-      <c r="Q5" s="173"/>
-      <c r="R5" s="173"/>
-      <c r="S5" s="173"/>
-      <c r="T5" s="173"/>
-      <c r="U5" s="173"/>
-      <c r="V5" s="173"/>
-      <c r="W5" s="173"/>
-      <c r="X5" s="173"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="206" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="206" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="206">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="D6" s="206">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="E6" s="206">
-        <v>0.06</v>
-      </c>
-      <c r="F6" s="206">
-        <v>2E-3</v>
-      </c>
-      <c r="G6" s="206">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="H6" s="206">
-        <v>180</v>
-      </c>
-      <c r="I6" s="206">
-        <v>0</v>
-      </c>
-      <c r="J6" s="206">
-        <v>0</v>
-      </c>
-      <c r="O6" s="173"/>
-      <c r="P6" s="173"/>
-      <c r="Q6" s="173"/>
-      <c r="R6" s="173"/>
-      <c r="S6" s="173"/>
-      <c r="T6" s="173"/>
-      <c r="U6" s="173"/>
-      <c r="V6" s="173"/>
-      <c r="W6" s="173"/>
-      <c r="X6" s="173"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="206" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="206" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="206">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="D7" s="206">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="E7" s="206">
-        <v>0.11</v>
-      </c>
-      <c r="F7" s="206">
-        <v>0.01</v>
-      </c>
-      <c r="G7" s="206">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="H7" s="206">
-        <v>148</v>
-      </c>
-      <c r="I7" s="206">
-        <v>0</v>
-      </c>
-      <c r="J7" s="206">
-        <v>0</v>
-      </c>
-      <c r="O7" s="173"/>
-      <c r="P7" s="173"/>
-      <c r="Q7" s="173"/>
-      <c r="R7" s="173"/>
-      <c r="S7" s="173"/>
-      <c r="T7" s="173"/>
-      <c r="U7" s="173"/>
-      <c r="V7" s="173"/>
-      <c r="W7" s="173"/>
-      <c r="X7" s="173"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="206" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="206" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="206">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="D8" s="206">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="E8" s="206">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="F8" s="206">
-        <v>2E-3</v>
-      </c>
-      <c r="G8" s="206">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="H8" s="206">
-        <v>107</v>
-      </c>
-      <c r="I8" s="206">
-        <v>0</v>
-      </c>
-      <c r="J8" s="206">
-        <v>0</v>
-      </c>
-      <c r="O8" s="173"/>
-      <c r="P8" s="173"/>
-      <c r="Q8" s="173"/>
-      <c r="R8" s="173"/>
-      <c r="S8" s="173"/>
-      <c r="T8" s="173"/>
-      <c r="U8" s="173"/>
-      <c r="V8" s="173"/>
-      <c r="W8" s="173"/>
-      <c r="X8" s="173"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="206" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="206" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="206">
-        <v>0.03</v>
-      </c>
-      <c r="D9" s="206">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="E9" s="206">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="F9" s="206">
-        <v>2E-3</v>
-      </c>
-      <c r="G9" s="206">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="H9" s="206">
-        <v>60</v>
-      </c>
-      <c r="I9" s="206">
-        <v>0</v>
-      </c>
-      <c r="J9" s="206">
-        <v>0</v>
-      </c>
-      <c r="O9" s="173"/>
-      <c r="P9" s="173"/>
-      <c r="Q9" s="173"/>
-      <c r="R9" s="173"/>
-      <c r="S9" s="173"/>
-      <c r="T9" s="173"/>
-      <c r="U9" s="173"/>
-      <c r="V9" s="173"/>
-      <c r="W9" s="173"/>
-      <c r="X9" s="173"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="206" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="206" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="206">
-        <v>0.03</v>
-      </c>
-      <c r="D10" s="206">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="E10" s="206">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="F10" s="206">
-        <v>2E-3</v>
-      </c>
-      <c r="G10" s="206">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="H10" s="206">
-        <v>32</v>
-      </c>
-      <c r="I10" s="206">
-        <v>0</v>
-      </c>
-      <c r="J10" s="206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="206" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="206" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="206">
-        <v>2.7E-2</v>
-      </c>
-      <c r="D11" s="206">
-        <v>0.03</v>
-      </c>
-      <c r="E11" s="206">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="F11" s="206">
-        <v>2E-3</v>
-      </c>
-      <c r="G11" s="206">
+      <c r="G45" s="182">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="H11" s="206">
-        <v>32</v>
-      </c>
-      <c r="I11" s="206">
-        <v>0</v>
-      </c>
-      <c r="J11" s="206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="206" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="206" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="206">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="D12" s="206">
-        <v>0.153</v>
-      </c>
-      <c r="E12" s="206">
-        <v>0.318</v>
-      </c>
-      <c r="F12" s="206">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="G12" s="206">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="H12" s="206">
-        <v>90</v>
-      </c>
-      <c r="I12" s="206">
-        <v>0</v>
-      </c>
-      <c r="J12" s="206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="206" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="206" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="206">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="D13" s="206">
-        <v>0.03</v>
-      </c>
-      <c r="E13" s="206">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="F13" s="206">
-        <v>2E-3</v>
-      </c>
-      <c r="G13" s="206">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="H13" s="206">
-        <v>90</v>
-      </c>
-      <c r="I13" s="206">
-        <v>0</v>
-      </c>
-      <c r="J13" s="206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="179" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="181" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="179" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="179" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="179" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="179" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="179" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="180" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="179" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="181" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" s="185" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="178" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="177" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="52">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="D18" s="52">
-        <v>7.8E-2</v>
-      </c>
-      <c r="E18" s="52">
-        <v>0.09</v>
-      </c>
-      <c r="F18" s="52">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G18" s="52">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="H18" s="52">
-        <v>270</v>
-      </c>
-      <c r="I18" s="52">
-        <v>0</v>
-      </c>
-      <c r="J18" s="176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="178" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="177" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="52">
-        <v>0.114</v>
-      </c>
-      <c r="D19" s="52">
-        <v>0.126</v>
-      </c>
-      <c r="E19" s="52">
-        <v>0.16</v>
-      </c>
-      <c r="F19" s="52">
-        <v>1.2E-2</v>
-      </c>
-      <c r="G19" s="52">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="H19" s="52">
-        <v>98</v>
-      </c>
-      <c r="I19" s="52">
-        <v>0</v>
-      </c>
-      <c r="J19" s="176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="178" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="177" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="52">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="D20" s="52">
-        <v>0.03</v>
-      </c>
-      <c r="E20" s="52">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="F20" s="52">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G20" s="52">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="H20" s="52">
-        <v>71</v>
-      </c>
-      <c r="I20" s="52">
-        <v>0</v>
-      </c>
-      <c r="J20" s="176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="178" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="177" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="52">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D21" s="52">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="E21" s="52">
-        <v>0.188</v>
-      </c>
-      <c r="F21" s="52">
-        <v>0.01</v>
-      </c>
-      <c r="G21" s="52">
-        <v>0.105</v>
-      </c>
-      <c r="H21" s="52">
-        <v>321</v>
-      </c>
-      <c r="I21" s="52">
-        <v>0</v>
-      </c>
-      <c r="J21" s="176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="178" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="177" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="52">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="D22" s="52">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="E22" s="52">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="F22" s="52">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G22" s="52">
-        <v>6.3E-2</v>
-      </c>
-      <c r="H22" s="52">
-        <v>541</v>
-      </c>
-      <c r="I22" s="52">
-        <v>0</v>
-      </c>
-      <c r="J22" s="176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="192" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="192" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="192">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="D23" s="192">
-        <v>0.9</v>
-      </c>
-      <c r="E23" s="192">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="F23" s="192">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="G23" s="192">
-        <v>0.111</v>
-      </c>
-      <c r="H23" s="192">
-        <v>444</v>
-      </c>
-      <c r="I23" s="192">
-        <v>0</v>
-      </c>
-      <c r="J23" s="192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="178" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="177" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="52">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="D24" s="52">
-        <v>5.5E-2</v>
-      </c>
-      <c r="E24" s="52">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="F24" s="52">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G24" s="52">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="H24" s="52">
-        <v>341</v>
-      </c>
-      <c r="I24" s="52">
-        <v>0</v>
-      </c>
-      <c r="J24" s="176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="178" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="177" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="52">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="D25" s="52">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="E25" s="52">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F25" s="52">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G25" s="52">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="H25" s="52">
-        <v>180</v>
-      </c>
-      <c r="I25" s="52">
-        <v>0</v>
-      </c>
-      <c r="J25" s="176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="178" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="177" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="52">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="D26" s="52">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="E26" s="52">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="F26" s="52">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G26" s="52">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="H26" s="52">
-        <v>98</v>
-      </c>
-      <c r="I26" s="52">
-        <v>0</v>
-      </c>
-      <c r="J26" s="176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="178" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="177" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="52">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="D27" s="52">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="E27" s="52">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F27" s="52">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G27" s="52">
-        <v>0.04</v>
-      </c>
-      <c r="H27" s="52">
-        <v>98</v>
-      </c>
-      <c r="I27" s="52">
-        <v>0</v>
-      </c>
-      <c r="J27" s="176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="178" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="177" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="52">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="D28" s="52">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="E28" s="52">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="F28" s="52">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="G28" s="52">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="H28" s="52">
-        <v>272</v>
-      </c>
-      <c r="I28" s="52">
-        <v>0</v>
-      </c>
-      <c r="J28" s="176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="178" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" s="177" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="52">
-        <v>2.7E-2</v>
-      </c>
-      <c r="D29" s="52">
-        <v>3.1E-2</v>
-      </c>
-      <c r="E29" s="52">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="F29" s="52">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G29" s="52">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="H29" s="52">
-        <v>270</v>
-      </c>
-      <c r="I29" s="52">
-        <v>0</v>
-      </c>
-      <c r="J29" s="176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="194" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="198" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="194" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="198" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="194" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="198" t="s">
-        <v>73</v>
-      </c>
-      <c r="G33" s="194" t="s">
-        <v>74</v>
-      </c>
-      <c r="H33" s="198" t="s">
-        <v>28</v>
-      </c>
-      <c r="I33" s="194" t="s">
-        <v>29</v>
-      </c>
-      <c r="J33" s="196" t="s">
-        <v>30</v>
-      </c>
-      <c r="K33" s="186" t="s">
-        <v>94</v>
-      </c>
-      <c r="N33" s="188"/>
-      <c r="O33" s="188"/>
-      <c r="P33" s="188"/>
-      <c r="Q33" s="188"/>
-      <c r="R33" s="188"/>
-      <c r="S33" s="188"/>
-      <c r="T33" s="188"/>
-      <c r="U33" s="188"/>
-      <c r="V33" s="188"/>
-      <c r="W33" s="188"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="195" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="200" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="189">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D34" s="189">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="E34" s="189">
-        <v>1.157</v>
-      </c>
-      <c r="F34" s="189">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="G34" s="189">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="H34" s="189">
+      <c r="H45" s="182">
         <v>360</v>
       </c>
-      <c r="I34" s="189">
-        <v>0</v>
-      </c>
-      <c r="J34" s="197">
-        <v>0</v>
-      </c>
-      <c r="N34" s="188"/>
-      <c r="O34" s="188"/>
-      <c r="P34" s="188"/>
-      <c r="Q34" s="188"/>
-      <c r="R34" s="188"/>
-      <c r="S34" s="188"/>
-      <c r="T34" s="188"/>
-      <c r="U34" s="188"/>
-      <c r="V34" s="188"/>
-      <c r="W34" s="188"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="195" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" s="200" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="189">
-        <v>0.115</v>
-      </c>
-      <c r="D35" s="189">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="E35" s="189">
-        <v>1.712</v>
-      </c>
-      <c r="F35" s="189">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="G35" s="189">
-        <v>0.151</v>
-      </c>
-      <c r="H35" s="189">
-        <v>130</v>
-      </c>
-      <c r="I35" s="189">
-        <v>0</v>
-      </c>
-      <c r="J35" s="197">
-        <v>0</v>
-      </c>
-      <c r="N35" s="188"/>
-      <c r="O35" s="188"/>
-      <c r="P35" s="188"/>
-      <c r="Q35" s="188"/>
-      <c r="R35" s="188"/>
-      <c r="S35" s="188"/>
-      <c r="T35" s="188"/>
-      <c r="U35" s="188"/>
-      <c r="V35" s="188"/>
-      <c r="W35" s="188"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="195" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" s="200" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="189">
-        <v>5.5E-2</v>
-      </c>
-      <c r="D36" s="189">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="E36" s="189">
-        <v>0.08</v>
-      </c>
-      <c r="F36" s="189">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G36" s="189">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="H36" s="189">
-        <v>94</v>
-      </c>
-      <c r="I36" s="189">
-        <v>0</v>
-      </c>
-      <c r="J36" s="197">
-        <v>0</v>
-      </c>
-      <c r="N36" s="188"/>
-      <c r="O36" s="188"/>
-      <c r="P36" s="188"/>
-      <c r="Q36" s="188"/>
-      <c r="R36" s="188"/>
-      <c r="S36" s="188"/>
-      <c r="T36" s="188"/>
-      <c r="U36" s="188"/>
-      <c r="V36" s="188"/>
-      <c r="W36" s="188"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="195" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="200" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="189">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="D37" s="189">
-        <v>0.1</v>
-      </c>
-      <c r="E37" s="189">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="F37" s="189">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="G37" s="189">
-        <v>0.104</v>
-      </c>
-      <c r="H37" s="189">
-        <v>360</v>
-      </c>
-      <c r="I37" s="189">
-        <v>0</v>
-      </c>
-      <c r="J37" s="197">
-        <v>0</v>
-      </c>
-      <c r="N37" s="188"/>
-      <c r="O37" s="188"/>
-      <c r="P37" s="188"/>
-      <c r="Q37" s="188"/>
-      <c r="R37" s="188"/>
-      <c r="S37" s="188"/>
-      <c r="T37" s="188"/>
-      <c r="U37" s="188"/>
-      <c r="V37" s="188"/>
-      <c r="W37" s="188"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="195" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" s="200" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="189">
-        <v>4.7E-2</v>
-      </c>
-      <c r="D38" s="189">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="E38" s="189">
-        <v>1.597</v>
-      </c>
-      <c r="F38" s="189">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="G38" s="189">
-        <v>6.3E-2</v>
-      </c>
-      <c r="H38" s="189">
-        <v>721</v>
-      </c>
-      <c r="I38" s="189">
-        <v>0</v>
-      </c>
-      <c r="J38" s="197">
-        <v>0</v>
-      </c>
-      <c r="N38" s="188"/>
-      <c r="O38" s="188"/>
-      <c r="P38" s="188"/>
-      <c r="Q38" s="188"/>
-      <c r="R38" s="188"/>
-      <c r="S38" s="188"/>
-      <c r="T38" s="188"/>
-      <c r="U38" s="188"/>
-      <c r="V38" s="188"/>
-      <c r="W38" s="188"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="195" t="s">
-        <v>85</v>
-      </c>
-      <c r="B39" s="200" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="189">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="D39" s="189">
-        <v>0.107</v>
-      </c>
-      <c r="E39" s="189">
-        <v>1.845</v>
-      </c>
-      <c r="F39" s="189">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="G39" s="189">
-        <v>0.108</v>
-      </c>
-      <c r="H39" s="189">
-        <v>591</v>
-      </c>
-      <c r="I39" s="189">
-        <v>0</v>
-      </c>
-      <c r="J39" s="197">
-        <v>0</v>
-      </c>
-      <c r="N39" s="188"/>
-      <c r="O39" s="188"/>
-      <c r="P39" s="188"/>
-      <c r="Q39" s="188"/>
-      <c r="R39" s="188"/>
-      <c r="S39" s="188"/>
-      <c r="T39" s="188"/>
-      <c r="U39" s="188"/>
-      <c r="V39" s="188"/>
-      <c r="W39" s="188"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="195" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="200" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="189">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="D40" s="189">
-        <v>5.5E-2</v>
-      </c>
-      <c r="E40" s="189">
-        <v>6.3E-2</v>
-      </c>
-      <c r="F40" s="189">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G40" s="189">
-        <v>0.06</v>
-      </c>
-      <c r="H40" s="189">
-        <v>308</v>
-      </c>
-      <c r="I40" s="189">
-        <v>0</v>
-      </c>
-      <c r="J40" s="197">
-        <v>0</v>
-      </c>
-      <c r="N40" s="188"/>
-      <c r="O40" s="188"/>
-      <c r="P40" s="188"/>
-      <c r="Q40" s="188"/>
-      <c r="R40" s="188"/>
-      <c r="S40" s="188"/>
-      <c r="T40" s="188"/>
-      <c r="U40" s="188"/>
-      <c r="V40" s="188"/>
-      <c r="W40" s="188"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="195" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" s="200" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="189">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="D41" s="189">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E41" s="189">
-        <v>4.7E-2</v>
-      </c>
-      <c r="F41" s="189">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G41" s="189">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="H41" s="189">
-        <v>240</v>
-      </c>
-      <c r="I41" s="189">
-        <v>0</v>
-      </c>
-      <c r="J41" s="197">
-        <v>0</v>
-      </c>
-      <c r="N41" s="188"/>
-      <c r="O41" s="188"/>
-      <c r="P41" s="188"/>
-      <c r="Q41" s="188"/>
-      <c r="R41" s="188"/>
-      <c r="S41" s="188"/>
-      <c r="T41" s="188"/>
-      <c r="U41" s="188"/>
-      <c r="V41" s="188"/>
-      <c r="W41" s="188"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="195" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="200" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="189">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="D42" s="189">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E42" s="189">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="F42" s="189">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G42" s="189">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="H42" s="189">
-        <v>130</v>
-      </c>
-      <c r="I42" s="189">
-        <v>0</v>
-      </c>
-      <c r="J42" s="197">
-        <v>0</v>
-      </c>
-      <c r="N42" s="188"/>
-      <c r="O42" s="188"/>
-      <c r="P42" s="188"/>
-      <c r="Q42" s="188"/>
-      <c r="R42" s="188"/>
-      <c r="S42" s="188"/>
-      <c r="T42" s="188"/>
-      <c r="U42" s="188"/>
-      <c r="V42" s="188"/>
-      <c r="W42" s="188"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="195" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="200" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="189">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="D43" s="189">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="E43" s="189">
-        <v>0.114</v>
-      </c>
-      <c r="F43" s="189">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="G43" s="189">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="H43" s="189">
-        <v>130</v>
-      </c>
-      <c r="I43" s="189">
-        <v>0</v>
-      </c>
-      <c r="J43" s="197">
-        <v>0</v>
-      </c>
-      <c r="N43" s="188"/>
-      <c r="O43" s="188"/>
-      <c r="P43" s="188"/>
-      <c r="Q43" s="188"/>
-      <c r="R43" s="188"/>
-      <c r="S43" s="188"/>
-      <c r="T43" s="188"/>
-      <c r="U43" s="188"/>
-      <c r="V43" s="188"/>
-      <c r="W43" s="188"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="195" t="s">
-        <v>90</v>
-      </c>
-      <c r="B44" s="200" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="189">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="D44" s="189">
-        <v>0.192</v>
-      </c>
-      <c r="E44" s="189">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="F44" s="189">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="G44" s="189">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="H44" s="189">
-        <v>231</v>
-      </c>
-      <c r="I44" s="189">
-        <v>0</v>
-      </c>
-      <c r="J44" s="197">
-        <v>0</v>
-      </c>
-      <c r="N44" s="188"/>
-      <c r="O44" s="188"/>
-      <c r="P44" s="188"/>
-      <c r="Q44" s="188"/>
-      <c r="R44" s="188"/>
-      <c r="S44" s="188"/>
-      <c r="T44" s="188"/>
-      <c r="U44" s="188"/>
-      <c r="V44" s="188"/>
-      <c r="W44" s="188"/>
-    </row>
-    <row r="45" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="190" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="199" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="193">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="D45" s="193">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="E45" s="193">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="F45" s="193">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G45" s="193">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="H45" s="193">
-        <v>360</v>
-      </c>
-      <c r="I45" s="193">
-        <v>0</v>
-      </c>
-      <c r="J45" s="191">
-        <v>0</v>
-      </c>
-      <c r="N45" s="188"/>
-      <c r="O45" s="188"/>
-      <c r="P45" s="188"/>
-      <c r="Q45" s="188"/>
-      <c r="R45" s="188"/>
-      <c r="S45" s="188"/>
-      <c r="T45" s="188"/>
-      <c r="U45" s="188"/>
-      <c r="V45" s="188"/>
-      <c r="W45" s="188"/>
+      <c r="I45" s="182">
+        <v>0</v>
+      </c>
+      <c r="J45" s="182">
+        <v>0</v>
+      </c>
+      <c r="N45" s="177"/>
+      <c r="O45" s="177"/>
+      <c r="P45" s="177"/>
+      <c r="Q45" s="177"/>
+      <c r="R45" s="177"/>
+      <c r="S45" s="177"/>
+      <c r="T45" s="177"/>
+      <c r="U45" s="177"/>
+      <c r="V45" s="177"/>
+      <c r="W45" s="177"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H46" s="11"/>
+      <c r="H46" s="4">
+        <f>SUM(H34:H45)*3</f>
+        <v>11910</v>
+      </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H47" s="11"/>
+      <c r="H47" s="4"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H48" s="11"/>
+      <c r="H48" s="4"/>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H49" s="11"/>
+      <c r="H49" s="4"/>
     </row>
     <row r="50" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H50" s="11"/>
+      <c r="H50" s="4"/>
     </row>
     <row r="51" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H51" s="11"/>
+      <c r="H51" s="4"/>
     </row>
     <row r="52" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H52" s="11"/>
+      <c r="H52" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B8:AB58"/>
+  <dimension ref="B8:AB63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
@@ -6837,710 +7239,922 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="205" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="205"/>
-      <c r="D8" s="205"/>
-      <c r="E8" s="205"/>
-      <c r="F8" s="205"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="B8" s="187" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="187"/>
+      <c r="D8" s="187"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="187"/>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="194" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="193" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="208" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="F10" s="209" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="187">
-        <f>'Автоматизированный расчет'!G39*3*4</f>
+    </row>
+    <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="198" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="201" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="195">
+        <f>'Автоматизированный расчет'!G38 * 3 * 4</f>
+        <v>2160.0733174883962</v>
+      </c>
+      <c r="E11" s="205">
+        <f>SummaryReport!H38 * 3</f>
+        <v>2166</v>
+      </c>
+      <c r="F11" s="192">
+        <f>1-E11/D11</f>
+        <v>-2.7437413645268194E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="202" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="195">
+        <f>'Автоматизированный расчет'!G39 * 3 * 4</f>
         <v>1770.8841282992071</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E12" s="206">
         <f>SummaryReport!H39 * 3</f>
         <v>1773</v>
       </c>
-      <c r="F11" s="5">
-        <f>1-D11/E11</f>
-        <v>1.1933850540287727E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="F12" s="192">
+        <f t="shared" ref="F12:F23" si="0">1-E12/D12</f>
+        <v>-1.1948109235273563E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="199" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="202" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="195">
+        <f>'Автоматизированный расчет'!G40 * 3 * 4</f>
+        <v>1282.8169014084506</v>
+      </c>
+      <c r="E13" s="206">
+        <f>SummaryReport!H37 * 3</f>
+        <v>1284</v>
+      </c>
+      <c r="F13" s="192">
+        <f t="shared" si="0"/>
+        <v>-9.222661396575127E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="199" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="202" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="195">
+        <f>'Автоматизированный расчет'!G41 * 3 * 4</f>
+        <v>1080</v>
+      </c>
+      <c r="E14" s="206">
+        <f>SummaryReport!H45 * 3</f>
+        <v>1080</v>
+      </c>
+      <c r="F14" s="192">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="199" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="203" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="195">
+        <f>'Автоматизированный расчет'!G42 * 3 * 4</f>
+        <v>1080</v>
+      </c>
+      <c r="E15" s="206">
+        <f>SummaryReport!H34 * 3</f>
+        <v>1080</v>
+      </c>
+      <c r="F15" s="192">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="187">
-        <f>'Автоматизированный расчет'!G41*3 *4</f>
+      <c r="C16" s="202" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="195">
+        <f>'Автоматизированный расчет'!G43 * 3 * 4</f>
+        <v>720</v>
+      </c>
+      <c r="E16" s="206">
+        <f>SummaryReport!H41 * 3</f>
+        <v>720</v>
+      </c>
+      <c r="F16" s="192">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B17" s="199" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="202" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="195">
+        <f>'Автоматизированный расчет'!G44 * 3 * 4</f>
+        <v>1080.0733174883962</v>
+      </c>
+      <c r="E17" s="206">
+        <f>SummaryReport!H44 * 3</f>
         <v>1080</v>
       </c>
-      <c r="E12" s="3">
-        <f>SummaryReport!H45 *3</f>
+      <c r="F17" s="192">
+        <f t="shared" si="0"/>
+        <v>6.7881955057247367E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B18" s="199" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="202" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="195">
+        <f>'Автоматизированный расчет'!G45 * 3 * 4</f>
+        <v>282.35294117647061</v>
+      </c>
+      <c r="E18" s="206">
+        <f>SummaryReport!H36 * 3</f>
+        <v>282</v>
+      </c>
+      <c r="F18" s="192">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000844E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B19" s="199" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="202" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="195">
+        <f>'Автоматизированный расчет'!G46 * 3 * 4</f>
+        <v>1285.7142857142858</v>
+      </c>
+      <c r="E19" s="206">
+        <f>SummaryReport!H40 * 3</f>
+        <v>1284</v>
+      </c>
+      <c r="F19" s="192">
+        <f t="shared" si="0"/>
+        <v>1.3333333333334085E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="199" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="202" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="195">
+        <f>'Автоматизированный расчет'!G47 * 3 * 4</f>
+        <v>389.18918918918922</v>
+      </c>
+      <c r="E20" s="206">
+        <f>SummaryReport!H43 * 3</f>
+        <v>387</v>
+      </c>
+      <c r="F20" s="192">
+        <f t="shared" si="0"/>
+        <v>5.6250000000001021E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="199" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="203" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="195">
+        <f>'Автоматизированный расчет'!G48 * 3 * 4</f>
+        <v>389.18918918918922</v>
+      </c>
+      <c r="E21" s="206">
+        <f>SummaryReport!H42 * 3</f>
+        <v>387</v>
+      </c>
+      <c r="F21" s="192">
+        <f t="shared" si="0"/>
+        <v>5.6250000000001021E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="200" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="204" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="196">
+        <f>'Автоматизированный расчет'!G49 * 3 * 4</f>
+        <v>389.18918918918922</v>
+      </c>
+      <c r="E22" s="207">
+        <f>SummaryReport!H35 * 3</f>
+        <v>387</v>
+      </c>
+      <c r="F22" s="197">
+        <f t="shared" si="0"/>
+        <v>5.6250000000001021E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="190"/>
+      <c r="C23" s="191"/>
+      <c r="D23" s="214">
+        <f>SUM(D11:D22)</f>
+        <v>11909.482459142777</v>
+      </c>
+      <c r="E23" s="214">
+        <f>SUM(E11:E22)</f>
+        <v>11910</v>
+      </c>
+      <c r="F23" s="197">
+        <f t="shared" si="0"/>
+        <v>-4.3456200468749984E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B25" s="187" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="187"/>
+      <c r="D25" s="187"/>
+      <c r="E25" s="187"/>
+      <c r="F25" s="187"/>
+    </row>
+    <row r="26" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="194" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="210" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="194" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="210" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="194" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="N27" s="168"/>
+      <c r="O27" s="167"/>
+      <c r="P27" s="167"/>
+      <c r="Q27" s="167"/>
+    </row>
+    <row r="28" spans="2:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="198" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="201" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="195">
+        <f>'Автоматизированный расчет'!G38 * 3 * 4</f>
+        <v>2160.0733174883962</v>
+      </c>
+      <c r="E28" s="205">
+        <f>SummaryReport!H18</f>
+        <v>1081</v>
+      </c>
+      <c r="F28" s="192">
+        <f>1-D28/E28</f>
+        <v>-0.99821768500314167</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="N28" s="168"/>
+      <c r="O28" s="166"/>
+      <c r="P28" s="166"/>
+      <c r="Q28" s="166"/>
+      <c r="S28" s="166"/>
+      <c r="T28" s="166"/>
+      <c r="U28" s="166"/>
+      <c r="V28" s="166"/>
+      <c r="W28" s="166"/>
+      <c r="X28" s="166"/>
+      <c r="Y28" s="166"/>
+      <c r="Z28" s="166"/>
+      <c r="AA28" s="166"/>
+      <c r="AB28" s="166"/>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B29" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="202" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="211">
+        <f>'Автоматизированный расчет'!G39 * 3 * 4</f>
+        <v>1770.8841282992071</v>
+      </c>
+      <c r="E29" s="206">
+        <f>SummaryReport!H23</f>
+        <v>1769</v>
+      </c>
+      <c r="F29" s="188">
+        <f t="shared" ref="F29:F40" si="1">1-D29/E29</f>
+        <v>-1.0650810057699633E-3</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="N29" s="168"/>
+      <c r="O29" s="166"/>
+      <c r="P29" s="166"/>
+      <c r="Q29" s="166"/>
+      <c r="S29" s="166"/>
+      <c r="T29" s="166"/>
+      <c r="U29" s="166"/>
+      <c r="V29" s="166"/>
+      <c r="W29" s="166"/>
+      <c r="X29" s="166"/>
+      <c r="Y29" s="166"/>
+      <c r="Z29" s="166"/>
+      <c r="AA29" s="166"/>
+      <c r="AB29" s="166"/>
+    </row>
+    <row r="30" spans="2:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="199" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="202" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="211">
+        <f>'Автоматизированный расчет'!G40 * 3 * 4</f>
+        <v>1282.8169014084506</v>
+      </c>
+      <c r="E30" s="206">
+        <f>SummaryReport!H22</f>
+        <v>2157</v>
+      </c>
+      <c r="F30" s="188">
+        <f t="shared" si="1"/>
+        <v>0.40527728261082496</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="N30" s="168"/>
+      <c r="O30" s="166"/>
+      <c r="P30" s="166"/>
+      <c r="Q30" s="166"/>
+      <c r="S30" s="166"/>
+      <c r="T30" s="166"/>
+      <c r="U30" s="166"/>
+      <c r="V30" s="166"/>
+      <c r="W30" s="166"/>
+      <c r="X30" s="166"/>
+      <c r="Y30" s="166"/>
+      <c r="Z30" s="166"/>
+      <c r="AA30" s="166"/>
+      <c r="AB30" s="166"/>
+    </row>
+    <row r="31" spans="2:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="199" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="202" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="211">
+        <f>'Автоматизированный расчет'!G41 * 3 * 4</f>
         <v>1080</v>
       </c>
-      <c r="F12" s="5">
-        <f t="shared" ref="F12:F17" si="0">1-D12/E12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+      <c r="E31" s="206">
+        <f>SummaryReport!H29</f>
+        <v>1081</v>
+      </c>
+      <c r="F31" s="189">
+        <f t="shared" si="1"/>
+        <v>9.2506938020353591E-4</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="N31" s="168"/>
+      <c r="O31" s="166"/>
+      <c r="P31" s="166"/>
+      <c r="Q31" s="166"/>
+      <c r="S31" s="166"/>
+      <c r="T31" s="166"/>
+      <c r="U31" s="166"/>
+      <c r="V31" s="166"/>
+      <c r="W31" s="166"/>
+      <c r="X31" s="166"/>
+      <c r="Y31" s="166"/>
+      <c r="Z31" s="166"/>
+      <c r="AA31" s="166"/>
+      <c r="AB31" s="166"/>
+    </row>
+    <row r="32" spans="2:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="199" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="203" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="211">
+        <f>'Автоматизированный расчет'!G42 * 3 * 4</f>
+        <v>1080</v>
+      </c>
+      <c r="E32" s="206">
+        <f>SummaryReport!H18</f>
+        <v>1081</v>
+      </c>
+      <c r="F32" s="188">
+        <f t="shared" si="1"/>
+        <v>9.2506938020353591E-4</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="N32" s="168"/>
+      <c r="O32" s="166"/>
+      <c r="P32" s="166"/>
+      <c r="Q32" s="166"/>
+      <c r="S32" s="166"/>
+      <c r="T32" s="166"/>
+      <c r="U32" s="166"/>
+      <c r="V32" s="166"/>
+      <c r="W32" s="166"/>
+      <c r="X32" s="166"/>
+      <c r="Y32" s="166"/>
+      <c r="Z32" s="166"/>
+      <c r="AA32" s="166"/>
+      <c r="AB32" s="166"/>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B33" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="202" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="211">
+        <f>'Автоматизированный расчет'!G43 * 3 * 4</f>
+        <v>720</v>
+      </c>
+      <c r="E33" s="206">
+        <f>SummaryReport!H25</f>
+        <v>721</v>
+      </c>
+      <c r="F33" s="188">
+        <f t="shared" si="1"/>
+        <v>1.3869625520110951E-3</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="N33" s="168"/>
+      <c r="O33" s="166"/>
+      <c r="P33" s="166"/>
+      <c r="Q33" s="166"/>
+      <c r="S33" s="166"/>
+      <c r="T33" s="166"/>
+      <c r="U33" s="166"/>
+      <c r="V33" s="166"/>
+      <c r="W33" s="166"/>
+      <c r="X33" s="166"/>
+      <c r="Y33" s="166"/>
+      <c r="Z33" s="166"/>
+      <c r="AA33" s="166"/>
+      <c r="AB33" s="166"/>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B34" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="187">
-        <f>'Автоматизированный расчет'!G42*3*4</f>
-        <v>1080</v>
-      </c>
-      <c r="E13" s="3">
-        <f>SummaryReport!H34*3</f>
-        <v>1080</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+      <c r="C34" s="202" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="211">
+        <f>'Автоматизированный расчет'!G44 * 3 * 4</f>
+        <v>1080.0733174883962</v>
+      </c>
+      <c r="E34" s="206">
+        <f>SummaryReport!H28</f>
+        <v>1077</v>
+      </c>
+      <c r="F34" s="188">
+        <f t="shared" si="1"/>
+        <v>-2.8535909827263062E-3</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="N34" s="168"/>
+      <c r="O34" s="166"/>
+      <c r="P34" s="166"/>
+      <c r="Q34" s="166"/>
+      <c r="S34" s="166"/>
+      <c r="T34" s="166"/>
+      <c r="U34" s="166"/>
+      <c r="V34" s="166"/>
+      <c r="W34" s="166"/>
+      <c r="X34" s="166"/>
+      <c r="Y34" s="166"/>
+      <c r="Z34" s="166"/>
+      <c r="AA34" s="166"/>
+      <c r="AB34" s="166"/>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B35" s="199" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="202" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="211">
+        <f>'Автоматизированный расчет'!G45 * 3 * 4</f>
+        <v>282.35294117647061</v>
+      </c>
+      <c r="E35" s="206">
+        <f>SummaryReport!H20</f>
+        <v>280</v>
+      </c>
+      <c r="F35" s="188">
+        <f>1-D35/E35</f>
+        <v>-8.4033613445377853E-3</v>
+      </c>
+      <c r="N35" s="168"/>
+      <c r="O35" s="166"/>
+      <c r="P35" s="166"/>
+      <c r="Q35" s="166"/>
+      <c r="S35" s="166"/>
+      <c r="T35" s="166"/>
+      <c r="U35" s="166"/>
+      <c r="V35" s="166"/>
+      <c r="W35" s="166"/>
+      <c r="X35" s="166"/>
+      <c r="Y35" s="166"/>
+      <c r="Z35" s="166"/>
+      <c r="AA35" s="166"/>
+      <c r="AB35" s="166"/>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B36" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="187">
-        <f>'Автоматизированный расчет'!G43*3*4</f>
-        <v>720</v>
-      </c>
-      <c r="E14" s="3">
-        <f>SummaryReport!H41*3</f>
-        <v>720</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="187">
-        <f>'Автоматизированный расчет'!G44*3*4</f>
-        <v>1080.0733174883962</v>
-      </c>
-      <c r="E15" s="3">
-        <f>SummaryReport!H44*3</f>
-        <v>693</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="0"/>
-        <v>-0.55854735568311153</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="187">
-        <f>'Автоматизированный расчет'!G45*3*4</f>
-        <v>282.35294117647061</v>
-      </c>
-      <c r="E16" s="3">
-        <f>SummaryReport!H36 *3</f>
-        <v>282</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.2515644555695093E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="187">
-        <f>'Автоматизированный расчет'!G46*3*4</f>
+      <c r="C36" s="202" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="211">
+        <f>'Автоматизированный расчет'!G46 * 3 * 4</f>
         <v>1285.7142857142858</v>
       </c>
-      <c r="E17" s="3">
-        <f>SummaryReport!H40 * 3</f>
-        <v>924</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="0"/>
-        <v>-0.39146567717996295</v>
-      </c>
-    </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="E18">
-        <f>SUM(E11:E17)</f>
-        <v>6552</v>
-      </c>
-    </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B20" s="205" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="205"/>
-      <c r="D20" s="205"/>
-      <c r="E20" s="205"/>
-      <c r="F20" s="205"/>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="N22" s="175"/>
-      <c r="O22" s="174"/>
-      <c r="P22" s="174"/>
-      <c r="Q22" s="174"/>
-    </row>
-    <row r="23" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="4">
-        <f>'Автоматизированный расчет'!G39 * 3</f>
-        <v>442.72103207480177</v>
-      </c>
-      <c r="E23" s="3">
-        <f>SummaryReport!H23</f>
-        <v>444</v>
-      </c>
-      <c r="F23" s="5">
-        <f>1-D23/E23</f>
-        <v>2.8805583900860521E-3</v>
-      </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="N23" s="175"/>
-      <c r="O23" s="173"/>
-      <c r="P23" s="173"/>
-      <c r="Q23" s="173"/>
-      <c r="S23" s="173"/>
-      <c r="T23" s="173"/>
-      <c r="U23" s="173"/>
-      <c r="V23" s="173"/>
-      <c r="W23" s="173"/>
-      <c r="X23" s="173"/>
-      <c r="Y23" s="173"/>
-      <c r="Z23" s="173"/>
-      <c r="AA23" s="173"/>
-      <c r="AB23" s="173"/>
-    </row>
-    <row r="24" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="4">
-        <f>'Автоматизированный расчет'!G41 * 3</f>
-        <v>270</v>
-      </c>
-      <c r="E24" s="3">
-        <f>SummaryReport!H29</f>
-        <v>270</v>
-      </c>
-      <c r="F24" s="5">
-        <f t="shared" ref="F24:F29" si="1">1-D24/E24</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="N24" s="175"/>
-      <c r="O24" s="173"/>
-      <c r="P24" s="173"/>
-      <c r="Q24" s="173"/>
-      <c r="S24" s="173"/>
-      <c r="T24" s="173"/>
-      <c r="U24" s="173"/>
-      <c r="V24" s="173"/>
-      <c r="W24" s="173"/>
-      <c r="X24" s="173"/>
-      <c r="Y24" s="173"/>
-      <c r="Z24" s="173"/>
-      <c r="AA24" s="173"/>
-      <c r="AB24" s="173"/>
-    </row>
-    <row r="25" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="4">
-        <f>'Автоматизированный расчет'!G42 * 3</f>
-        <v>270</v>
-      </c>
-      <c r="E25" s="3">
-        <f>SummaryReport!H18</f>
-        <v>270</v>
-      </c>
-      <c r="F25" s="5">
+      <c r="E36" s="206">
+        <f>SummaryReport!H24</f>
+        <v>1287</v>
+      </c>
+      <c r="F36" s="188">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="N25" s="175"/>
-      <c r="O25" s="173"/>
-      <c r="P25" s="173"/>
-      <c r="Q25" s="173"/>
-      <c r="S25" s="173"/>
-      <c r="T25" s="173"/>
-      <c r="U25" s="173"/>
-      <c r="V25" s="173"/>
-      <c r="W25" s="173"/>
-      <c r="X25" s="173"/>
-      <c r="Y25" s="173"/>
-      <c r="Z25" s="173"/>
-      <c r="AA25" s="173"/>
-      <c r="AB25" s="173"/>
-    </row>
-    <row r="26" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="4">
-        <f>'Автоматизированный расчет'!G43 * 3</f>
-        <v>180</v>
-      </c>
-      <c r="E26" s="3">
-        <v>180</v>
-      </c>
-      <c r="F26" s="1">
+        <v>9.9900099900096517E-4</v>
+      </c>
+      <c r="N36" s="168"/>
+      <c r="O36" s="166"/>
+      <c r="P36" s="166"/>
+      <c r="Q36" s="166"/>
+      <c r="S36" s="166"/>
+      <c r="T36" s="166"/>
+      <c r="U36" s="166"/>
+      <c r="V36" s="166"/>
+      <c r="W36" s="166"/>
+      <c r="X36" s="166"/>
+      <c r="Y36" s="166"/>
+      <c r="Z36" s="166"/>
+      <c r="AA36" s="166"/>
+      <c r="AB36" s="166"/>
+    </row>
+    <row r="37" spans="2:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="199" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="202" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="211">
+        <f>'Автоматизированный расчет'!G47 * 3 * 4</f>
+        <v>389.18918918918922</v>
+      </c>
+      <c r="E37" s="206">
+        <f>SummaryReport!H27</f>
+        <v>388</v>
+      </c>
+      <c r="F37" s="188">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="N26" s="175"/>
-      <c r="O26" s="173"/>
-      <c r="P26" s="173"/>
-      <c r="Q26" s="173"/>
-      <c r="S26" s="173"/>
-      <c r="T26" s="173"/>
-      <c r="U26" s="173"/>
-      <c r="V26" s="173"/>
-      <c r="W26" s="173"/>
-      <c r="X26" s="173"/>
-      <c r="Y26" s="173"/>
-      <c r="Z26" s="173"/>
-      <c r="AA26" s="173"/>
-      <c r="AB26" s="173"/>
-    </row>
-    <row r="27" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="4">
-        <f>'Автоматизированный расчет'!G44 * 3</f>
-        <v>270.01832937209906</v>
-      </c>
-      <c r="E27" s="3">
-        <f>SummaryReport!H28</f>
-        <v>272</v>
-      </c>
-      <c r="F27" s="5">
+        <v>-3.0649205906938537E-3</v>
+      </c>
+      <c r="N37" s="168"/>
+      <c r="O37" s="166"/>
+      <c r="P37" s="166"/>
+      <c r="Q37" s="166"/>
+      <c r="S37" s="166"/>
+      <c r="T37" s="166"/>
+      <c r="U37" s="166"/>
+      <c r="V37" s="166"/>
+      <c r="W37" s="166"/>
+      <c r="X37" s="166"/>
+      <c r="Y37" s="166"/>
+      <c r="Z37" s="166"/>
+      <c r="AA37" s="166"/>
+      <c r="AB37" s="166"/>
+    </row>
+    <row r="38" spans="2:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="199" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="203" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="211">
+        <f>'Автоматизированный расчет'!G48 * 3 * 4</f>
+        <v>389.18918918918922</v>
+      </c>
+      <c r="E38" s="206">
+        <f>SummaryReport!H26</f>
+        <v>389</v>
+      </c>
+      <c r="F38" s="189">
         <f t="shared" si="1"/>
-        <v>7.2855537790476044E-3</v>
-      </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="N27" s="175"/>
-      <c r="O27" s="173"/>
-      <c r="P27" s="173"/>
-      <c r="Q27" s="173"/>
-      <c r="S27" s="173"/>
-      <c r="T27" s="173"/>
-      <c r="U27" s="173"/>
-      <c r="V27" s="173"/>
-      <c r="W27" s="173"/>
-      <c r="X27" s="173"/>
-      <c r="Y27" s="173"/>
-      <c r="Z27" s="173"/>
-      <c r="AA27" s="173"/>
-      <c r="AB27" s="173"/>
-    </row>
-    <row r="28" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="4">
-        <f>'Автоматизированный расчет'!G45 * 3</f>
-        <v>70.588235294117652</v>
-      </c>
-      <c r="E28" s="3">
+        <v>-4.8634753004939135E-4</v>
+      </c>
+      <c r="N38" s="168"/>
+      <c r="O38" s="166"/>
+      <c r="P38" s="166"/>
+      <c r="Q38" s="166"/>
+      <c r="S38" s="166"/>
+      <c r="T38" s="166"/>
+      <c r="U38" s="166"/>
+      <c r="V38" s="166"/>
+      <c r="W38" s="166"/>
+      <c r="X38" s="166"/>
+      <c r="Y38" s="166"/>
+      <c r="Z38" s="166"/>
+      <c r="AA38" s="166"/>
+      <c r="AB38" s="166"/>
+    </row>
+    <row r="39" spans="2:28" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="200" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="204" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="5">
+      <c r="D39" s="212">
+        <f>'Автоматизированный расчет'!G49 * 3 *4</f>
+        <v>389.18918918918922</v>
+      </c>
+      <c r="E39" s="207">
+        <f>SummaryReport!H19</f>
+        <v>388</v>
+      </c>
+      <c r="F39" s="213">
         <f t="shared" si="1"/>
-        <v>5.7995028997513964E-3</v>
-      </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="N28" s="175"/>
-      <c r="O28" s="173"/>
-      <c r="P28" s="173"/>
-      <c r="Q28" s="173"/>
-      <c r="S28" s="173"/>
-      <c r="T28" s="173"/>
-      <c r="U28" s="173"/>
-      <c r="V28" s="173"/>
-      <c r="W28" s="173"/>
-      <c r="X28" s="173"/>
-      <c r="Y28" s="173"/>
-      <c r="Z28" s="173"/>
-      <c r="AA28" s="173"/>
-      <c r="AB28" s="173"/>
-    </row>
-    <row r="29" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="4">
-        <f>'Автоматизированный расчет'!G46 * 3</f>
-        <v>321.42857142857144</v>
-      </c>
-      <c r="E29" s="3">
-        <f>SummaryReport!H24</f>
-        <v>341</v>
-      </c>
-      <c r="F29" s="5">
+        <v>-3.0649205906938537E-3</v>
+      </c>
+      <c r="N39" s="168"/>
+      <c r="O39" s="166"/>
+      <c r="P39" s="166"/>
+      <c r="Q39" s="166"/>
+      <c r="S39" s="166"/>
+      <c r="T39" s="166"/>
+      <c r="U39" s="166"/>
+      <c r="V39" s="166"/>
+      <c r="W39" s="166"/>
+      <c r="X39" s="166"/>
+      <c r="Y39" s="166"/>
+      <c r="Z39" s="166"/>
+      <c r="AA39" s="166"/>
+      <c r="AB39" s="166"/>
+    </row>
+    <row r="40" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="4">
+        <f>SUM(D28:D39)</f>
+        <v>11909.482459142777</v>
+      </c>
+      <c r="E40" s="4">
+        <f>SUM(E28:E39)</f>
+        <v>11699</v>
+      </c>
+      <c r="F40" s="213">
         <f t="shared" si="1"/>
-        <v>5.7394218684541198E-2</v>
-      </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="N29" s="175"/>
-      <c r="O29" s="173"/>
-      <c r="P29" s="173"/>
-      <c r="Q29" s="173"/>
-      <c r="S29" s="173"/>
-      <c r="T29" s="173"/>
-      <c r="U29" s="173"/>
-      <c r="V29" s="173"/>
-      <c r="W29" s="173"/>
-      <c r="X29" s="173"/>
-      <c r="Y29" s="173"/>
-      <c r="Z29" s="173"/>
-      <c r="AA29" s="173"/>
-      <c r="AB29" s="173"/>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="E30">
-        <f>SUM(E23:E29)</f>
-        <v>1848</v>
-      </c>
-      <c r="N30" s="175"/>
-      <c r="O30" s="173"/>
-      <c r="P30" s="173"/>
-      <c r="Q30" s="173"/>
-      <c r="S30" s="173"/>
-      <c r="T30" s="173"/>
-      <c r="U30" s="173"/>
-      <c r="V30" s="173"/>
-      <c r="W30" s="173"/>
-      <c r="X30" s="173"/>
-      <c r="Y30" s="173"/>
-      <c r="Z30" s="173"/>
-      <c r="AA30" s="173"/>
-      <c r="AB30" s="173"/>
-    </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="N31" s="175"/>
-      <c r="O31" s="173"/>
-      <c r="P31" s="173"/>
-      <c r="Q31" s="173"/>
-      <c r="S31" s="173"/>
-      <c r="T31" s="173"/>
-      <c r="U31" s="173"/>
-      <c r="V31" s="173"/>
-      <c r="W31" s="173"/>
-      <c r="X31" s="173"/>
-      <c r="Y31" s="173"/>
-      <c r="Z31" s="173"/>
-      <c r="AA31" s="173"/>
-      <c r="AB31" s="173"/>
-    </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="N32" s="175"/>
-      <c r="O32" s="173"/>
-      <c r="P32" s="173"/>
-      <c r="Q32" s="173"/>
-      <c r="S32" s="173"/>
-      <c r="T32" s="173"/>
-      <c r="U32" s="173"/>
-      <c r="V32" s="173"/>
-      <c r="W32" s="173"/>
-      <c r="X32" s="173"/>
-      <c r="Y32" s="173"/>
-      <c r="Z32" s="173"/>
-      <c r="AA32" s="173"/>
-      <c r="AB32" s="173"/>
-    </row>
-    <row r="33" spans="14:28" x14ac:dyDescent="0.25">
-      <c r="N33" s="175"/>
-      <c r="O33" s="173"/>
-      <c r="P33" s="173"/>
-      <c r="Q33" s="173"/>
-      <c r="S33" s="173"/>
-      <c r="T33" s="173"/>
-      <c r="U33" s="173"/>
-      <c r="V33" s="173"/>
-      <c r="W33" s="173"/>
-      <c r="X33" s="173"/>
-      <c r="Y33" s="173"/>
-      <c r="Z33" s="173"/>
-      <c r="AA33" s="173"/>
-      <c r="AB33" s="173"/>
-    </row>
-    <row r="34" spans="14:28" x14ac:dyDescent="0.25">
-      <c r="N34" s="175"/>
-      <c r="O34" s="173"/>
-      <c r="P34" s="173"/>
-      <c r="Q34" s="173"/>
-      <c r="S34" s="173"/>
-      <c r="T34" s="173"/>
-      <c r="U34" s="173"/>
-      <c r="V34" s="173"/>
-      <c r="W34" s="173"/>
-      <c r="X34" s="173"/>
-      <c r="Y34" s="173"/>
-      <c r="Z34" s="173"/>
-      <c r="AA34" s="173"/>
-      <c r="AB34" s="173"/>
-    </row>
-    <row r="35" spans="14:28" x14ac:dyDescent="0.25">
-      <c r="N35" s="175"/>
-      <c r="O35" s="173"/>
-      <c r="P35" s="173"/>
-      <c r="Q35" s="173"/>
-      <c r="S35" s="173"/>
-      <c r="T35" s="173"/>
-      <c r="U35" s="173"/>
-      <c r="V35" s="173"/>
-      <c r="W35" s="173"/>
-      <c r="X35" s="173"/>
-      <c r="Y35" s="173"/>
-      <c r="Z35" s="173"/>
-      <c r="AA35" s="173"/>
-      <c r="AB35" s="173"/>
-    </row>
-    <row r="36" spans="14:28" x14ac:dyDescent="0.25">
-      <c r="N36" s="175"/>
-      <c r="O36" s="173"/>
-      <c r="P36" s="173"/>
-      <c r="Q36" s="173"/>
-      <c r="S36" s="173"/>
-      <c r="T36" s="173"/>
-      <c r="U36" s="173"/>
-      <c r="V36" s="173"/>
-      <c r="W36" s="173"/>
-      <c r="X36" s="173"/>
-      <c r="Y36" s="173"/>
-      <c r="Z36" s="173"/>
-      <c r="AA36" s="173"/>
-      <c r="AB36" s="173"/>
-    </row>
-    <row r="37" spans="14:28" x14ac:dyDescent="0.25">
-      <c r="N37" s="175"/>
-      <c r="O37" s="173"/>
-      <c r="P37" s="173"/>
-      <c r="Q37" s="173"/>
-      <c r="S37" s="173"/>
-      <c r="T37" s="173"/>
-      <c r="U37" s="173"/>
-      <c r="V37" s="173"/>
-      <c r="W37" s="173"/>
-      <c r="X37" s="173"/>
-      <c r="Y37" s="173"/>
-      <c r="Z37" s="173"/>
-      <c r="AA37" s="173"/>
-      <c r="AB37" s="173"/>
-    </row>
-    <row r="38" spans="14:28" x14ac:dyDescent="0.25">
-      <c r="N38" s="175"/>
-      <c r="O38" s="173"/>
-      <c r="P38" s="173"/>
-      <c r="Q38" s="173"/>
-      <c r="S38" s="173"/>
-      <c r="T38" s="173"/>
-      <c r="U38" s="173"/>
-      <c r="V38" s="173"/>
-      <c r="W38" s="173"/>
-      <c r="X38" s="173"/>
-      <c r="Y38" s="173"/>
-      <c r="Z38" s="173"/>
-      <c r="AA38" s="173"/>
-      <c r="AB38" s="173"/>
-    </row>
-    <row r="39" spans="14:28" x14ac:dyDescent="0.25">
-      <c r="N39" s="175"/>
-      <c r="O39" s="173"/>
-      <c r="P39" s="173"/>
-      <c r="Q39" s="173"/>
-      <c r="S39" s="173"/>
-      <c r="T39" s="173"/>
-      <c r="U39" s="173"/>
-      <c r="V39" s="173"/>
-      <c r="W39" s="173"/>
-      <c r="X39" s="173"/>
-      <c r="Y39" s="173"/>
-      <c r="Z39" s="173"/>
-      <c r="AA39" s="173"/>
-      <c r="AB39" s="173"/>
-    </row>
-    <row r="40" spans="14:28" x14ac:dyDescent="0.25">
-      <c r="N40" s="175"/>
-      <c r="S40" s="173"/>
-      <c r="T40" s="173"/>
-      <c r="U40" s="173"/>
-      <c r="V40" s="173"/>
-      <c r="W40" s="173"/>
-      <c r="X40" s="173"/>
-      <c r="Y40" s="173"/>
-      <c r="Z40" s="173"/>
-      <c r="AA40" s="173"/>
-      <c r="AB40" s="173"/>
-    </row>
-    <row r="41" spans="14:28" x14ac:dyDescent="0.25">
-      <c r="N41" s="175"/>
-    </row>
-    <row r="42" spans="14:28" x14ac:dyDescent="0.25">
-      <c r="N42" s="175"/>
-    </row>
-    <row r="43" spans="14:28" x14ac:dyDescent="0.25">
-      <c r="N43" s="175"/>
-    </row>
-    <row r="44" spans="14:28" x14ac:dyDescent="0.25">
-      <c r="N44" s="175"/>
-    </row>
-    <row r="45" spans="14:28" x14ac:dyDescent="0.25">
-      <c r="N45" s="175"/>
-    </row>
-    <row r="46" spans="14:28" x14ac:dyDescent="0.25">
-      <c r="N46" s="175"/>
-    </row>
-    <row r="47" spans="14:28" x14ac:dyDescent="0.25">
-      <c r="N47" s="175"/>
-    </row>
-    <row r="48" spans="14:28" x14ac:dyDescent="0.25">
-      <c r="N48" s="175"/>
+        <v>-1.7991491507203694E-2</v>
+      </c>
+      <c r="N40" s="168"/>
+      <c r="O40" s="166"/>
+      <c r="P40" s="166"/>
+      <c r="Q40" s="166"/>
+      <c r="S40" s="166"/>
+      <c r="T40" s="166"/>
+      <c r="U40" s="166"/>
+      <c r="V40" s="166"/>
+      <c r="W40" s="166"/>
+      <c r="X40" s="166"/>
+      <c r="Y40" s="166"/>
+      <c r="Z40" s="166"/>
+      <c r="AA40" s="166"/>
+      <c r="AB40" s="166"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="N41" s="168"/>
+      <c r="O41" s="166"/>
+      <c r="P41" s="166"/>
+      <c r="Q41" s="166"/>
+      <c r="S41" s="166"/>
+      <c r="T41" s="166"/>
+      <c r="U41" s="166"/>
+      <c r="V41" s="166"/>
+      <c r="W41" s="166"/>
+      <c r="X41" s="166"/>
+      <c r="Y41" s="166"/>
+      <c r="Z41" s="166"/>
+      <c r="AA41" s="166"/>
+      <c r="AB41" s="166"/>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="N42" s="168"/>
+      <c r="O42" s="166"/>
+      <c r="P42" s="166"/>
+      <c r="Q42" s="166"/>
+      <c r="S42" s="166"/>
+      <c r="T42" s="166"/>
+      <c r="U42" s="166"/>
+      <c r="V42" s="166"/>
+      <c r="W42" s="166"/>
+      <c r="X42" s="166"/>
+      <c r="Y42" s="166"/>
+      <c r="Z42" s="166"/>
+      <c r="AA42" s="166"/>
+      <c r="AB42" s="166"/>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="N43" s="168"/>
+      <c r="O43" s="166"/>
+      <c r="P43" s="166"/>
+      <c r="Q43" s="166"/>
+      <c r="S43" s="166"/>
+      <c r="T43" s="166"/>
+      <c r="U43" s="166"/>
+      <c r="V43" s="166"/>
+      <c r="W43" s="166"/>
+      <c r="X43" s="166"/>
+      <c r="Y43" s="166"/>
+      <c r="Z43" s="166"/>
+      <c r="AA43" s="166"/>
+      <c r="AB43" s="166"/>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="N44" s="168"/>
+      <c r="O44" s="166"/>
+      <c r="P44" s="166"/>
+      <c r="Q44" s="166"/>
+      <c r="S44" s="166"/>
+      <c r="T44" s="166"/>
+      <c r="U44" s="166"/>
+      <c r="V44" s="166"/>
+      <c r="W44" s="166"/>
+      <c r="X44" s="166"/>
+      <c r="Y44" s="166"/>
+      <c r="Z44" s="166"/>
+      <c r="AA44" s="166"/>
+      <c r="AB44" s="166"/>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="N45" s="168"/>
+      <c r="S45" s="166"/>
+      <c r="T45" s="166"/>
+      <c r="U45" s="166"/>
+      <c r="V45" s="166"/>
+      <c r="W45" s="166"/>
+      <c r="X45" s="166"/>
+      <c r="Y45" s="166"/>
+      <c r="Z45" s="166"/>
+      <c r="AA45" s="166"/>
+      <c r="AB45" s="166"/>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="N46" s="168"/>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="N47" s="168"/>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="N48" s="168"/>
     </row>
     <row r="49" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N49" s="175"/>
+      <c r="N49" s="168"/>
     </row>
     <row r="50" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N50" s="175"/>
+      <c r="N50" s="168"/>
     </row>
     <row r="51" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N51" s="175"/>
+      <c r="N51" s="168"/>
     </row>
     <row r="52" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N52" s="175"/>
+      <c r="N52" s="168"/>
     </row>
     <row r="53" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N53" s="175"/>
+      <c r="N53" s="168"/>
     </row>
     <row r="54" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N54" s="175"/>
+      <c r="N54" s="168"/>
     </row>
     <row r="55" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N55" s="175"/>
+      <c r="N55" s="168"/>
     </row>
     <row r="56" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N56" s="175"/>
+      <c r="N56" s="168"/>
     </row>
     <row r="57" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N57" s="175"/>
+      <c r="N57" s="168"/>
     </row>
     <row r="58" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N58" s="175"/>
+      <c r="N58" s="168"/>
+    </row>
+    <row r="59" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N59" s="168"/>
+    </row>
+    <row r="60" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N60" s="168"/>
+    </row>
+    <row r="61" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N61" s="168"/>
+    </row>
+    <row r="62" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N62" s="168"/>
+    </row>
+    <row r="63" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N63" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
